--- a/output_validation/final__JIAF__platform_output.xlsx
+++ b/output_validation/final__JIAF__platform_output.xlsx
@@ -6,10 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PiN TOTAL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="PiN -- Host Community" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="PiN -- New IDPs" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="PiN -- Protracted IDPs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="PiN -- Host Community" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="PiN -- New IDPs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="PiN -- Protracted IDPs" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -42,12 +41,8 @@
     <font>
       <b val="1"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00FFFFFF"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -58,42 +53,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFFFFF"/>
         <bgColor rgb="00FFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00004bb4"/>
-        <bgColor rgb="00004bb4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DDEBF7"/>
-        <bgColor rgb="00DDEBF7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00e0e0e0"/>
-        <bgColor rgb="00e0e0e0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00F0F0F0"/>
-        <bgColor rgb="00F0F0F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00b3b389"/>
-        <bgColor rgb="00b3b389"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00ffffc5"/>
-        <bgColor rgb="00ffffc5"/>
       </patternFill>
     </fill>
     <fill>
@@ -118,6 +77,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00C65911"/>
         <bgColor rgb="00C65911"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DDEBF7"/>
+        <bgColor rgb="00DDEBF7"/>
       </patternFill>
     </fill>
   </fills>
@@ -173,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -181,53 +146,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -236,74 +187,20 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -671,764 +568,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="9" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="9" customWidth="1" min="11" max="11"/>
-    <col width="5" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="5" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="16" max="16"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>PiN TOTAL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Strata</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>TotN</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>% 1-2</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t># 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
-          <t>% 3</t>
-        </is>
-      </c>
-      <c r="K5" s="5" t="inlineStr">
-        <is>
-          <t># 3</t>
-        </is>
-      </c>
-      <c r="L5" s="5" t="inlineStr">
-        <is>
-          <t>% 4</t>
-        </is>
-      </c>
-      <c r="M5" s="5" t="inlineStr">
-        <is>
-          <t># 4</t>
-        </is>
-      </c>
-      <c r="N5" s="5" t="inlineStr">
-        <is>
-          <t>% 5</t>
-        </is>
-      </c>
-      <c r="O5" s="5" t="inlineStr">
-        <is>
-          <t># 5</t>
-        </is>
-      </c>
-      <c r="P5" s="5" t="inlineStr">
-        <is>
-          <t>% Tot PiN (3+)</t>
-        </is>
-      </c>
-      <c r="Q5" s="5" t="inlineStr">
-        <is>
-          <t># Tot PiN (3+)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="6" t="n"/>
-      <c r="B6" s="6" t="n"/>
-      <c r="C6" s="6" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>TOTAL (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>8459995</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>39</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v>3298971</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>4150061</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>9</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>759849</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" s="8" t="n">
-        <v>251115</v>
-      </c>
-      <c r="P6" s="8" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q6" s="9" t="n">
-        <v>5161024</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="10" t="inlineStr">
-        <is>
-          <t>Host Community (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="F7" s="10" t="inlineStr">
-        <is>
-          <t>Host Community</t>
-        </is>
-      </c>
-      <c r="G7" s="10" t="n">
-        <v>6886611</v>
-      </c>
-      <c r="H7" s="11" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="I7" s="11" t="n">
-        <v>2726842</v>
-      </c>
-      <c r="J7" s="11" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="K7" s="11" t="n">
-        <v>3386270</v>
-      </c>
-      <c r="L7" s="11" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="M7" s="11" t="n">
-        <v>573282</v>
-      </c>
-      <c r="N7" s="11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O7" s="11" t="n">
-        <v>200217</v>
-      </c>
-      <c r="P7" s="12" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="Q7" s="13" t="n">
-        <v>4159769</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="10" t="inlineStr">
-        <is>
-          <t>New IDPs (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="F8" s="10" t="inlineStr">
-        <is>
-          <t>New IDPs</t>
-        </is>
-      </c>
-      <c r="G8" s="10" t="n">
-        <v>228282</v>
-      </c>
-      <c r="H8" s="11" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="I8" s="11" t="n">
-        <v>45971</v>
-      </c>
-      <c r="J8" s="11" t="n">
-        <v>59.1</v>
-      </c>
-      <c r="K8" s="11" t="n">
-        <v>134925</v>
-      </c>
-      <c r="L8" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="M8" s="11" t="n">
-        <v>25133</v>
-      </c>
-      <c r="N8" s="11" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="O8" s="11" t="n">
-        <v>22252</v>
-      </c>
-      <c r="P8" s="12" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="Q8" s="13" t="n">
-        <v>182310</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>Protracted IDPs (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="F9" s="10" t="inlineStr">
-        <is>
-          <t>Protracted IDPs</t>
-        </is>
-      </c>
-      <c r="G9" s="10" t="n">
-        <v>1345102</v>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="I9" s="11" t="n">
-        <v>526157</v>
-      </c>
-      <c r="J9" s="11" t="n">
-        <v>46.8</v>
-      </c>
-      <c r="K9" s="11" t="n">
-        <v>628865</v>
-      </c>
-      <c r="L9" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="M9" s="11" t="n">
-        <v>161433</v>
-      </c>
-      <c r="N9" s="11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O9" s="11" t="n">
-        <v>28646</v>
-      </c>
-      <c r="P9" s="12" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="Q9" s="13" t="n">
-        <v>818945</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="14" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
-      <c r="F10" s="14" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G10" s="14" t="n">
-        <v>3848688</v>
-      </c>
-      <c r="H10" s="15" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="I10" s="15" t="n">
-        <v>1483153</v>
-      </c>
-      <c r="J10" s="15" t="n">
-        <v>48.9</v>
-      </c>
-      <c r="K10" s="15" t="n">
-        <v>1883668</v>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="M10" s="15" t="n">
-        <v>364219</v>
-      </c>
-      <c r="N10" s="15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O10" s="15" t="n">
-        <v>117648</v>
-      </c>
-      <c r="P10" s="16" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="Q10" s="17" t="n">
-        <v>2365535</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="14" t="inlineStr">
-        <is>
-          <t>Boys</t>
-        </is>
-      </c>
-      <c r="F11" s="14" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G11" s="14" t="n">
-        <v>4611307</v>
-      </c>
-      <c r="H11" s="15" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="I11" s="15" t="n">
-        <v>1815818</v>
-      </c>
-      <c r="J11" s="15" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K11" s="15" t="n">
-        <v>2266393</v>
-      </c>
-      <c r="L11" s="15" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="M11" s="15" t="n">
-        <v>395630</v>
-      </c>
-      <c r="N11" s="15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O11" s="15" t="n">
-        <v>133467</v>
-      </c>
-      <c r="P11" s="16" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="Q11" s="17" t="n">
-        <v>2795489</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="18" t="inlineStr">
-        <is>
-          <t>Female (MSNA)</t>
-        </is>
-      </c>
-      <c r="F12" s="18" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G12" s="18" t="n">
-        <v>3622892</v>
-      </c>
-      <c r="H12" s="19" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="I12" s="19" t="n">
-        <v>1407994</v>
-      </c>
-      <c r="J12" s="19" t="n">
-        <v>52.2</v>
-      </c>
-      <c r="K12" s="19" t="n">
-        <v>1890021</v>
-      </c>
-      <c r="L12" s="19" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M12" s="19" t="n">
-        <v>226999</v>
-      </c>
-      <c r="N12" s="19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="O12" s="19" t="n">
-        <v>97878</v>
-      </c>
-      <c r="P12" s="20" t="n">
-        <v>61.1</v>
-      </c>
-      <c r="Q12" s="21" t="n">
-        <v>2214899</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="18" t="inlineStr">
-        <is>
-          <t>Male (MSNA)</t>
-        </is>
-      </c>
-      <c r="F13" s="18" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G13" s="18" t="n">
-        <v>4611307</v>
-      </c>
-      <c r="H13" s="19" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="I13" s="19" t="n">
-        <v>1834347</v>
-      </c>
-      <c r="J13" s="19" t="n">
-        <v>48.8</v>
-      </c>
-      <c r="K13" s="19" t="n">
-        <v>2249894</v>
-      </c>
-      <c r="L13" s="19" t="n">
-        <v>8</v>
-      </c>
-      <c r="M13" s="19" t="n">
-        <v>368458</v>
-      </c>
-      <c r="N13" s="19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="O13" s="19" t="n">
-        <v>158608</v>
-      </c>
-      <c r="P13" s="20" t="n">
-        <v>60.2</v>
-      </c>
-      <c r="Q13" s="21" t="n">
-        <v>2776960</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="22" t="inlineStr">
-        <is>
-          <t>ECE (5 y.o.)</t>
-        </is>
-      </c>
-      <c r="F14" s="22" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G14" s="22" t="n">
-        <v>1505582</v>
-      </c>
-      <c r="H14" s="23" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="I14" s="23" t="n">
-        <v>654050</v>
-      </c>
-      <c r="J14" s="23" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="K14" s="23" t="n">
-        <v>702714</v>
-      </c>
-      <c r="L14" s="23" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="M14" s="23" t="n">
-        <v>114662</v>
-      </c>
-      <c r="N14" s="23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="O14" s="23" t="n">
-        <v>34156</v>
-      </c>
-      <c r="P14" s="24" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="Q14" s="25" t="n">
-        <v>851532</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="26" t="inlineStr">
-        <is>
-          <t>Primary school</t>
-        </is>
-      </c>
-      <c r="F15" s="26" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G15" s="26" t="n">
-        <v>2603075</v>
-      </c>
-      <c r="H15" s="27" t="n">
-        <v>39</v>
-      </c>
-      <c r="I15" s="27" t="n">
-        <v>1015068</v>
-      </c>
-      <c r="J15" s="27" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K15" s="27" t="n">
-        <v>1276942</v>
-      </c>
-      <c r="L15" s="27" t="n">
-        <v>9</v>
-      </c>
-      <c r="M15" s="27" t="n">
-        <v>233800</v>
-      </c>
-      <c r="N15" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" s="27" t="n">
-        <v>77266</v>
-      </c>
-      <c r="P15" s="28" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="29" t="n">
-        <v>1588007</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="26" t="inlineStr">
-        <is>
-          <t>Upper primary school</t>
-        </is>
-      </c>
-      <c r="F16" s="26" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G16" s="26" t="n">
-        <v>3253844</v>
-      </c>
-      <c r="H16" s="27" t="n">
-        <v>39</v>
-      </c>
-      <c r="I16" s="27" t="n">
-        <v>1268835</v>
-      </c>
-      <c r="J16" s="27" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K16" s="27" t="n">
-        <v>1596177</v>
-      </c>
-      <c r="L16" s="27" t="n">
-        <v>9</v>
-      </c>
-      <c r="M16" s="27" t="n">
-        <v>292250</v>
-      </c>
-      <c r="N16" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" s="27" t="n">
-        <v>96583</v>
-      </c>
-      <c r="P16" s="28" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q16" s="29" t="n">
-        <v>1985009</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="26" t="inlineStr">
-        <is>
-          <t>Secondary school</t>
-        </is>
-      </c>
-      <c r="F17" s="26" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G17" s="26" t="n">
-        <v>1952307</v>
-      </c>
-      <c r="H17" s="27" t="n">
-        <v>39</v>
-      </c>
-      <c r="I17" s="27" t="n">
-        <v>761301</v>
-      </c>
-      <c r="J17" s="27" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K17" s="27" t="n">
-        <v>957706</v>
-      </c>
-      <c r="L17" s="27" t="n">
-        <v>9</v>
-      </c>
-      <c r="M17" s="27" t="n">
-        <v>175350</v>
-      </c>
-      <c r="N17" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" s="27" t="n">
-        <v>57950</v>
-      </c>
-      <c r="P17" s="28" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="29" t="n">
-        <v>1191006</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="30" t="inlineStr">
-        <is>
-          <t>Children with disability</t>
-        </is>
-      </c>
-      <c r="F18" s="30" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G18" s="30" t="n">
-        <v>845999</v>
-      </c>
-      <c r="H18" s="31" t="n">
-        <v>39</v>
-      </c>
-      <c r="I18" s="31" t="n">
-        <v>329897</v>
-      </c>
-      <c r="J18" s="31" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K18" s="31" t="n">
-        <v>415006</v>
-      </c>
-      <c r="L18" s="31" t="n">
-        <v>9</v>
-      </c>
-      <c r="M18" s="31" t="n">
-        <v>75985</v>
-      </c>
-      <c r="N18" s="31" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" s="31" t="n">
-        <v>25111</v>
-      </c>
-      <c r="P18" s="32" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q18" s="33" t="n">
-        <v>516102</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:Q1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:S58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1462,3102 +604,3102 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5">
-      <c r="A5" s="34" t="n"/>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="34" t="n"/>
-      <c r="D5" s="34" t="n"/>
-      <c r="E5" s="35" t="inlineStr">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>admin_2</t>
         </is>
       </c>
-      <c r="F5" s="35" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Admin Pcode</t>
         </is>
       </c>
-      <c r="G5" s="35" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Population group</t>
         </is>
       </c>
-      <c r="H5" s="35" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>TotN</t>
         </is>
       </c>
-      <c r="I5" s="36" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>% 1-2</t>
         </is>
       </c>
-      <c r="J5" s="36" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t># 1-2</t>
         </is>
       </c>
-      <c r="K5" s="37" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>% 3</t>
         </is>
       </c>
-      <c r="L5" s="37" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t># 3</t>
         </is>
       </c>
-      <c r="M5" s="38" t="inlineStr">
+      <c r="M5" s="7" t="inlineStr">
         <is>
           <t>% 4</t>
         </is>
       </c>
-      <c r="N5" s="38" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t># 4</t>
         </is>
       </c>
-      <c r="O5" s="39" t="inlineStr">
+      <c r="O5" s="8" t="inlineStr">
         <is>
           <t>% 5</t>
         </is>
       </c>
-      <c r="P5" s="39" t="inlineStr">
+      <c r="P5" s="8" t="inlineStr">
         <is>
           <t># 5</t>
         </is>
       </c>
-      <c r="Q5" s="40" t="inlineStr">
+      <c r="Q5" s="9" t="inlineStr">
         <is>
           <t>% Tot PiN (3+)</t>
         </is>
       </c>
-      <c r="R5" s="40" t="inlineStr">
+      <c r="R5" s="9" t="inlineStr">
         <is>
           <t># Tot PiN (3+)</t>
         </is>
       </c>
-      <c r="S5" s="40" t="inlineStr">
+      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>adan_yabaal</t>
         </is>
       </c>
-      <c r="F6" s="41" t="n">
+      <c r="F6" s="11" t="n">
         <v>53</v>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H6" s="41" t="n">
+      <c r="H6" s="11" t="n">
         <v>173573</v>
       </c>
-      <c r="I6" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" s="43" t="n">
+      <c r="I6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L6" s="43" t="n">
+      <c r="L6" s="13" t="n">
         <v>173573</v>
       </c>
-      <c r="M6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="12" t="n">
+      <c r="M6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="16" t="n">
         <v>173573</v>
       </c>
-      <c r="S6" s="13" t="inlineStr">
+      <c r="S6" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="41" t="inlineStr">
+      <c r="A7" s="10" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>afgooye</t>
         </is>
       </c>
-      <c r="F7" s="41" t="n">
+      <c r="F7" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="G7" s="41" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H7" s="41" t="n">
+      <c r="H7" s="11" t="n">
         <v>243100</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="12" t="n">
         <v>37.8</v>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="12" t="n">
         <v>91829</v>
       </c>
-      <c r="K7" s="43" t="n">
+      <c r="K7" s="13" t="n">
         <v>29.3</v>
       </c>
-      <c r="L7" s="43" t="n">
+      <c r="L7" s="13" t="n">
         <v>71148</v>
       </c>
-      <c r="M7" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="45" t="n">
+      <c r="M7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="n">
         <v>33</v>
       </c>
-      <c r="P7" s="45" t="n">
+      <c r="P7" s="15" t="n">
         <v>80122</v>
       </c>
-      <c r="Q7" s="12" t="n">
+      <c r="Q7" s="16" t="n">
         <v>62.2</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="16" t="n">
         <v>151271</v>
       </c>
-      <c r="S7" s="13" t="inlineStr">
+      <c r="S7" s="17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>afmadow</t>
         </is>
       </c>
-      <c r="F8" s="41" t="n">
+      <c r="F8" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H8" s="41" t="n">
+      <c r="H8" s="11" t="n">
         <v>75316</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="12" t="n">
         <v>78.2</v>
       </c>
-      <c r="J8" s="42" t="n">
+      <c r="J8" s="12" t="n">
         <v>58917</v>
       </c>
-      <c r="K8" s="43" t="n">
+      <c r="K8" s="13" t="n">
         <v>14.8</v>
       </c>
-      <c r="L8" s="43" t="n">
+      <c r="L8" s="13" t="n">
         <v>11132</v>
       </c>
-      <c r="M8" s="44" t="n">
+      <c r="M8" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="N8" s="44" t="n">
+      <c r="N8" s="14" t="n">
         <v>5266</v>
       </c>
-      <c r="O8" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12" t="n">
+      <c r="O8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="n">
         <v>21.8</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="16" t="n">
         <v>16398</v>
       </c>
-      <c r="S8" s="13" t="inlineStr">
+      <c r="S8" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="41" t="inlineStr">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>baardheere</t>
         </is>
       </c>
-      <c r="F9" s="41" t="n">
+      <c r="F9" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="G9" s="41" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H9" s="41" t="n">
+      <c r="H9" s="11" t="n">
         <v>75316</v>
       </c>
-      <c r="I9" s="42" t="n">
+      <c r="I9" s="12" t="n">
         <v>30.6</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="12" t="n">
         <v>23043</v>
       </c>
-      <c r="K9" s="43" t="n">
+      <c r="K9" s="13" t="n">
         <v>64</v>
       </c>
-      <c r="L9" s="43" t="n">
+      <c r="L9" s="13" t="n">
         <v>48176</v>
       </c>
-      <c r="M9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="45" t="n">
+      <c r="M9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15" t="n">
         <v>5.4</v>
       </c>
-      <c r="P9" s="45" t="n">
+      <c r="P9" s="15" t="n">
         <v>4097</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="16" t="n">
         <v>69.40000000000001</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="16" t="n">
         <v>52272</v>
       </c>
-      <c r="S9" s="13" t="inlineStr">
+      <c r="S9" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>badhaadhe</t>
         </is>
       </c>
-      <c r="F10" s="41" t="n">
+      <c r="F10" s="11" t="n">
         <v>39</v>
       </c>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H10" s="41" t="n">
+      <c r="H10" s="11" t="n">
         <v>77970</v>
       </c>
-      <c r="I10" s="42" t="n">
+      <c r="I10" s="12" t="n">
         <v>58.8</v>
       </c>
-      <c r="J10" s="42" t="n">
+      <c r="J10" s="12" t="n">
         <v>45863</v>
       </c>
-      <c r="K10" s="43" t="n">
+      <c r="K10" s="13" t="n">
         <v>41.2</v>
       </c>
-      <c r="L10" s="43" t="n">
+      <c r="L10" s="13" t="n">
         <v>32106</v>
       </c>
-      <c r="M10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12" t="n">
+      <c r="M10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16" t="n">
         <v>41.2</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="16" t="n">
         <v>32106</v>
       </c>
-      <c r="S10" s="13" t="inlineStr">
+      <c r="S10" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="41" t="inlineStr">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>baki</t>
         </is>
       </c>
-      <c r="F11" s="41" t="n">
+      <c r="F11" s="11" t="n">
         <v>31</v>
       </c>
-      <c r="G11" s="41" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H11" s="41" t="n">
+      <c r="H11" s="11" t="n">
         <v>103387</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="12" t="n">
         <v>62.7</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="12" t="n">
         <v>64819</v>
       </c>
-      <c r="K11" s="43" t="n">
+      <c r="K11" s="13" t="n">
         <v>35.1</v>
       </c>
-      <c r="L11" s="43" t="n">
+      <c r="L11" s="13" t="n">
         <v>36318</v>
       </c>
-      <c r="M11" s="44" t="n">
+      <c r="M11" s="14" t="n">
         <v>2.2</v>
       </c>
-      <c r="N11" s="44" t="n">
+      <c r="N11" s="14" t="n">
         <v>2250</v>
       </c>
-      <c r="O11" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12" t="n">
+      <c r="O11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16" t="n">
         <v>37.3</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="16" t="n">
         <v>38568</v>
       </c>
-      <c r="S11" s="13" t="inlineStr">
+      <c r="S11" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="41" t="inlineStr">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="11" t="inlineStr">
         <is>
           <t>ballanbale</t>
         </is>
       </c>
-      <c r="F12" s="41" t="n">
+      <c r="F12" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H12" s="41" t="n">
+      <c r="H12" s="11" t="n">
         <v>82380</v>
       </c>
-      <c r="I12" s="42" t="n">
+      <c r="I12" s="12" t="n">
         <v>42.7</v>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="12" t="n">
         <v>35179</v>
       </c>
-      <c r="K12" s="43" t="n">
+      <c r="K12" s="13" t="n">
         <v>57.3</v>
       </c>
-      <c r="L12" s="43" t="n">
+      <c r="L12" s="13" t="n">
         <v>47201</v>
       </c>
-      <c r="M12" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12" t="n">
+      <c r="M12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16" t="n">
         <v>57.3</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="16" t="n">
         <v>47201</v>
       </c>
-      <c r="S12" s="13" t="inlineStr">
+      <c r="S12" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="41" t="inlineStr">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F13" s="41" t="n">
+      <c r="F13" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G13" s="41" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H13" s="41" t="n">
+      <c r="H13" s="11" t="n">
         <v>93763</v>
       </c>
-      <c r="I13" s="42" t="n">
+      <c r="I13" s="12" t="n">
         <v>37</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="12" t="n">
         <v>34720</v>
       </c>
-      <c r="K13" s="43" t="n">
+      <c r="K13" s="13" t="n">
         <v>51.3</v>
       </c>
-      <c r="L13" s="43" t="n">
+      <c r="L13" s="13" t="n">
         <v>48131</v>
       </c>
-      <c r="M13" s="44" t="n">
+      <c r="M13" s="14" t="n">
         <v>11.6</v>
       </c>
-      <c r="N13" s="44" t="n">
+      <c r="N13" s="14" t="n">
         <v>10912</v>
       </c>
-      <c r="O13" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="12" t="n">
+      <c r="O13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="16" t="n">
         <v>63</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="16" t="n">
         <v>59043</v>
       </c>
-      <c r="S13" s="13" t="inlineStr">
+      <c r="S13" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="41" t="inlineStr">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>baraawe</t>
         </is>
       </c>
-      <c r="F14" s="41" t="n">
+      <c r="F14" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G14" s="41" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H14" s="41" t="n">
+      <c r="H14" s="11" t="n">
         <v>173573</v>
       </c>
-      <c r="I14" s="42" t="n">
+      <c r="I14" s="12" t="n">
         <v>13.8</v>
       </c>
-      <c r="J14" s="42" t="n">
+      <c r="J14" s="12" t="n">
         <v>23985</v>
       </c>
-      <c r="K14" s="43" t="n">
+      <c r="K14" s="13" t="n">
         <v>65.8</v>
       </c>
-      <c r="L14" s="43" t="n">
+      <c r="L14" s="13" t="n">
         <v>114149</v>
       </c>
-      <c r="M14" s="44" t="n">
+      <c r="M14" s="14" t="n">
         <v>20.4</v>
       </c>
-      <c r="N14" s="44" t="n">
+      <c r="N14" s="14" t="n">
         <v>35439</v>
       </c>
-      <c r="O14" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="12" t="n">
+      <c r="O14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16" t="n">
         <v>86.2</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="16" t="n">
         <v>149589</v>
       </c>
-      <c r="S14" s="13" t="inlineStr">
+      <c r="S14" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="41" t="inlineStr">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="11" t="inlineStr">
         <is>
           <t>baydhaba</t>
         </is>
       </c>
-      <c r="F15" s="41" t="n">
+      <c r="F15" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="G15" s="41" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H15" s="41" t="n">
+      <c r="H15" s="11" t="n">
         <v>240015</v>
       </c>
-      <c r="I15" s="42" t="n">
+      <c r="I15" s="12" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="J15" s="42" t="n">
+      <c r="J15" s="12" t="n">
         <v>165744</v>
       </c>
-      <c r="K15" s="43" t="n">
+      <c r="K15" s="13" t="n">
         <v>24.3</v>
       </c>
-      <c r="L15" s="43" t="n">
+      <c r="L15" s="13" t="n">
         <v>58366</v>
       </c>
-      <c r="M15" s="44" t="n">
+      <c r="M15" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="N15" s="44" t="n">
+      <c r="N15" s="14" t="n">
         <v>12026</v>
       </c>
-      <c r="O15" s="45" t="n">
+      <c r="O15" s="15" t="n">
         <v>1.6</v>
       </c>
-      <c r="P15" s="45" t="n">
+      <c r="P15" s="15" t="n">
         <v>3879</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="16" t="n">
         <v>30.9</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="16" t="n">
         <v>74271</v>
       </c>
-      <c r="S15" s="13" t="inlineStr">
+      <c r="S15" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="41" t="inlineStr">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="11" t="inlineStr">
         <is>
           <t>belet_weyne</t>
         </is>
       </c>
-      <c r="F16" s="41" t="n">
+      <c r="F16" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="G16" s="41" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H16" s="41" t="n">
+      <c r="H16" s="11" t="n">
         <v>284225</v>
       </c>
-      <c r="I16" s="42" t="n">
+      <c r="I16" s="12" t="n">
         <v>47.6</v>
       </c>
-      <c r="J16" s="42" t="n">
+      <c r="J16" s="12" t="n">
         <v>135407</v>
       </c>
-      <c r="K16" s="43" t="n">
+      <c r="K16" s="13" t="n">
         <v>44.6</v>
       </c>
-      <c r="L16" s="43" t="n">
+      <c r="L16" s="13" t="n">
         <v>126811</v>
       </c>
-      <c r="M16" s="44" t="n">
+      <c r="M16" s="14" t="n">
         <v>3.8</v>
       </c>
-      <c r="N16" s="44" t="n">
+      <c r="N16" s="14" t="n">
         <v>10906</v>
       </c>
-      <c r="O16" s="45" t="n">
+      <c r="O16" s="15" t="n">
         <v>3.9</v>
       </c>
-      <c r="P16" s="45" t="n">
+      <c r="P16" s="15" t="n">
         <v>11101</v>
       </c>
-      <c r="Q16" s="12" t="n">
+      <c r="Q16" s="16" t="n">
         <v>52.4</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="16" t="n">
         <v>148818</v>
       </c>
-      <c r="S16" s="13" t="inlineStr">
+      <c r="S16" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="41" t="inlineStr">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="11" t="inlineStr">
         <is>
           <t>berbera</t>
         </is>
       </c>
-      <c r="F17" s="41" t="n">
+      <c r="F17" s="11" t="n">
         <v>25</v>
       </c>
-      <c r="G17" s="41" t="inlineStr">
+      <c r="G17" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H17" s="41" t="n">
+      <c r="H17" s="11" t="n">
         <v>206737</v>
       </c>
-      <c r="I17" s="42" t="n">
+      <c r="I17" s="12" t="n">
         <v>40.4</v>
       </c>
-      <c r="J17" s="42" t="n">
+      <c r="J17" s="12" t="n">
         <v>83537</v>
       </c>
-      <c r="K17" s="43" t="n">
+      <c r="K17" s="13" t="n">
         <v>58</v>
       </c>
-      <c r="L17" s="43" t="n">
+      <c r="L17" s="13" t="n">
         <v>119980</v>
       </c>
-      <c r="M17" s="44" t="n">
+      <c r="M17" s="14" t="n">
         <v>1.6</v>
       </c>
-      <c r="N17" s="44" t="n">
+      <c r="N17" s="14" t="n">
         <v>3220</v>
       </c>
-      <c r="O17" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12" t="n">
+      <c r="O17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16" t="n">
         <v>59.6</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="16" t="n">
         <v>123200</v>
       </c>
-      <c r="S17" s="13" t="inlineStr">
+      <c r="S17" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="41" t="inlineStr">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="11" t="inlineStr">
         <is>
           <t>borama</t>
         </is>
       </c>
-      <c r="F18" s="41" t="n">
+      <c r="F18" s="11" t="n">
         <v>24</v>
       </c>
-      <c r="G18" s="41" t="inlineStr">
+      <c r="G18" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H18" s="41" t="n">
+      <c r="H18" s="11" t="n">
         <v>81852</v>
       </c>
-      <c r="I18" s="42" t="n">
+      <c r="I18" s="12" t="n">
         <v>62.8</v>
       </c>
-      <c r="J18" s="42" t="n">
+      <c r="J18" s="12" t="n">
         <v>51409</v>
       </c>
-      <c r="K18" s="43" t="n">
+      <c r="K18" s="13" t="n">
         <v>33.1</v>
       </c>
-      <c r="L18" s="43" t="n">
+      <c r="L18" s="13" t="n">
         <v>27117</v>
       </c>
-      <c r="M18" s="44" t="n">
+      <c r="M18" s="14" t="n">
         <v>4.1</v>
       </c>
-      <c r="N18" s="44" t="n">
+      <c r="N18" s="14" t="n">
         <v>3326</v>
       </c>
-      <c r="O18" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="12" t="n">
+      <c r="O18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="16" t="n">
         <v>37.2</v>
       </c>
-      <c r="R18" s="12" t="n">
+      <c r="R18" s="16" t="n">
         <v>30443</v>
       </c>
-      <c r="S18" s="13" t="inlineStr">
+      <c r="S18" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="41" t="inlineStr">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="11" t="inlineStr">
         <is>
           <t>burco</t>
         </is>
       </c>
-      <c r="F19" s="41" t="n">
+      <c r="F19" s="11" t="n">
         <v>38</v>
       </c>
-      <c r="G19" s="41" t="inlineStr">
+      <c r="G19" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H19" s="41" t="n">
+      <c r="H19" s="11" t="n">
         <v>81840</v>
       </c>
-      <c r="I19" s="42" t="n">
+      <c r="I19" s="12" t="n">
         <v>33.2</v>
       </c>
-      <c r="J19" s="42" t="n">
+      <c r="J19" s="12" t="n">
         <v>27181</v>
       </c>
-      <c r="K19" s="43" t="n">
+      <c r="K19" s="13" t="n">
         <v>64.40000000000001</v>
       </c>
-      <c r="L19" s="43" t="n">
+      <c r="L19" s="13" t="n">
         <v>52688</v>
       </c>
-      <c r="M19" s="44" t="n">
+      <c r="M19" s="14" t="n">
         <v>2.4</v>
       </c>
-      <c r="N19" s="44" t="n">
+      <c r="N19" s="14" t="n">
         <v>1972</v>
       </c>
-      <c r="O19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="12" t="n">
+      <c r="O19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16" t="n">
         <v>66.8</v>
       </c>
-      <c r="R19" s="12" t="n">
+      <c r="R19" s="16" t="n">
         <v>54659</v>
       </c>
-      <c r="S19" s="13" t="inlineStr">
+      <c r="S19" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="11" t="inlineStr">
         <is>
           <t>burtinle</t>
         </is>
       </c>
-      <c r="F20" s="41" t="n">
+      <c r="F20" s="11" t="n">
         <v>37</v>
       </c>
-      <c r="G20" s="41" t="inlineStr">
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H20" s="41" t="n">
+      <c r="H20" s="11" t="n">
         <v>94050</v>
       </c>
-      <c r="I20" s="42" t="n">
+      <c r="I20" s="12" t="n">
         <v>13</v>
       </c>
-      <c r="J20" s="42" t="n">
+      <c r="J20" s="12" t="n">
         <v>12221</v>
       </c>
-      <c r="K20" s="43" t="n">
+      <c r="K20" s="13" t="n">
         <v>87</v>
       </c>
-      <c r="L20" s="43" t="n">
+      <c r="L20" s="13" t="n">
         <v>81829</v>
       </c>
-      <c r="M20" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="12" t="n">
+      <c r="M20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16" t="n">
         <v>87</v>
       </c>
-      <c r="R20" s="12" t="n">
+      <c r="R20" s="16" t="n">
         <v>81829</v>
       </c>
-      <c r="S20" s="13" t="inlineStr">
+      <c r="S20" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="41" t="inlineStr">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="11" t="inlineStr">
         <is>
           <t>buuhoodle</t>
         </is>
       </c>
-      <c r="F21" s="41" t="n">
+      <c r="F21" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="G21" s="41" t="inlineStr">
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H21" s="41" t="n">
+      <c r="H21" s="11" t="n">
         <v>94127</v>
       </c>
-      <c r="I21" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="43" t="n">
+      <c r="I21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L21" s="43" t="n">
+      <c r="L21" s="13" t="n">
         <v>94127</v>
       </c>
-      <c r="M21" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="12" t="n">
+      <c r="M21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="16" t="n">
         <v>94127</v>
       </c>
-      <c r="S21" s="13" t="inlineStr">
+      <c r="S21" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="41" t="inlineStr">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="10" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="10" t="n"/>
+      <c r="E22" s="11" t="inlineStr">
         <is>
           <t>buur_hakaba</t>
         </is>
       </c>
-      <c r="F22" s="41" t="n">
+      <c r="F22" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="G22" s="41" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H22" s="41" t="n">
+      <c r="H22" s="11" t="n">
         <v>94050</v>
       </c>
-      <c r="I22" s="42" t="n">
+      <c r="I22" s="12" t="n">
         <v>2.9</v>
       </c>
-      <c r="J22" s="42" t="n">
+      <c r="J22" s="12" t="n">
         <v>2760</v>
       </c>
-      <c r="K22" s="43" t="n">
+      <c r="K22" s="13" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="L22" s="43" t="n">
+      <c r="L22" s="13" t="n">
         <v>87379</v>
       </c>
-      <c r="M22" s="44" t="n">
+      <c r="M22" s="14" t="n">
         <v>4.2</v>
       </c>
-      <c r="N22" s="44" t="n">
+      <c r="N22" s="14" t="n">
         <v>3911</v>
       </c>
-      <c r="O22" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="12" t="n">
+      <c r="O22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="R22" s="12" t="n">
+      <c r="R22" s="16" t="n">
         <v>91290</v>
       </c>
-      <c r="S22" s="13" t="inlineStr">
+      <c r="S22" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="41" t="inlineStr">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="10" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="10" t="n"/>
+      <c r="E23" s="11" t="inlineStr">
         <is>
           <t>cabudwaaq</t>
         </is>
       </c>
-      <c r="F23" s="41" t="n">
+      <c r="F23" s="11" t="n">
         <v>51</v>
       </c>
-      <c r="G23" s="41" t="inlineStr">
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H23" s="41" t="n">
+      <c r="H23" s="11" t="n">
         <v>85275</v>
       </c>
-      <c r="I23" s="42" t="n">
+      <c r="I23" s="12" t="n">
         <v>86.3</v>
       </c>
-      <c r="J23" s="42" t="n">
+      <c r="J23" s="12" t="n">
         <v>73565</v>
       </c>
-      <c r="K23" s="43" t="n">
+      <c r="K23" s="13" t="n">
         <v>13.7</v>
       </c>
-      <c r="L23" s="43" t="n">
+      <c r="L23" s="13" t="n">
         <v>11710</v>
       </c>
-      <c r="M23" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="12" t="n">
+      <c r="M23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="16" t="n">
         <v>13.7</v>
       </c>
-      <c r="R23" s="12" t="n">
+      <c r="R23" s="16" t="n">
         <v>11710</v>
       </c>
-      <c r="S23" s="13" t="inlineStr">
+      <c r="S23" s="17" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="41" t="inlineStr">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="10" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="10" t="n"/>
+      <c r="E24" s="11" t="inlineStr">
         <is>
           <t>cadaado</t>
         </is>
       </c>
-      <c r="F24" s="41" t="n">
+      <c r="F24" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="G24" s="41" t="inlineStr">
+      <c r="G24" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H24" s="41" t="n">
+      <c r="H24" s="11" t="n">
         <v>115725</v>
       </c>
-      <c r="I24" s="42" t="n">
+      <c r="I24" s="12" t="n">
         <v>49.4</v>
       </c>
-      <c r="J24" s="42" t="n">
+      <c r="J24" s="12" t="n">
         <v>57120</v>
       </c>
-      <c r="K24" s="43" t="n">
+      <c r="K24" s="13" t="n">
         <v>48.2</v>
       </c>
-      <c r="L24" s="43" t="n">
+      <c r="L24" s="13" t="n">
         <v>55836</v>
       </c>
-      <c r="M24" s="44" t="n">
+      <c r="M24" s="14" t="n">
         <v>0.7</v>
       </c>
-      <c r="N24" s="44" t="n">
+      <c r="N24" s="14" t="n">
         <v>863</v>
       </c>
-      <c r="O24" s="45" t="n">
+      <c r="O24" s="15" t="n">
         <v>1.6</v>
       </c>
-      <c r="P24" s="45" t="n">
+      <c r="P24" s="15" t="n">
         <v>1906</v>
       </c>
-      <c r="Q24" s="12" t="n">
+      <c r="Q24" s="16" t="n">
         <v>50.6</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="16" t="n">
         <v>58605</v>
       </c>
-      <c r="S24" s="13" t="inlineStr">
+      <c r="S24" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="41" t="inlineStr">
+      <c r="A25" s="10" t="n"/>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="11" t="inlineStr">
         <is>
           <t>caynabo</t>
         </is>
       </c>
-      <c r="F25" s="41" t="n">
+      <c r="F25" s="11" t="n">
         <v>29</v>
       </c>
-      <c r="G25" s="41" t="inlineStr">
+      <c r="G25" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H25" s="41" t="n">
+      <c r="H25" s="11" t="n">
         <v>173573</v>
       </c>
-      <c r="I25" s="42" t="n">
+      <c r="I25" s="12" t="n">
         <v>70.5</v>
       </c>
-      <c r="J25" s="42" t="n">
+      <c r="J25" s="12" t="n">
         <v>122325</v>
       </c>
-      <c r="K25" s="43" t="n">
+      <c r="K25" s="13" t="n">
         <v>27.4</v>
       </c>
-      <c r="L25" s="43" t="n">
+      <c r="L25" s="13" t="n">
         <v>47487</v>
       </c>
-      <c r="M25" s="44" t="n">
+      <c r="M25" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="N25" s="44" t="n">
+      <c r="N25" s="14" t="n">
         <v>3169</v>
       </c>
-      <c r="O25" s="45" t="n">
+      <c r="O25" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="P25" s="45" t="n">
+      <c r="P25" s="15" t="n">
         <v>592</v>
       </c>
-      <c r="Q25" s="12" t="n">
+      <c r="Q25" s="16" t="n">
         <v>29.5</v>
       </c>
-      <c r="R25" s="12" t="n">
+      <c r="R25" s="16" t="n">
         <v>51248</v>
       </c>
-      <c r="S25" s="13" t="inlineStr">
+      <c r="S25" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="41" t="inlineStr">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="11" t="inlineStr">
         <is>
           <t>ceel_afweyn</t>
         </is>
       </c>
-      <c r="F26" s="41" t="n">
+      <c r="F26" s="11" t="n">
         <v>34</v>
       </c>
-      <c r="G26" s="41" t="inlineStr">
+      <c r="G26" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H26" s="41" t="n">
+      <c r="H26" s="11" t="n">
         <v>49284</v>
       </c>
-      <c r="I26" s="42" t="n">
+      <c r="I26" s="12" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="J26" s="42" t="n">
+      <c r="J26" s="12" t="n">
         <v>34795</v>
       </c>
-      <c r="K26" s="43" t="n">
+      <c r="K26" s="13" t="n">
         <v>28.4</v>
       </c>
-      <c r="L26" s="43" t="n">
+      <c r="L26" s="13" t="n">
         <v>14004</v>
       </c>
-      <c r="M26" s="44" t="n">
+      <c r="M26" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="N26" s="44" t="n">
+      <c r="N26" s="14" t="n">
         <v>255</v>
       </c>
-      <c r="O26" s="45" t="n">
+      <c r="O26" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="P26" s="45" t="n">
+      <c r="P26" s="15" t="n">
         <v>231</v>
       </c>
-      <c r="Q26" s="12" t="n">
+      <c r="Q26" s="16" t="n">
         <v>29.4</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="16" t="n">
         <v>14489</v>
       </c>
-      <c r="S26" s="13" t="inlineStr">
+      <c r="S26" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="41" t="inlineStr">
+      <c r="A27" s="10" t="n"/>
+      <c r="B27" s="10" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="11" t="inlineStr">
         <is>
           <t>ceel_barde</t>
         </is>
       </c>
-      <c r="F27" s="41" t="n">
+      <c r="F27" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="G27" s="41" t="inlineStr">
+      <c r="G27" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H27" s="41" t="n">
+      <c r="H27" s="11" t="n">
         <v>469612</v>
       </c>
-      <c r="I27" s="42" t="n">
+      <c r="I27" s="12" t="n">
         <v>56</v>
       </c>
-      <c r="J27" s="42" t="n">
+      <c r="J27" s="12" t="n">
         <v>263194</v>
       </c>
-      <c r="K27" s="43" t="n">
+      <c r="K27" s="13" t="n">
         <v>23.5</v>
       </c>
-      <c r="L27" s="43" t="n">
+      <c r="L27" s="13" t="n">
         <v>110482</v>
       </c>
-      <c r="M27" s="44" t="n">
+      <c r="M27" s="14" t="n">
         <v>5.1</v>
       </c>
-      <c r="N27" s="44" t="n">
+      <c r="N27" s="14" t="n">
         <v>23984</v>
       </c>
-      <c r="O27" s="45" t="n">
+      <c r="O27" s="15" t="n">
         <v>15.3</v>
       </c>
-      <c r="P27" s="45" t="n">
+      <c r="P27" s="15" t="n">
         <v>71952</v>
       </c>
-      <c r="Q27" s="12" t="n">
+      <c r="Q27" s="16" t="n">
         <v>44</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="16" t="n">
         <v>206418</v>
       </c>
-      <c r="S27" s="13" t="inlineStr">
+      <c r="S27" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="41" t="inlineStr">
+      <c r="A28" s="10" t="n"/>
+      <c r="B28" s="10" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="11" t="inlineStr">
         <is>
           <t>ceel_waaq</t>
         </is>
       </c>
-      <c r="F28" s="41" t="n">
+      <c r="F28" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="G28" s="41" t="inlineStr">
+      <c r="G28" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H28" s="41" t="n">
+      <c r="H28" s="11" t="n">
         <v>71100</v>
       </c>
-      <c r="I28" s="42" t="n">
+      <c r="I28" s="12" t="n">
         <v>29.8</v>
       </c>
-      <c r="J28" s="42" t="n">
+      <c r="J28" s="12" t="n">
         <v>21161</v>
       </c>
-      <c r="K28" s="43" t="n">
+      <c r="K28" s="13" t="n">
         <v>62.7</v>
       </c>
-      <c r="L28" s="43" t="n">
+      <c r="L28" s="13" t="n">
         <v>44588</v>
       </c>
-      <c r="M28" s="44" t="n">
+      <c r="M28" s="14" t="n">
         <v>4.6</v>
       </c>
-      <c r="N28" s="44" t="n">
+      <c r="N28" s="14" t="n">
         <v>3294</v>
       </c>
-      <c r="O28" s="45" t="n">
+      <c r="O28" s="15" t="n">
         <v>2.9</v>
       </c>
-      <c r="P28" s="45" t="n">
+      <c r="P28" s="15" t="n">
         <v>2057</v>
       </c>
-      <c r="Q28" s="12" t="n">
+      <c r="Q28" s="16" t="n">
         <v>70.2</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="16" t="n">
         <v>49939</v>
       </c>
-      <c r="S28" s="13" t="inlineStr">
+      <c r="S28" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="41" t="inlineStr">
+      <c r="A29" s="10" t="n"/>
+      <c r="B29" s="10" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="E29" s="11" t="inlineStr">
         <is>
           <t>ceerigaabo</t>
         </is>
       </c>
-      <c r="F29" s="41" t="n">
+      <c r="F29" s="11" t="n">
         <v>32</v>
       </c>
-      <c r="G29" s="41" t="inlineStr">
+      <c r="G29" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H29" s="41" t="n">
+      <c r="H29" s="11" t="n">
         <v>93763</v>
       </c>
-      <c r="I29" s="42" t="n">
+      <c r="I29" s="12" t="n">
         <v>52.8</v>
       </c>
-      <c r="J29" s="42" t="n">
+      <c r="J29" s="12" t="n">
         <v>49487</v>
       </c>
-      <c r="K29" s="43" t="n">
+      <c r="K29" s="13" t="n">
         <v>46.8</v>
       </c>
-      <c r="L29" s="43" t="n">
+      <c r="L29" s="13" t="n">
         <v>43901</v>
       </c>
-      <c r="M29" s="44" t="n">
+      <c r="M29" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="N29" s="44" t="n">
+      <c r="N29" s="14" t="n">
         <v>374</v>
       </c>
-      <c r="O29" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="12" t="n">
+      <c r="O29" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16" t="n">
         <v>47.2</v>
       </c>
-      <c r="R29" s="12" t="n">
+      <c r="R29" s="16" t="n">
         <v>44276</v>
       </c>
-      <c r="S29" s="13" t="inlineStr">
+      <c r="S29" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="41" t="inlineStr">
+      <c r="A30" s="10" t="n"/>
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="10" t="n"/>
+      <c r="E30" s="11" t="inlineStr">
         <is>
           <t>dhuusamarreeb</t>
         </is>
       </c>
-      <c r="F30" s="41" t="n">
+      <c r="F30" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="G30" s="41" t="inlineStr">
+      <c r="G30" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H30" s="41" t="n">
+      <c r="H30" s="11" t="n">
         <v>70760</v>
       </c>
-      <c r="I30" s="42" t="n">
+      <c r="I30" s="12" t="n">
         <v>47.9</v>
       </c>
-      <c r="J30" s="42" t="n">
+      <c r="J30" s="12" t="n">
         <v>33910</v>
       </c>
-      <c r="K30" s="43" t="n">
+      <c r="K30" s="13" t="n">
         <v>51</v>
       </c>
-      <c r="L30" s="43" t="n">
+      <c r="L30" s="13" t="n">
         <v>36115</v>
       </c>
-      <c r="M30" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" s="45" t="n">
+      <c r="M30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="P30" s="45" t="n">
+      <c r="P30" s="15" t="n">
         <v>735</v>
       </c>
-      <c r="Q30" s="12" t="n">
+      <c r="Q30" s="16" t="n">
         <v>52.1</v>
       </c>
-      <c r="R30" s="12" t="n">
+      <c r="R30" s="16" t="n">
         <v>36850</v>
       </c>
-      <c r="S30" s="13" t="inlineStr">
+      <c r="S30" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="41" t="inlineStr">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+      <c r="E31" s="11" t="inlineStr">
         <is>
           <t>diinsoor</t>
         </is>
       </c>
-      <c r="F31" s="41" t="n">
+      <c r="F31" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G31" s="41" t="inlineStr">
+      <c r="G31" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H31" s="41" t="n">
+      <c r="H31" s="11" t="n">
         <v>206737</v>
       </c>
-      <c r="I31" s="42" t="n">
+      <c r="I31" s="12" t="n">
         <v>42.7</v>
       </c>
-      <c r="J31" s="42" t="n">
+      <c r="J31" s="12" t="n">
         <v>88348</v>
       </c>
-      <c r="K31" s="43" t="n">
+      <c r="K31" s="13" t="n">
         <v>42.6</v>
       </c>
-      <c r="L31" s="43" t="n">
+      <c r="L31" s="13" t="n">
         <v>88151</v>
       </c>
-      <c r="M31" s="44" t="n">
+      <c r="M31" s="14" t="n">
         <v>13.2</v>
       </c>
-      <c r="N31" s="44" t="n">
+      <c r="N31" s="14" t="n">
         <v>27207</v>
       </c>
-      <c r="O31" s="45" t="n">
+      <c r="O31" s="15" t="n">
         <v>1.5</v>
       </c>
-      <c r="P31" s="45" t="n">
+      <c r="P31" s="15" t="n">
         <v>3031</v>
       </c>
-      <c r="Q31" s="12" t="n">
+      <c r="Q31" s="16" t="n">
         <v>57.3</v>
       </c>
-      <c r="R31" s="12" t="n">
+      <c r="R31" s="16" t="n">
         <v>118389</v>
       </c>
-      <c r="S31" s="13" t="inlineStr">
+      <c r="S31" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="41" t="inlineStr">
+      <c r="A32" s="10" t="n"/>
+      <c r="B32" s="10" t="n"/>
+      <c r="C32" s="10" t="n"/>
+      <c r="D32" s="10" t="n"/>
+      <c r="E32" s="11" t="inlineStr">
         <is>
           <t>doolow</t>
         </is>
       </c>
-      <c r="F32" s="41" t="n">
+      <c r="F32" s="11" t="n">
         <v>43</v>
       </c>
-      <c r="G32" s="41" t="inlineStr">
+      <c r="G32" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H32" s="41" t="n">
+      <c r="H32" s="11" t="n">
         <v>243100</v>
       </c>
-      <c r="I32" s="42" t="n">
+      <c r="I32" s="12" t="n">
         <v>17</v>
       </c>
-      <c r="J32" s="42" t="n">
+      <c r="J32" s="12" t="n">
         <v>41417</v>
       </c>
-      <c r="K32" s="43" t="n">
+      <c r="K32" s="13" t="n">
         <v>57.5</v>
       </c>
-      <c r="L32" s="43" t="n">
+      <c r="L32" s="13" t="n">
         <v>139834</v>
       </c>
-      <c r="M32" s="44" t="n">
+      <c r="M32" s="14" t="n">
         <v>23.6</v>
       </c>
-      <c r="N32" s="44" t="n">
+      <c r="N32" s="14" t="n">
         <v>57285</v>
       </c>
-      <c r="O32" s="45" t="n">
+      <c r="O32" s="15" t="n">
         <v>1.9</v>
       </c>
-      <c r="P32" s="45" t="n">
+      <c r="P32" s="15" t="n">
         <v>4564</v>
       </c>
-      <c r="Q32" s="12" t="n">
+      <c r="Q32" s="16" t="n">
         <v>83</v>
       </c>
-      <c r="R32" s="12" t="n">
+      <c r="R32" s="16" t="n">
         <v>201683</v>
       </c>
-      <c r="S32" s="13" t="inlineStr">
+      <c r="S32" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="41" t="inlineStr">
+      <c r="A33" s="10" t="n"/>
+      <c r="B33" s="10" t="n"/>
+      <c r="C33" s="10" t="n"/>
+      <c r="D33" s="10" t="n"/>
+      <c r="E33" s="11" t="inlineStr">
         <is>
           <t>eyl</t>
         </is>
       </c>
-      <c r="F33" s="41" t="n">
+      <c r="F33" s="11" t="n">
         <v>36</v>
       </c>
-      <c r="G33" s="41" t="inlineStr">
+      <c r="G33" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H33" s="41" t="n">
+      <c r="H33" s="11" t="n">
         <v>114132</v>
       </c>
-      <c r="I33" s="42" t="n">
+      <c r="I33" s="12" t="n">
         <v>32.9</v>
       </c>
-      <c r="J33" s="42" t="n">
+      <c r="J33" s="12" t="n">
         <v>37527</v>
       </c>
-      <c r="K33" s="43" t="n">
+      <c r="K33" s="13" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="L33" s="43" t="n">
+      <c r="L33" s="13" t="n">
         <v>76606</v>
       </c>
-      <c r="M33" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="12" t="n">
+      <c r="M33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16" t="n">
         <v>67.09999999999999</v>
       </c>
-      <c r="R33" s="12" t="n">
+      <c r="R33" s="16" t="n">
         <v>76606</v>
       </c>
-      <c r="S33" s="13" t="inlineStr">
+      <c r="S33" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="41" t="inlineStr">
+      <c r="A34" s="10" t="n"/>
+      <c r="B34" s="10" t="n"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="10" t="n"/>
+      <c r="E34" s="11" t="inlineStr">
         <is>
           <t>gaalkacyo</t>
         </is>
       </c>
-      <c r="F34" s="41" t="n">
+      <c r="F34" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G34" s="41" t="inlineStr">
+      <c r="G34" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H34" s="41" t="n">
+      <c r="H34" s="11" t="n">
         <v>79357</v>
       </c>
-      <c r="I34" s="42" t="n">
+      <c r="I34" s="12" t="n">
         <v>53</v>
       </c>
-      <c r="J34" s="42" t="n">
+      <c r="J34" s="12" t="n">
         <v>42051</v>
       </c>
-      <c r="K34" s="43" t="n">
+      <c r="K34" s="13" t="n">
         <v>44.2</v>
       </c>
-      <c r="L34" s="43" t="n">
+      <c r="L34" s="13" t="n">
         <v>35091</v>
       </c>
-      <c r="M34" s="44" t="n">
+      <c r="M34" s="14" t="n">
         <v>1.7</v>
       </c>
-      <c r="N34" s="44" t="n">
+      <c r="N34" s="14" t="n">
         <v>1362</v>
       </c>
-      <c r="O34" s="45" t="n">
+      <c r="O34" s="15" t="n">
         <v>1.1</v>
       </c>
-      <c r="P34" s="45" t="n">
+      <c r="P34" s="15" t="n">
         <v>853</v>
       </c>
-      <c r="Q34" s="12" t="n">
+      <c r="Q34" s="16" t="n">
         <v>47</v>
       </c>
-      <c r="R34" s="12" t="n">
+      <c r="R34" s="16" t="n">
         <v>37305</v>
       </c>
-      <c r="S34" s="13" t="inlineStr">
+      <c r="S34" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="41" t="inlineStr">
+      <c r="A35" s="10" t="n"/>
+      <c r="B35" s="10" t="n"/>
+      <c r="C35" s="10" t="n"/>
+      <c r="D35" s="10" t="n"/>
+      <c r="E35" s="11" t="inlineStr">
         <is>
           <t>galdogob</t>
         </is>
       </c>
-      <c r="F35" s="41" t="n">
+      <c r="F35" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="41" t="inlineStr">
+      <c r="G35" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H35" s="41" t="n">
+      <c r="H35" s="11" t="n">
         <v>94127</v>
       </c>
-      <c r="I35" s="42" t="n">
+      <c r="I35" s="12" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="J35" s="42" t="n">
+      <c r="J35" s="12" t="n">
         <v>76182</v>
       </c>
-      <c r="K35" s="43" t="n">
+      <c r="K35" s="13" t="n">
         <v>18</v>
       </c>
-      <c r="L35" s="43" t="n">
+      <c r="L35" s="13" t="n">
         <v>16959</v>
       </c>
-      <c r="M35" s="44" t="n">
+      <c r="M35" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="N35" s="44" t="n">
+      <c r="N35" s="14" t="n">
         <v>986</v>
       </c>
-      <c r="O35" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="12" t="n">
+      <c r="O35" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16" t="n">
         <v>19.1</v>
       </c>
-      <c r="R35" s="12" t="n">
+      <c r="R35" s="16" t="n">
         <v>17945</v>
       </c>
-      <c r="S35" s="13" t="inlineStr">
+      <c r="S35" s="17" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="41" t="inlineStr">
+      <c r="A36" s="10" t="n"/>
+      <c r="B36" s="10" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="10" t="n"/>
+      <c r="E36" s="11" t="inlineStr">
         <is>
           <t>garbahaarey</t>
         </is>
       </c>
-      <c r="F36" s="41" t="n">
+      <c r="F36" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="G36" s="41" t="inlineStr">
+      <c r="G36" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H36" s="41" t="n">
+      <c r="H36" s="11" t="n">
         <v>82380</v>
       </c>
-      <c r="I36" s="42" t="n">
+      <c r="I36" s="12" t="n">
         <v>12.2</v>
       </c>
-      <c r="J36" s="42" t="n">
+      <c r="J36" s="12" t="n">
         <v>10061</v>
       </c>
-      <c r="K36" s="43" t="n">
+      <c r="K36" s="13" t="n">
         <v>86.2</v>
       </c>
-      <c r="L36" s="43" t="n">
+      <c r="L36" s="13" t="n">
         <v>71033</v>
       </c>
-      <c r="M36" s="44" t="n">
+      <c r="M36" s="14" t="n">
         <v>1.6</v>
       </c>
-      <c r="N36" s="44" t="n">
+      <c r="N36" s="14" t="n">
         <v>1287</v>
       </c>
-      <c r="O36" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="12" t="n">
+      <c r="O36" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16" t="n">
         <v>87.8</v>
       </c>
-      <c r="R36" s="12" t="n">
+      <c r="R36" s="16" t="n">
         <v>72319</v>
       </c>
-      <c r="S36" s="13" t="inlineStr">
+      <c r="S36" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="41" t="inlineStr">
+      <c r="A37" s="10" t="n"/>
+      <c r="B37" s="10" t="n"/>
+      <c r="C37" s="10" t="n"/>
+      <c r="D37" s="10" t="n"/>
+      <c r="E37" s="11" t="inlineStr">
         <is>
           <t>garoowe</t>
         </is>
       </c>
-      <c r="F37" s="41" t="n">
+      <c r="F37" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="G37" s="41" t="inlineStr">
+      <c r="G37" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H37" s="41" t="n">
+      <c r="H37" s="11" t="n">
         <v>85275</v>
       </c>
-      <c r="I37" s="42" t="n">
+      <c r="I37" s="12" t="n">
         <v>40.3</v>
       </c>
-      <c r="J37" s="42" t="n">
+      <c r="J37" s="12" t="n">
         <v>34395</v>
       </c>
-      <c r="K37" s="43" t="n">
+      <c r="K37" s="13" t="n">
         <v>58.2</v>
       </c>
-      <c r="L37" s="43" t="n">
+      <c r="L37" s="13" t="n">
         <v>49599</v>
       </c>
-      <c r="M37" s="44" t="n">
+      <c r="M37" s="14" t="n">
         <v>1.5</v>
       </c>
-      <c r="N37" s="44" t="n">
+      <c r="N37" s="14" t="n">
         <v>1281</v>
       </c>
-      <c r="O37" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="12" t="n">
+      <c r="O37" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="16" t="n">
         <v>59.7</v>
       </c>
-      <c r="R37" s="12" t="n">
+      <c r="R37" s="16" t="n">
         <v>50880</v>
       </c>
-      <c r="S37" s="13" t="inlineStr">
+      <c r="S37" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="3" t="n"/>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="41" t="inlineStr">
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="10" t="n"/>
+      <c r="C38" s="10" t="n"/>
+      <c r="D38" s="10" t="n"/>
+      <c r="E38" s="11" t="inlineStr">
         <is>
           <t>gebiley</t>
         </is>
       </c>
-      <c r="F38" s="41" t="n">
+      <c r="F38" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="G38" s="41" t="inlineStr">
+      <c r="G38" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H38" s="41" t="n">
+      <c r="H38" s="11" t="n">
         <v>115725</v>
       </c>
-      <c r="I38" s="42" t="n">
+      <c r="I38" s="12" t="n">
         <v>62.8</v>
       </c>
-      <c r="J38" s="42" t="n">
+      <c r="J38" s="12" t="n">
         <v>72674</v>
       </c>
-      <c r="K38" s="43" t="n">
+      <c r="K38" s="13" t="n">
         <v>32.8</v>
       </c>
-      <c r="L38" s="43" t="n">
+      <c r="L38" s="13" t="n">
         <v>37901</v>
       </c>
-      <c r="M38" s="44" t="n">
+      <c r="M38" s="14" t="n">
         <v>4.5</v>
       </c>
-      <c r="N38" s="44" t="n">
+      <c r="N38" s="14" t="n">
         <v>5150</v>
       </c>
-      <c r="O38" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="12" t="n">
+      <c r="O38" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="16" t="n">
         <v>37.2</v>
       </c>
-      <c r="R38" s="12" t="n">
+      <c r="R38" s="16" t="n">
         <v>43051</v>
       </c>
-      <c r="S38" s="13" t="inlineStr">
+      <c r="S38" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="3" t="n"/>
-      <c r="C39" s="3" t="n"/>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="41" t="inlineStr">
+      <c r="A39" s="10" t="n"/>
+      <c r="B39" s="10" t="n"/>
+      <c r="C39" s="10" t="n"/>
+      <c r="D39" s="10" t="n"/>
+      <c r="E39" s="11" t="inlineStr">
         <is>
           <t>hargeysa</t>
         </is>
       </c>
-      <c r="F39" s="41" t="n">
+      <c r="F39" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="G39" s="41" t="inlineStr">
+      <c r="G39" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H39" s="41" t="n">
+      <c r="H39" s="11" t="n">
         <v>49284</v>
       </c>
-      <c r="I39" s="42" t="n">
+      <c r="I39" s="12" t="n">
         <v>40.7</v>
       </c>
-      <c r="J39" s="42" t="n">
+      <c r="J39" s="12" t="n">
         <v>20076</v>
       </c>
-      <c r="K39" s="43" t="n">
+      <c r="K39" s="13" t="n">
         <v>53.1</v>
       </c>
-      <c r="L39" s="43" t="n">
+      <c r="L39" s="13" t="n">
         <v>26175</v>
       </c>
-      <c r="M39" s="44" t="n">
+      <c r="M39" s="14" t="n">
         <v>6.2</v>
       </c>
-      <c r="N39" s="44" t="n">
+      <c r="N39" s="14" t="n">
         <v>3034</v>
       </c>
-      <c r="O39" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="12" t="n">
+      <c r="O39" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="16" t="n">
         <v>59.3</v>
       </c>
-      <c r="R39" s="12" t="n">
+      <c r="R39" s="16" t="n">
         <v>29209</v>
       </c>
-      <c r="S39" s="13" t="inlineStr">
+      <c r="S39" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="3" t="n"/>
-      <c r="C40" s="3" t="n"/>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="41" t="inlineStr">
+      <c r="A40" s="10" t="n"/>
+      <c r="B40" s="10" t="n"/>
+      <c r="C40" s="10" t="n"/>
+      <c r="D40" s="10" t="n"/>
+      <c r="E40" s="11" t="inlineStr">
         <is>
           <t>hobyo</t>
         </is>
       </c>
-      <c r="F40" s="41" t="n">
+      <c r="F40" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="G40" s="41" t="inlineStr">
+      <c r="G40" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H40" s="41" t="n">
+      <c r="H40" s="11" t="n">
         <v>469612</v>
       </c>
-      <c r="I40" s="42" t="n">
+      <c r="I40" s="12" t="n">
         <v>41.5</v>
       </c>
-      <c r="J40" s="42" t="n">
+      <c r="J40" s="12" t="n">
         <v>194691</v>
       </c>
-      <c r="K40" s="43" t="n">
+      <c r="K40" s="13" t="n">
         <v>56.8</v>
       </c>
-      <c r="L40" s="43" t="n">
+      <c r="L40" s="13" t="n">
         <v>266882</v>
       </c>
-      <c r="M40" s="44" t="n">
+      <c r="M40" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="N40" s="44" t="n">
+      <c r="N40" s="14" t="n">
         <v>4858</v>
       </c>
-      <c r="O40" s="45" t="n">
+      <c r="O40" s="15" t="n">
         <v>0.7</v>
       </c>
-      <c r="P40" s="45" t="n">
+      <c r="P40" s="15" t="n">
         <v>3182</v>
       </c>
-      <c r="Q40" s="12" t="n">
+      <c r="Q40" s="16" t="n">
         <v>58.5</v>
       </c>
-      <c r="R40" s="12" t="n">
+      <c r="R40" s="16" t="n">
         <v>274921</v>
       </c>
-      <c r="S40" s="13" t="inlineStr">
+      <c r="S40" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="3" t="n"/>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="3" t="n"/>
-      <c r="E41" s="41" t="inlineStr">
+      <c r="A41" s="10" t="n"/>
+      <c r="B41" s="10" t="n"/>
+      <c r="C41" s="10" t="n"/>
+      <c r="D41" s="10" t="n"/>
+      <c r="E41" s="11" t="inlineStr">
         <is>
           <t>jalalaqsi</t>
         </is>
       </c>
-      <c r="F41" s="41" t="n">
+      <c r="F41" s="11" t="n">
         <v>54</v>
       </c>
-      <c r="G41" s="41" t="inlineStr">
+      <c r="G41" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H41" s="41" t="n">
+      <c r="H41" s="11" t="n">
         <v>71100</v>
       </c>
-      <c r="I41" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" s="43" t="n">
+      <c r="I41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L41" s="43" t="n">
+      <c r="L41" s="13" t="n">
         <v>71100</v>
       </c>
-      <c r="M41" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="12" t="n">
+      <c r="M41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R41" s="12" t="n">
+      <c r="R41" s="16" t="n">
         <v>71100</v>
       </c>
-      <c r="S41" s="13" t="inlineStr">
+      <c r="S41" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="3" t="n"/>
-      <c r="C42" s="3" t="n"/>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="41" t="inlineStr">
+      <c r="A42" s="10" t="n"/>
+      <c r="B42" s="10" t="n"/>
+      <c r="C42" s="10" t="n"/>
+      <c r="D42" s="10" t="n"/>
+      <c r="E42" s="11" t="inlineStr">
         <is>
           <t>jamaame</t>
         </is>
       </c>
-      <c r="F42" s="41" t="n">
+      <c r="F42" s="11" t="n">
         <v>44</v>
       </c>
-      <c r="G42" s="41" t="inlineStr">
+      <c r="G42" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H42" s="41" t="n">
+      <c r="H42" s="11" t="n">
         <v>98820</v>
       </c>
-      <c r="I42" s="42" t="n">
+      <c r="I42" s="12" t="n">
         <v>3.3</v>
       </c>
-      <c r="J42" s="42" t="n">
+      <c r="J42" s="12" t="n">
         <v>3294</v>
       </c>
-      <c r="K42" s="43" t="n">
+      <c r="K42" s="13" t="n">
         <v>90.7</v>
       </c>
-      <c r="L42" s="43" t="n">
+      <c r="L42" s="13" t="n">
         <v>89594</v>
       </c>
-      <c r="M42" s="44" t="n">
+      <c r="M42" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="N42" s="44" t="n">
+      <c r="N42" s="14" t="n">
         <v>2966</v>
       </c>
-      <c r="O42" s="45" t="n">
+      <c r="O42" s="15" t="n">
         <v>3</v>
       </c>
-      <c r="P42" s="45" t="n">
+      <c r="P42" s="15" t="n">
         <v>2966</v>
       </c>
-      <c r="Q42" s="12" t="n">
+      <c r="Q42" s="16" t="n">
         <v>96.7</v>
       </c>
-      <c r="R42" s="12" t="n">
+      <c r="R42" s="16" t="n">
         <v>95527</v>
       </c>
-      <c r="S42" s="13" t="inlineStr">
+      <c r="S42" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="3" t="n"/>
-      <c r="C43" s="3" t="n"/>
-      <c r="D43" s="3" t="n"/>
-      <c r="E43" s="41" t="inlineStr">
+      <c r="A43" s="10" t="n"/>
+      <c r="B43" s="10" t="n"/>
+      <c r="C43" s="10" t="n"/>
+      <c r="D43" s="10" t="n"/>
+      <c r="E43" s="11" t="inlineStr">
         <is>
           <t>jariiban</t>
         </is>
       </c>
-      <c r="F43" s="41" t="n">
+      <c r="F43" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="G43" s="41" t="inlineStr">
+      <c r="G43" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H43" s="41" t="n">
+      <c r="H43" s="11" t="n">
         <v>77970</v>
       </c>
-      <c r="I43" s="42" t="n">
+      <c r="I43" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="J43" s="42" t="n">
+      <c r="J43" s="12" t="n">
         <v>30409</v>
       </c>
-      <c r="K43" s="43" t="n">
+      <c r="K43" s="13" t="n">
         <v>54.1</v>
       </c>
-      <c r="L43" s="43" t="n">
+      <c r="L43" s="13" t="n">
         <v>42173</v>
       </c>
-      <c r="M43" s="44" t="n">
+      <c r="M43" s="14" t="n">
         <v>6.9</v>
       </c>
-      <c r="N43" s="44" t="n">
+      <c r="N43" s="14" t="n">
         <v>5388</v>
       </c>
-      <c r="O43" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="12" t="n">
+      <c r="O43" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="R43" s="12" t="n">
+      <c r="R43" s="16" t="n">
         <v>47561</v>
       </c>
-      <c r="S43" s="13" t="inlineStr">
+      <c r="S43" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="n"/>
-      <c r="D44" s="3" t="n"/>
-      <c r="E44" s="41" t="inlineStr">
+      <c r="A44" s="10" t="n"/>
+      <c r="B44" s="10" t="n"/>
+      <c r="C44" s="10" t="n"/>
+      <c r="D44" s="10" t="n"/>
+      <c r="E44" s="11" t="inlineStr">
         <is>
           <t>jowhar</t>
         </is>
       </c>
-      <c r="F44" s="41" t="n">
+      <c r="F44" s="11" t="n">
         <v>56</v>
       </c>
-      <c r="G44" s="41" t="inlineStr">
+      <c r="G44" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H44" s="41" t="n">
+      <c r="H44" s="11" t="n">
         <v>93763</v>
       </c>
-      <c r="I44" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" s="43" t="n">
+      <c r="I44" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L44" s="43" t="n">
+      <c r="L44" s="13" t="n">
         <v>93763</v>
       </c>
-      <c r="M44" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="12" t="n">
+      <c r="M44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R44" s="12" t="n">
+      <c r="R44" s="16" t="n">
         <v>93763</v>
       </c>
-      <c r="S44" s="13" t="inlineStr">
+      <c r="S44" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="41" t="inlineStr">
+      <c r="A45" s="10" t="n"/>
+      <c r="B45" s="10" t="n"/>
+      <c r="C45" s="10" t="n"/>
+      <c r="D45" s="10" t="n"/>
+      <c r="E45" s="11" t="inlineStr">
         <is>
           <t>kismaayo</t>
         </is>
       </c>
-      <c r="F45" s="41" t="n">
+      <c r="F45" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G45" s="41" t="inlineStr">
+      <c r="G45" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H45" s="41" t="n">
+      <c r="H45" s="11" t="n">
         <v>85275</v>
       </c>
-      <c r="I45" s="42" t="n">
+      <c r="I45" s="12" t="n">
         <v>32.2</v>
       </c>
-      <c r="J45" s="42" t="n">
+      <c r="J45" s="12" t="n">
         <v>27448</v>
       </c>
-      <c r="K45" s="43" t="n">
+      <c r="K45" s="13" t="n">
         <v>64.8</v>
       </c>
-      <c r="L45" s="43" t="n">
+      <c r="L45" s="13" t="n">
         <v>55240</v>
       </c>
-      <c r="M45" s="44" t="n">
+      <c r="M45" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="N45" s="44" t="n">
+      <c r="N45" s="14" t="n">
         <v>2588</v>
       </c>
-      <c r="O45" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="12" t="n">
+      <c r="O45" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="16" t="n">
         <v>67.8</v>
       </c>
-      <c r="R45" s="12" t="n">
+      <c r="R45" s="16" t="n">
         <v>57828</v>
       </c>
-      <c r="S45" s="13" t="inlineStr">
+      <c r="S45" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n"/>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="3" t="n"/>
-      <c r="E46" s="41" t="inlineStr">
+      <c r="A46" s="10" t="n"/>
+      <c r="B46" s="10" t="n"/>
+      <c r="C46" s="10" t="n"/>
+      <c r="D46" s="10" t="n"/>
+      <c r="E46" s="11" t="inlineStr">
         <is>
           <t>laas_caanood</t>
         </is>
       </c>
-      <c r="F46" s="41" t="n">
+      <c r="F46" s="11" t="n">
         <v>48</v>
       </c>
-      <c r="G46" s="41" t="inlineStr">
+      <c r="G46" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H46" s="41" t="n">
+      <c r="H46" s="11" t="n">
         <v>81852</v>
       </c>
-      <c r="I46" s="42" t="n">
+      <c r="I46" s="12" t="n">
         <v>47.3</v>
       </c>
-      <c r="J46" s="42" t="n">
+      <c r="J46" s="12" t="n">
         <v>38680</v>
       </c>
-      <c r="K46" s="43" t="n">
+      <c r="K46" s="13" t="n">
         <v>42.5</v>
       </c>
-      <c r="L46" s="43" t="n">
+      <c r="L46" s="13" t="n">
         <v>34768</v>
       </c>
-      <c r="M46" s="44" t="n">
+      <c r="M46" s="14" t="n">
         <v>10.3</v>
       </c>
-      <c r="N46" s="44" t="n">
+      <c r="N46" s="14" t="n">
         <v>8405</v>
       </c>
-      <c r="O46" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="12" t="n">
+      <c r="O46" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="16" t="n">
         <v>52.7</v>
       </c>
-      <c r="R46" s="12" t="n">
+      <c r="R46" s="16" t="n">
         <v>43173</v>
       </c>
-      <c r="S46" s="13" t="inlineStr">
+      <c r="S46" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
-      <c r="D47" s="3" t="n"/>
-      <c r="E47" s="41" t="inlineStr">
+      <c r="A47" s="10" t="n"/>
+      <c r="B47" s="10" t="n"/>
+      <c r="C47" s="10" t="n"/>
+      <c r="D47" s="10" t="n"/>
+      <c r="E47" s="11" t="inlineStr">
         <is>
           <t>lughaye</t>
         </is>
       </c>
-      <c r="F47" s="41" t="n">
+      <c r="F47" s="11" t="n">
         <v>33</v>
       </c>
-      <c r="G47" s="41" t="inlineStr">
+      <c r="G47" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H47" s="41" t="n">
+      <c r="H47" s="11" t="n">
         <v>240015</v>
       </c>
-      <c r="I47" s="42" t="n">
+      <c r="I47" s="12" t="n">
         <v>64.2</v>
       </c>
-      <c r="J47" s="42" t="n">
+      <c r="J47" s="12" t="n">
         <v>154104</v>
       </c>
-      <c r="K47" s="43" t="n">
+      <c r="K47" s="13" t="n">
         <v>34</v>
       </c>
-      <c r="L47" s="43" t="n">
+      <c r="L47" s="13" t="n">
         <v>81485</v>
       </c>
-      <c r="M47" s="44" t="n">
+      <c r="M47" s="14" t="n">
         <v>1.6</v>
       </c>
-      <c r="N47" s="44" t="n">
+      <c r="N47" s="14" t="n">
         <v>3741</v>
       </c>
-      <c r="O47" s="45" t="n">
+      <c r="O47" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="P47" s="45" t="n">
+      <c r="P47" s="15" t="n">
         <v>684</v>
       </c>
-      <c r="Q47" s="12" t="n">
+      <c r="Q47" s="16" t="n">
         <v>35.8</v>
       </c>
-      <c r="R47" s="12" t="n">
+      <c r="R47" s="16" t="n">
         <v>85910</v>
       </c>
-      <c r="S47" s="13" t="inlineStr">
+      <c r="S47" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
-      <c r="D48" s="3" t="n"/>
-      <c r="E48" s="41" t="inlineStr">
+      <c r="A48" s="10" t="n"/>
+      <c r="B48" s="10" t="n"/>
+      <c r="C48" s="10" t="n"/>
+      <c r="D48" s="10" t="n"/>
+      <c r="E48" s="11" t="inlineStr">
         <is>
           <t>marka</t>
         </is>
       </c>
-      <c r="F48" s="41" t="n">
+      <c r="F48" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="G48" s="41" t="inlineStr">
+      <c r="G48" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H48" s="41" t="n">
+      <c r="H48" s="11" t="n">
         <v>81840</v>
       </c>
-      <c r="I48" s="42" t="n">
+      <c r="I48" s="12" t="n">
         <v>62.1</v>
       </c>
-      <c r="J48" s="42" t="n">
+      <c r="J48" s="12" t="n">
         <v>50856</v>
       </c>
-      <c r="K48" s="43" t="n">
+      <c r="K48" s="13" t="n">
         <v>37.9</v>
       </c>
-      <c r="L48" s="43" t="n">
+      <c r="L48" s="13" t="n">
         <v>30985</v>
       </c>
-      <c r="M48" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="12" t="n">
+      <c r="M48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P48" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="16" t="n">
         <v>37.9</v>
       </c>
-      <c r="R48" s="12" t="n">
+      <c r="R48" s="16" t="n">
         <v>30985</v>
       </c>
-      <c r="S48" s="13" t="inlineStr">
+      <c r="S48" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="3" t="n"/>
-      <c r="C49" s="3" t="n"/>
-      <c r="D49" s="3" t="n"/>
-      <c r="E49" s="41" t="inlineStr">
+      <c r="A49" s="10" t="n"/>
+      <c r="B49" s="10" t="n"/>
+      <c r="C49" s="10" t="n"/>
+      <c r="D49" s="10" t="n"/>
+      <c r="E49" s="11" t="inlineStr">
         <is>
           <t>owdweyne</t>
         </is>
       </c>
-      <c r="F49" s="41" t="n">
+      <c r="F49" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="G49" s="41" t="inlineStr">
+      <c r="G49" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H49" s="41" t="n">
+      <c r="H49" s="11" t="n">
         <v>116609</v>
       </c>
-      <c r="I49" s="42" t="n">
+      <c r="I49" s="12" t="n">
         <v>60</v>
       </c>
-      <c r="J49" s="42" t="n">
+      <c r="J49" s="12" t="n">
         <v>69983</v>
       </c>
-      <c r="K49" s="43" t="n">
+      <c r="K49" s="13" t="n">
         <v>34.8</v>
       </c>
-      <c r="L49" s="43" t="n">
+      <c r="L49" s="13" t="n">
         <v>40545</v>
       </c>
-      <c r="M49" s="44" t="n">
+      <c r="M49" s="14" t="n">
         <v>4.7</v>
       </c>
-      <c r="N49" s="44" t="n">
+      <c r="N49" s="14" t="n">
         <v>5502</v>
       </c>
-      <c r="O49" s="45" t="n">
+      <c r="O49" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="P49" s="45" t="n">
+      <c r="P49" s="15" t="n">
         <v>579</v>
       </c>
-      <c r="Q49" s="12" t="n">
+      <c r="Q49" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="R49" s="12" t="n">
+      <c r="R49" s="16" t="n">
         <v>46627</v>
       </c>
-      <c r="S49" s="13" t="inlineStr">
+      <c r="S49" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="3" t="n"/>
-      <c r="C50" s="3" t="n"/>
-      <c r="D50" s="3" t="n"/>
-      <c r="E50" s="41" t="inlineStr">
+      <c r="A50" s="10" t="n"/>
+      <c r="B50" s="10" t="n"/>
+      <c r="C50" s="10" t="n"/>
+      <c r="D50" s="10" t="n"/>
+      <c r="E50" s="11" t="inlineStr">
         <is>
           <t>qansax_dheere</t>
         </is>
       </c>
-      <c r="F50" s="41" t="n">
+      <c r="F50" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="G50" s="41" t="inlineStr">
+      <c r="G50" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H50" s="41" t="n">
+      <c r="H50" s="11" t="n">
         <v>103387</v>
       </c>
-      <c r="I50" s="42" t="n">
+      <c r="I50" s="12" t="n">
         <v>12.3</v>
       </c>
-      <c r="J50" s="42" t="n">
+      <c r="J50" s="12" t="n">
         <v>12682</v>
       </c>
-      <c r="K50" s="43" t="n">
+      <c r="K50" s="13" t="n">
         <v>58.4</v>
       </c>
-      <c r="L50" s="43" t="n">
+      <c r="L50" s="13" t="n">
         <v>60388</v>
       </c>
-      <c r="M50" s="44" t="n">
+      <c r="M50" s="14" t="n">
         <v>29.3</v>
       </c>
-      <c r="N50" s="44" t="n">
+      <c r="N50" s="14" t="n">
         <v>30316</v>
       </c>
-      <c r="O50" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="12" t="n">
+      <c r="O50" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P50" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="16" t="n">
         <v>87.7</v>
       </c>
-      <c r="R50" s="12" t="n">
+      <c r="R50" s="16" t="n">
         <v>90705</v>
       </c>
-      <c r="S50" s="13" t="inlineStr">
+      <c r="S50" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="3" t="n"/>
-      <c r="C51" s="3" t="n"/>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="41" t="inlineStr">
+      <c r="A51" s="10" t="n"/>
+      <c r="B51" s="10" t="n"/>
+      <c r="C51" s="10" t="n"/>
+      <c r="D51" s="10" t="n"/>
+      <c r="E51" s="11" t="inlineStr">
         <is>
           <t>qoryooley</t>
         </is>
       </c>
-      <c r="F51" s="41" t="n">
+      <c r="F51" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="G51" s="41" t="inlineStr">
+      <c r="G51" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H51" s="41" t="n">
+      <c r="H51" s="11" t="n">
         <v>70760</v>
       </c>
-      <c r="I51" s="42" t="n">
+      <c r="I51" s="12" t="n">
         <v>22.7</v>
       </c>
-      <c r="J51" s="42" t="n">
+      <c r="J51" s="12" t="n">
         <v>16080</v>
       </c>
-      <c r="K51" s="43" t="n">
+      <c r="K51" s="13" t="n">
         <v>75.7</v>
       </c>
-      <c r="L51" s="43" t="n">
+      <c r="L51" s="13" t="n">
         <v>53537</v>
       </c>
-      <c r="M51" s="44" t="n">
+      <c r="M51" s="14" t="n">
         <v>0.7</v>
       </c>
-      <c r="N51" s="44" t="n">
+      <c r="N51" s="14" t="n">
         <v>499</v>
       </c>
-      <c r="O51" s="45" t="n">
+      <c r="O51" s="15" t="n">
         <v>0.9</v>
       </c>
-      <c r="P51" s="45" t="n">
+      <c r="P51" s="15" t="n">
         <v>645</v>
       </c>
-      <c r="Q51" s="12" t="n">
+      <c r="Q51" s="16" t="n">
         <v>77.3</v>
       </c>
-      <c r="R51" s="12" t="n">
+      <c r="R51" s="16" t="n">
         <v>54681</v>
       </c>
-      <c r="S51" s="13" t="inlineStr">
+      <c r="S51" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="3" t="n"/>
-      <c r="C52" s="3" t="n"/>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="41" t="inlineStr">
+      <c r="A52" s="10" t="n"/>
+      <c r="B52" s="10" t="n"/>
+      <c r="C52" s="10" t="n"/>
+      <c r="D52" s="10" t="n"/>
+      <c r="E52" s="11" t="inlineStr">
         <is>
           <t>sheikh</t>
         </is>
       </c>
-      <c r="F52" s="41" t="n">
+      <c r="F52" s="11" t="n">
         <v>28</v>
       </c>
-      <c r="G52" s="41" t="inlineStr">
+      <c r="G52" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H52" s="41" t="n">
+      <c r="H52" s="11" t="n">
         <v>79357</v>
       </c>
-      <c r="I52" s="42" t="n">
+      <c r="I52" s="12" t="n">
         <v>61.4</v>
       </c>
-      <c r="J52" s="42" t="n">
+      <c r="J52" s="12" t="n">
         <v>48687</v>
       </c>
-      <c r="K52" s="43" t="n">
+      <c r="K52" s="13" t="n">
         <v>35.1</v>
       </c>
-      <c r="L52" s="43" t="n">
+      <c r="L52" s="13" t="n">
         <v>27860</v>
       </c>
-      <c r="M52" s="44" t="n">
+      <c r="M52" s="14" t="n">
         <v>3.2</v>
       </c>
-      <c r="N52" s="44" t="n">
+      <c r="N52" s="14" t="n">
         <v>2505</v>
       </c>
-      <c r="O52" s="45" t="n">
+      <c r="O52" s="15" t="n">
         <v>0.4</v>
       </c>
-      <c r="P52" s="45" t="n">
+      <c r="P52" s="15" t="n">
         <v>306</v>
       </c>
-      <c r="Q52" s="12" t="n">
+      <c r="Q52" s="16" t="n">
         <v>38.6</v>
       </c>
-      <c r="R52" s="12" t="n">
+      <c r="R52" s="16" t="n">
         <v>30670</v>
       </c>
-      <c r="S52" s="13" t="inlineStr">
+      <c r="S52" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n"/>
-      <c r="B53" s="3" t="n"/>
-      <c r="C53" s="3" t="n"/>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="41" t="inlineStr">
+      <c r="A53" s="10" t="n"/>
+      <c r="B53" s="10" t="n"/>
+      <c r="C53" s="10" t="n"/>
+      <c r="D53" s="10" t="n"/>
+      <c r="E53" s="11" t="inlineStr">
         <is>
           <t>taleex</t>
         </is>
       </c>
-      <c r="F53" s="41" t="n">
+      <c r="F53" s="11" t="n">
         <v>52</v>
       </c>
-      <c r="G53" s="41" t="inlineStr">
+      <c r="G53" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H53" s="41" t="n">
+      <c r="H53" s="11" t="n">
         <v>79357</v>
       </c>
-      <c r="I53" s="42" t="n">
+      <c r="I53" s="12" t="n">
         <v>5.5</v>
       </c>
-      <c r="J53" s="42" t="n">
+      <c r="J53" s="12" t="n">
         <v>4400</v>
       </c>
-      <c r="K53" s="43" t="n">
+      <c r="K53" s="13" t="n">
         <v>94.5</v>
       </c>
-      <c r="L53" s="43" t="n">
+      <c r="L53" s="13" t="n">
         <v>74957</v>
       </c>
-      <c r="M53" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="12" t="n">
+      <c r="M53" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P53" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="16" t="n">
         <v>94.5</v>
       </c>
-      <c r="R53" s="12" t="n">
+      <c r="R53" s="16" t="n">
         <v>74957</v>
       </c>
-      <c r="S53" s="13" t="inlineStr">
+      <c r="S53" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n"/>
-      <c r="B54" s="3" t="n"/>
-      <c r="C54" s="3" t="n"/>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="41" t="inlineStr">
+      <c r="A54" s="10" t="n"/>
+      <c r="B54" s="10" t="n"/>
+      <c r="C54" s="10" t="n"/>
+      <c r="D54" s="10" t="n"/>
+      <c r="E54" s="11" t="inlineStr">
         <is>
           <t>waajid</t>
         </is>
       </c>
-      <c r="F54" s="41" t="n">
+      <c r="F54" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="G54" s="41" t="inlineStr">
+      <c r="G54" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H54" s="41" t="n">
+      <c r="H54" s="11" t="n">
         <v>114132</v>
       </c>
-      <c r="I54" s="42" t="n">
+      <c r="I54" s="12" t="n">
         <v>50.7</v>
       </c>
-      <c r="J54" s="42" t="n">
+      <c r="J54" s="12" t="n">
         <v>57852</v>
       </c>
-      <c r="K54" s="43" t="n">
+      <c r="K54" s="13" t="n">
         <v>49.3</v>
       </c>
-      <c r="L54" s="43" t="n">
+      <c r="L54" s="13" t="n">
         <v>56280</v>
       </c>
-      <c r="M54" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="12" t="n">
+      <c r="M54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P54" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="16" t="n">
         <v>49.3</v>
       </c>
-      <c r="R54" s="12" t="n">
+      <c r="R54" s="16" t="n">
         <v>56280</v>
       </c>
-      <c r="S54" s="13" t="inlineStr">
+      <c r="S54" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n"/>
-      <c r="B55" s="3" t="n"/>
-      <c r="C55" s="3" t="n"/>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="41" t="inlineStr">
+      <c r="A55" s="10" t="n"/>
+      <c r="B55" s="10" t="n"/>
+      <c r="C55" s="10" t="n"/>
+      <c r="D55" s="10" t="n"/>
+      <c r="E55" s="11" t="inlineStr">
         <is>
           <t>wanla_weyn</t>
         </is>
       </c>
-      <c r="F55" s="41" t="n">
+      <c r="F55" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="G55" s="41" t="inlineStr">
+      <c r="G55" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H55" s="41" t="n">
+      <c r="H55" s="11" t="n">
         <v>284225</v>
       </c>
-      <c r="I55" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K55" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" s="44" t="n">
+      <c r="I55" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="N55" s="44" t="n">
+      <c r="N55" s="14" t="n">
         <v>284225</v>
       </c>
-      <c r="O55" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="12" t="n">
+      <c r="O55" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R55" s="12" t="n">
+      <c r="R55" s="16" t="n">
         <v>284225</v>
       </c>
-      <c r="S55" s="13" t="inlineStr">
+      <c r="S55" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n"/>
-      <c r="B56" s="3" t="n"/>
-      <c r="C56" s="3" t="n"/>
-      <c r="D56" s="3" t="n"/>
-      <c r="E56" s="41" t="inlineStr">
+      <c r="A56" s="10" t="n"/>
+      <c r="B56" s="10" t="n"/>
+      <c r="C56" s="10" t="n"/>
+      <c r="D56" s="10" t="n"/>
+      <c r="E56" s="11" t="inlineStr">
         <is>
           <t>xudun</t>
         </is>
       </c>
-      <c r="F56" s="41" t="n">
+      <c r="F56" s="11" t="n">
         <v>26</v>
       </c>
-      <c r="G56" s="41" t="inlineStr">
+      <c r="G56" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H56" s="41" t="n">
+      <c r="H56" s="11" t="n">
         <v>94127</v>
       </c>
-      <c r="I56" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K56" s="43" t="n">
+      <c r="I56" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L56" s="43" t="n">
+      <c r="L56" s="13" t="n">
         <v>94127</v>
       </c>
-      <c r="M56" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="12" t="n">
+      <c r="M56" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P56" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R56" s="12" t="n">
+      <c r="R56" s="16" t="n">
         <v>94127</v>
       </c>
-      <c r="S56" s="13" t="inlineStr">
+      <c r="S56" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n"/>
-      <c r="B57" s="3" t="n"/>
-      <c r="C57" s="3" t="n"/>
-      <c r="D57" s="3" t="n"/>
-      <c r="E57" s="41" t="inlineStr">
+      <c r="A57" s="10" t="n"/>
+      <c r="B57" s="10" t="n"/>
+      <c r="C57" s="10" t="n"/>
+      <c r="D57" s="10" t="n"/>
+      <c r="E57" s="11" t="inlineStr">
         <is>
           <t>xudur</t>
         </is>
       </c>
-      <c r="F57" s="41" t="n">
+      <c r="F57" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="G57" s="41" t="inlineStr">
+      <c r="G57" s="11" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H57" s="41" t="n">
+      <c r="H57" s="11" t="n">
         <v>98820</v>
       </c>
-      <c r="I57" s="42" t="n">
+      <c r="I57" s="12" t="n">
         <v>48.1</v>
       </c>
-      <c r="J57" s="42" t="n">
+      <c r="J57" s="12" t="n">
         <v>47548</v>
       </c>
-      <c r="K57" s="43" t="n">
+      <c r="K57" s="13" t="n">
         <v>46.8</v>
       </c>
-      <c r="L57" s="43" t="n">
+      <c r="L57" s="13" t="n">
         <v>46258</v>
       </c>
-      <c r="M57" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" s="45" t="n">
+      <c r="M57" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" s="15" t="n">
         <v>5.1</v>
       </c>
-      <c r="P57" s="45" t="n">
+      <c r="P57" s="15" t="n">
         <v>5015</v>
       </c>
-      <c r="Q57" s="12" t="n">
+      <c r="Q57" s="16" t="n">
         <v>51.9</v>
       </c>
-      <c r="R57" s="12" t="n">
+      <c r="R57" s="16" t="n">
         <v>51273</v>
       </c>
-      <c r="S57" s="13" t="inlineStr">
+      <c r="S57" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n"/>
-      <c r="B58" s="3" t="n"/>
-      <c r="C58" s="3" t="n"/>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="46" t="inlineStr">
+      <c r="A58" s="10" t="n"/>
+      <c r="B58" s="10" t="n"/>
+      <c r="C58" s="10" t="n"/>
+      <c r="D58" s="10" t="n"/>
+      <c r="E58" s="18" t="inlineStr">
         <is>
           <t>zeylac</t>
         </is>
       </c>
-      <c r="F58" s="46" t="n">
+      <c r="F58" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="G58" s="46" t="inlineStr">
+      <c r="G58" s="18" t="inlineStr">
         <is>
           <t>Host Community</t>
         </is>
       </c>
-      <c r="H58" s="46" t="n">
+      <c r="H58" s="18" t="n">
         <v>71100</v>
       </c>
-      <c r="I58" s="47" t="n">
+      <c r="I58" s="19" t="n">
         <v>49.5</v>
       </c>
-      <c r="J58" s="47" t="n">
+      <c r="J58" s="19" t="n">
         <v>35224</v>
       </c>
-      <c r="K58" s="48" t="n">
+      <c r="K58" s="20" t="n">
         <v>43.1</v>
       </c>
-      <c r="L58" s="48" t="n">
+      <c r="L58" s="20" t="n">
         <v>30624</v>
       </c>
-      <c r="M58" s="49" t="n">
+      <c r="M58" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="N58" s="49" t="n">
+      <c r="N58" s="21" t="n">
         <v>3533</v>
       </c>
-      <c r="O58" s="50" t="n">
+      <c r="O58" s="22" t="n">
         <v>2.4</v>
       </c>
-      <c r="P58" s="50" t="n">
+      <c r="P58" s="22" t="n">
         <v>1719</v>
       </c>
-      <c r="Q58" s="51" t="n">
+      <c r="Q58" s="23" t="n">
         <v>50.5</v>
       </c>
-      <c r="R58" s="51" t="n">
+      <c r="R58" s="23" t="n">
         <v>35876</v>
       </c>
-      <c r="S58" s="13" t="inlineStr">
+      <c r="S58" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -4571,7 +3713,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4613,651 +3755,651 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5">
-      <c r="A5" s="34" t="n"/>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="34" t="n"/>
-      <c r="D5" s="34" t="n"/>
-      <c r="E5" s="35" t="inlineStr">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>admin_2</t>
         </is>
       </c>
-      <c r="F5" s="35" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Admin Pcode</t>
         </is>
       </c>
-      <c r="G5" s="35" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Population group</t>
         </is>
       </c>
-      <c r="H5" s="35" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>TotN</t>
         </is>
       </c>
-      <c r="I5" s="36" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>% 1-2</t>
         </is>
       </c>
-      <c r="J5" s="36" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t># 1-2</t>
         </is>
       </c>
-      <c r="K5" s="37" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>% 3</t>
         </is>
       </c>
-      <c r="L5" s="37" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t># 3</t>
         </is>
       </c>
-      <c r="M5" s="38" t="inlineStr">
+      <c r="M5" s="7" t="inlineStr">
         <is>
           <t>% 4</t>
         </is>
       </c>
-      <c r="N5" s="38" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t># 4</t>
         </is>
       </c>
-      <c r="O5" s="39" t="inlineStr">
+      <c r="O5" s="8" t="inlineStr">
         <is>
           <t>% 5</t>
         </is>
       </c>
-      <c r="P5" s="39" t="inlineStr">
+      <c r="P5" s="8" t="inlineStr">
         <is>
           <t># 5</t>
         </is>
       </c>
-      <c r="Q5" s="40" t="inlineStr">
+      <c r="Q5" s="9" t="inlineStr">
         <is>
           <t>% Tot PiN (3+)</t>
         </is>
       </c>
-      <c r="R5" s="40" t="inlineStr">
+      <c r="R5" s="9" t="inlineStr">
         <is>
           <t># Tot PiN (3+)</t>
         </is>
       </c>
-      <c r="S5" s="40" t="inlineStr">
+      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>afgooye</t>
         </is>
       </c>
-      <c r="F6" s="41" t="n">
+      <c r="F6" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H6" s="41" t="n">
+      <c r="H6" s="11" t="n">
         <v>34729</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="12" t="n">
         <v>8.5</v>
       </c>
-      <c r="J6" s="42" t="n">
+      <c r="J6" s="12" t="n">
         <v>2936</v>
       </c>
-      <c r="K6" s="43" t="n">
+      <c r="K6" s="13" t="n">
         <v>61.5</v>
       </c>
-      <c r="L6" s="43" t="n">
+      <c r="L6" s="13" t="n">
         <v>21369</v>
       </c>
-      <c r="M6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="45" t="n">
+      <c r="M6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="n">
         <v>30</v>
       </c>
-      <c r="P6" s="45" t="n">
+      <c r="P6" s="15" t="n">
         <v>10423</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="16" t="n">
         <v>91.5</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="16" t="n">
         <v>31792</v>
       </c>
-      <c r="S6" s="13" t="inlineStr">
+      <c r="S6" s="17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="41" t="inlineStr">
+      <c r="A7" s="10" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>baardheere</t>
         </is>
       </c>
-      <c r="F7" s="41" t="n">
+      <c r="F7" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="G7" s="41" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H7" s="41" t="n">
+      <c r="H7" s="11" t="n">
         <v>10759</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="12" t="n">
         <v>39</v>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="12" t="n">
         <v>4193</v>
       </c>
-      <c r="K7" s="43" t="n">
+      <c r="K7" s="13" t="n">
         <v>54.4</v>
       </c>
-      <c r="L7" s="43" t="n">
+      <c r="L7" s="13" t="n">
         <v>5855</v>
       </c>
-      <c r="M7" s="44" t="n">
+      <c r="M7" s="14" t="n">
         <v>6.6</v>
       </c>
-      <c r="N7" s="44" t="n">
+      <c r="N7" s="14" t="n">
         <v>712</v>
       </c>
-      <c r="O7" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12" t="n">
+      <c r="O7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16" t="n">
         <v>61</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="16" t="n">
         <v>6567</v>
       </c>
-      <c r="S7" s="13" t="inlineStr">
+      <c r="S7" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>balcad</t>
         </is>
       </c>
-      <c r="F8" s="41" t="n">
+      <c r="F8" s="11" t="n">
         <v>57</v>
       </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H8" s="41" t="n">
+      <c r="H8" s="11" t="n">
         <v>34288</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="12" t="n">
         <v>4.9</v>
       </c>
-      <c r="J8" s="42" t="n">
+      <c r="J8" s="12" t="n">
         <v>1692</v>
       </c>
-      <c r="K8" s="43" t="n">
+      <c r="K8" s="13" t="n">
         <v>88.40000000000001</v>
       </c>
-      <c r="L8" s="43" t="n">
+      <c r="L8" s="13" t="n">
         <v>30297</v>
       </c>
-      <c r="M8" s="44" t="n">
+      <c r="M8" s="14" t="n">
         <v>6.7</v>
       </c>
-      <c r="N8" s="44" t="n">
+      <c r="N8" s="14" t="n">
         <v>2299</v>
       </c>
-      <c r="O8" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12" t="n">
+      <c r="O8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="16" t="n">
         <v>32595</v>
       </c>
-      <c r="S8" s="13" t="inlineStr">
+      <c r="S8" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="41" t="inlineStr">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F9" s="41" t="n">
+      <c r="F9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G9" s="41" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H9" s="41" t="n">
+      <c r="H9" s="11" t="n">
         <v>13395</v>
       </c>
-      <c r="I9" s="42" t="n">
+      <c r="I9" s="12" t="n">
         <v>12.7</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="12" t="n">
         <v>1702</v>
       </c>
-      <c r="K9" s="43" t="n">
+      <c r="K9" s="13" t="n">
         <v>77.5</v>
       </c>
-      <c r="L9" s="43" t="n">
+      <c r="L9" s="13" t="n">
         <v>10380</v>
       </c>
-      <c r="M9" s="44" t="n">
+      <c r="M9" s="14" t="n">
         <v>8.6</v>
       </c>
-      <c r="N9" s="44" t="n">
+      <c r="N9" s="14" t="n">
         <v>1146</v>
       </c>
-      <c r="O9" s="45" t="n">
+      <c r="O9" s="15" t="n">
         <v>1.2</v>
       </c>
-      <c r="P9" s="45" t="n">
+      <c r="P9" s="15" t="n">
         <v>166</v>
       </c>
-      <c r="Q9" s="12" t="n">
+      <c r="Q9" s="16" t="n">
         <v>87.3</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="16" t="n">
         <v>11692</v>
       </c>
-      <c r="S9" s="13" t="inlineStr">
+      <c r="S9" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>baraawe</t>
         </is>
       </c>
-      <c r="F10" s="41" t="n">
+      <c r="F10" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H10" s="41" t="n">
+      <c r="H10" s="11" t="n">
         <v>24796</v>
       </c>
-      <c r="I10" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" s="43" t="n">
+      <c r="I10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="L10" s="43" t="n">
+      <c r="L10" s="13" t="n">
         <v>19428</v>
       </c>
-      <c r="M10" s="44" t="n">
+      <c r="M10" s="14" t="n">
         <v>21.6</v>
       </c>
-      <c r="N10" s="44" t="n">
+      <c r="N10" s="14" t="n">
         <v>5368</v>
       </c>
-      <c r="O10" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="12" t="n">
+      <c r="O10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="16" t="n">
         <v>24796</v>
       </c>
-      <c r="S10" s="13" t="inlineStr">
+      <c r="S10" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="41" t="inlineStr">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>belet_xaawo</t>
         </is>
       </c>
-      <c r="F11" s="41" t="n">
+      <c r="F11" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="G11" s="41" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H11" s="41" t="n">
+      <c r="H11" s="11" t="n">
         <v>29534</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="12" t="n">
         <v>14.3</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="12" t="n">
         <v>4238</v>
       </c>
-      <c r="K11" s="43" t="n">
+      <c r="K11" s="13" t="n">
         <v>28.8</v>
       </c>
-      <c r="L11" s="43" t="n">
+      <c r="L11" s="13" t="n">
         <v>8517</v>
       </c>
-      <c r="M11" s="44" t="n">
+      <c r="M11" s="14" t="n">
         <v>18.9</v>
       </c>
-      <c r="N11" s="44" t="n">
+      <c r="N11" s="14" t="n">
         <v>5593</v>
       </c>
-      <c r="O11" s="45" t="n">
+      <c r="O11" s="15" t="n">
         <v>37.9</v>
       </c>
-      <c r="P11" s="45" t="n">
+      <c r="P11" s="15" t="n">
         <v>11186</v>
       </c>
-      <c r="Q11" s="12" t="n">
+      <c r="Q11" s="16" t="n">
         <v>85.7</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="16" t="n">
         <v>25296</v>
       </c>
-      <c r="S11" s="13" t="inlineStr">
+      <c r="S11" s="17" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="41" t="inlineStr">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="11" t="inlineStr">
         <is>
           <t>gaalkacyo</t>
         </is>
       </c>
-      <c r="F12" s="41" t="n">
+      <c r="F12" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H12" s="41" t="n">
+      <c r="H12" s="11" t="n">
         <v>11337</v>
       </c>
-      <c r="I12" s="42" t="n">
+      <c r="I12" s="12" t="n">
         <v>31.2</v>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="12" t="n">
         <v>3533</v>
       </c>
-      <c r="K12" s="43" t="n">
+      <c r="K12" s="13" t="n">
         <v>65.90000000000001</v>
       </c>
-      <c r="L12" s="43" t="n">
+      <c r="L12" s="13" t="n">
         <v>7472</v>
       </c>
-      <c r="M12" s="44" t="n">
+      <c r="M12" s="14" t="n">
         <v>2.9</v>
       </c>
-      <c r="N12" s="44" t="n">
+      <c r="N12" s="14" t="n">
         <v>332</v>
       </c>
-      <c r="O12" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12" t="n">
+      <c r="O12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="16" t="n">
         <v>68.8</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="16" t="n">
         <v>7804</v>
       </c>
-      <c r="S12" s="13" t="inlineStr">
+      <c r="S12" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="41" t="inlineStr">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>kismaayo</t>
         </is>
       </c>
-      <c r="F13" s="41" t="n">
+      <c r="F13" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="41" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H13" s="41" t="n">
+      <c r="H13" s="11" t="n">
         <v>12182</v>
       </c>
-      <c r="I13" s="42" t="n">
+      <c r="I13" s="12" t="n">
         <v>19.1</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="12" t="n">
         <v>2323</v>
       </c>
-      <c r="K13" s="43" t="n">
+      <c r="K13" s="13" t="n">
         <v>69.7</v>
       </c>
-      <c r="L13" s="43" t="n">
+      <c r="L13" s="13" t="n">
         <v>8493</v>
       </c>
-      <c r="M13" s="44" t="n">
+      <c r="M13" s="14" t="n">
         <v>7.3</v>
       </c>
-      <c r="N13" s="44" t="n">
+      <c r="N13" s="14" t="n">
         <v>890</v>
       </c>
-      <c r="O13" s="45" t="n">
+      <c r="O13" s="15" t="n">
         <v>3.9</v>
       </c>
-      <c r="P13" s="45" t="n">
+      <c r="P13" s="15" t="n">
         <v>476</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="16" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="16" t="n">
         <v>9859</v>
       </c>
-      <c r="S13" s="13" t="inlineStr">
+      <c r="S13" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="41" t="inlineStr">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>luuq</t>
         </is>
       </c>
-      <c r="F14" s="41" t="n">
+      <c r="F14" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="G14" s="41" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H14" s="41" t="n">
+      <c r="H14" s="11" t="n">
         <v>16658</v>
       </c>
-      <c r="I14" s="42" t="n">
+      <c r="I14" s="12" t="n">
         <v>6.6</v>
       </c>
-      <c r="J14" s="42" t="n">
+      <c r="J14" s="12" t="n">
         <v>1101</v>
       </c>
-      <c r="K14" s="43" t="n">
+      <c r="K14" s="13" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="L14" s="43" t="n">
+      <c r="L14" s="13" t="n">
         <v>15558</v>
       </c>
-      <c r="M14" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="12" t="n">
+      <c r="M14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="16" t="n">
         <v>15558</v>
       </c>
-      <c r="S14" s="13" t="inlineStr">
+      <c r="S14" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="46" t="inlineStr">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="18" t="inlineStr">
         <is>
           <t>wanla_weyn</t>
         </is>
       </c>
-      <c r="F15" s="46" t="n">
+      <c r="F15" s="18" t="n">
         <v>17</v>
       </c>
-      <c r="G15" s="46" t="inlineStr">
+      <c r="G15" s="18" t="inlineStr">
         <is>
           <t>New IDPs</t>
         </is>
       </c>
-      <c r="H15" s="46" t="n">
+      <c r="H15" s="18" t="n">
         <v>40604</v>
       </c>
-      <c r="I15" s="47" t="n">
+      <c r="I15" s="19" t="n">
         <v>59.7</v>
       </c>
-      <c r="J15" s="47" t="n">
+      <c r="J15" s="19" t="n">
         <v>24253</v>
       </c>
-      <c r="K15" s="48" t="n">
+      <c r="K15" s="20" t="n">
         <v>18.6</v>
       </c>
-      <c r="L15" s="48" t="n">
+      <c r="L15" s="20" t="n">
         <v>7557</v>
       </c>
-      <c r="M15" s="49" t="n">
+      <c r="M15" s="21" t="n">
         <v>21.7</v>
       </c>
-      <c r="N15" s="49" t="n">
+      <c r="N15" s="21" t="n">
         <v>8794</v>
       </c>
-      <c r="O15" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="51" t="n">
+      <c r="O15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="23" t="n">
         <v>40.3</v>
       </c>
-      <c r="R15" s="51" t="n">
+      <c r="R15" s="23" t="n">
         <v>16351</v>
       </c>
-      <c r="S15" s="13" t="inlineStr">
+      <c r="S15" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
@@ -5271,7 +4413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5313,1962 +4455,1962 @@
     <row r="3"/>
     <row r="4"/>
     <row r="5">
-      <c r="A5" s="34" t="n"/>
-      <c r="B5" s="34" t="n"/>
-      <c r="C5" s="34" t="n"/>
-      <c r="D5" s="34" t="n"/>
-      <c r="E5" s="35" t="inlineStr">
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="3" t="n"/>
+      <c r="C5" s="3" t="n"/>
+      <c r="D5" s="3" t="n"/>
+      <c r="E5" s="4" t="inlineStr">
         <is>
           <t>admin_2</t>
         </is>
       </c>
-      <c r="F5" s="35" t="inlineStr">
+      <c r="F5" s="4" t="inlineStr">
         <is>
           <t>Admin Pcode</t>
         </is>
       </c>
-      <c r="G5" s="35" t="inlineStr">
+      <c r="G5" s="4" t="inlineStr">
         <is>
           <t>Population group</t>
         </is>
       </c>
-      <c r="H5" s="35" t="inlineStr">
+      <c r="H5" s="4" t="inlineStr">
         <is>
           <t>TotN</t>
         </is>
       </c>
-      <c r="I5" s="36" t="inlineStr">
+      <c r="I5" s="5" t="inlineStr">
         <is>
           <t>% 1-2</t>
         </is>
       </c>
-      <c r="J5" s="36" t="inlineStr">
+      <c r="J5" s="5" t="inlineStr">
         <is>
           <t># 1-2</t>
         </is>
       </c>
-      <c r="K5" s="37" t="inlineStr">
+      <c r="K5" s="6" t="inlineStr">
         <is>
           <t>% 3</t>
         </is>
       </c>
-      <c r="L5" s="37" t="inlineStr">
+      <c r="L5" s="6" t="inlineStr">
         <is>
           <t># 3</t>
         </is>
       </c>
-      <c r="M5" s="38" t="inlineStr">
+      <c r="M5" s="7" t="inlineStr">
         <is>
           <t>% 4</t>
         </is>
       </c>
-      <c r="N5" s="38" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t># 4</t>
         </is>
       </c>
-      <c r="O5" s="39" t="inlineStr">
+      <c r="O5" s="8" t="inlineStr">
         <is>
           <t>% 5</t>
         </is>
       </c>
-      <c r="P5" s="39" t="inlineStr">
+      <c r="P5" s="8" t="inlineStr">
         <is>
           <t># 5</t>
         </is>
       </c>
-      <c r="Q5" s="40" t="inlineStr">
+      <c r="Q5" s="9" t="inlineStr">
         <is>
           <t>% Tot PiN (3+)</t>
         </is>
       </c>
-      <c r="R5" s="40" t="inlineStr">
+      <c r="R5" s="9" t="inlineStr">
         <is>
           <t># Tot PiN (3+)</t>
         </is>
       </c>
-      <c r="S5" s="40" t="inlineStr">
+      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="3" t="n"/>
-      <c r="C6" s="3" t="n"/>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="41" t="inlineStr">
+      <c r="A6" s="10" t="n"/>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>afgooye</t>
         </is>
       </c>
-      <c r="F6" s="41" t="n">
+      <c r="F6" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="G6" s="41" t="inlineStr">
+      <c r="G6" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H6" s="41" t="n">
+      <c r="H6" s="11" t="n">
         <v>69457</v>
       </c>
-      <c r="I6" s="42" t="n">
+      <c r="I6" s="12" t="n">
         <v>6.8</v>
       </c>
-      <c r="J6" s="42" t="n">
+      <c r="J6" s="12" t="n">
         <v>4735</v>
       </c>
-      <c r="K6" s="43" t="n">
+      <c r="K6" s="13" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="L6" s="43" t="n">
+      <c r="L6" s="13" t="n">
         <v>59791</v>
       </c>
-      <c r="M6" s="44" t="n">
+      <c r="M6" s="14" t="n">
         <v>2.2</v>
       </c>
-      <c r="N6" s="44" t="n">
+      <c r="N6" s="14" t="n">
         <v>1542</v>
       </c>
-      <c r="O6" s="45" t="n">
+      <c r="O6" s="15" t="n">
         <v>4.9</v>
       </c>
-      <c r="P6" s="45" t="n">
+      <c r="P6" s="15" t="n">
         <v>3389</v>
       </c>
-      <c r="Q6" s="12" t="n">
+      <c r="Q6" s="16" t="n">
         <v>93.2</v>
       </c>
-      <c r="R6" s="12" t="n">
+      <c r="R6" s="16" t="n">
         <v>64722</v>
       </c>
-      <c r="S6" s="13" t="inlineStr">
+      <c r="S6" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="41" t="inlineStr">
+      <c r="A7" s="10" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="11" t="inlineStr">
         <is>
           <t>afmadow</t>
         </is>
       </c>
-      <c r="F7" s="41" t="n">
+      <c r="F7" s="11" t="n">
         <v>47</v>
       </c>
-      <c r="G7" s="41" t="inlineStr">
+      <c r="G7" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H7" s="41" t="n">
+      <c r="H7" s="11" t="n">
         <v>21519</v>
       </c>
-      <c r="I7" s="42" t="n">
+      <c r="I7" s="12" t="n">
         <v>21.6</v>
       </c>
-      <c r="J7" s="42" t="n">
+      <c r="J7" s="12" t="n">
         <v>4643</v>
       </c>
-      <c r="K7" s="43" t="n">
+      <c r="K7" s="13" t="n">
         <v>54.8</v>
       </c>
-      <c r="L7" s="43" t="n">
+      <c r="L7" s="13" t="n">
         <v>11801</v>
       </c>
-      <c r="M7" s="44" t="n">
+      <c r="M7" s="14" t="n">
         <v>23.6</v>
       </c>
-      <c r="N7" s="44" t="n">
+      <c r="N7" s="14" t="n">
         <v>5075</v>
       </c>
-      <c r="O7" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="12" t="n">
+      <c r="O7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="16" t="n">
         <v>78.40000000000001</v>
       </c>
-      <c r="R7" s="12" t="n">
+      <c r="R7" s="16" t="n">
         <v>16876</v>
       </c>
-      <c r="S7" s="13" t="inlineStr">
+      <c r="S7" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="41" t="inlineStr">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="11" t="inlineStr">
         <is>
           <t>baardheere</t>
         </is>
       </c>
-      <c r="F8" s="41" t="n">
+      <c r="F8" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="G8" s="41" t="inlineStr">
+      <c r="G8" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H8" s="41" t="n">
+      <c r="H8" s="11" t="n">
         <v>21519</v>
       </c>
-      <c r="I8" s="42" t="n">
+      <c r="I8" s="12" t="n">
         <v>20.1</v>
       </c>
-      <c r="J8" s="42" t="n">
+      <c r="J8" s="12" t="n">
         <v>4331</v>
       </c>
-      <c r="K8" s="43" t="n">
+      <c r="K8" s="13" t="n">
         <v>76.3</v>
       </c>
-      <c r="L8" s="43" t="n">
+      <c r="L8" s="13" t="n">
         <v>16428</v>
       </c>
-      <c r="M8" s="44" t="n">
+      <c r="M8" s="14" t="n">
         <v>3.5</v>
       </c>
-      <c r="N8" s="44" t="n">
+      <c r="N8" s="14" t="n">
         <v>759</v>
       </c>
-      <c r="O8" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="12" t="n">
+      <c r="O8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="16" t="n">
         <v>79.90000000000001</v>
       </c>
-      <c r="R8" s="12" t="n">
+      <c r="R8" s="16" t="n">
         <v>17187</v>
       </c>
-      <c r="S8" s="13" t="inlineStr">
+      <c r="S8" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="41" t="inlineStr">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="11" t="inlineStr">
         <is>
           <t>ballanbale</t>
         </is>
       </c>
-      <c r="F9" s="41" t="n">
+      <c r="F9" s="11" t="n">
         <v>40</v>
       </c>
-      <c r="G9" s="41" t="inlineStr">
+      <c r="G9" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H9" s="41" t="n">
+      <c r="H9" s="11" t="n">
         <v>23537</v>
       </c>
-      <c r="I9" s="42" t="n">
+      <c r="I9" s="12" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="J9" s="42" t="n">
+      <c r="J9" s="12" t="n">
         <v>17991</v>
       </c>
-      <c r="K9" s="43" t="n">
+      <c r="K9" s="13" t="n">
         <v>23.6</v>
       </c>
-      <c r="L9" s="43" t="n">
+      <c r="L9" s="13" t="n">
         <v>5546</v>
       </c>
-      <c r="M9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="12" t="n">
+      <c r="M9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="16" t="n">
         <v>23.6</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="R9" s="16" t="n">
         <v>5546</v>
       </c>
-      <c r="S9" s="13" t="inlineStr">
+      <c r="S9" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="41" t="inlineStr">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="11" t="inlineStr">
         <is>
           <t>banadir</t>
         </is>
       </c>
-      <c r="F10" s="41" t="n">
+      <c r="F10" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="41" t="inlineStr">
+      <c r="G10" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H10" s="41" t="n">
+      <c r="H10" s="11" t="n">
         <v>26789</v>
       </c>
-      <c r="I10" s="42" t="n">
+      <c r="I10" s="12" t="n">
         <v>14.9</v>
       </c>
-      <c r="J10" s="42" t="n">
+      <c r="J10" s="12" t="n">
         <v>4001</v>
       </c>
-      <c r="K10" s="43" t="n">
+      <c r="K10" s="13" t="n">
         <v>77.09999999999999</v>
       </c>
-      <c r="L10" s="43" t="n">
+      <c r="L10" s="13" t="n">
         <v>20646</v>
       </c>
-      <c r="M10" s="44" t="n">
+      <c r="M10" s="14" t="n">
         <v>7.4</v>
       </c>
-      <c r="N10" s="44" t="n">
+      <c r="N10" s="14" t="n">
         <v>1980</v>
       </c>
-      <c r="O10" s="45" t="n">
+      <c r="O10" s="15" t="n">
         <v>0.6</v>
       </c>
-      <c r="P10" s="45" t="n">
+      <c r="P10" s="15" t="n">
         <v>163</v>
       </c>
-      <c r="Q10" s="12" t="n">
+      <c r="Q10" s="16" t="n">
         <v>85.09999999999999</v>
       </c>
-      <c r="R10" s="12" t="n">
+      <c r="R10" s="16" t="n">
         <v>22789</v>
       </c>
-      <c r="S10" s="13" t="inlineStr">
+      <c r="S10" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="41" t="inlineStr">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="11" t="inlineStr">
         <is>
           <t>baraawe</t>
         </is>
       </c>
-      <c r="F11" s="41" t="n">
+      <c r="F11" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="G11" s="41" t="inlineStr">
+      <c r="G11" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H11" s="41" t="n">
+      <c r="H11" s="11" t="n">
         <v>49592</v>
       </c>
-      <c r="I11" s="42" t="n">
+      <c r="I11" s="12" t="n">
         <v>49.7</v>
       </c>
-      <c r="J11" s="42" t="n">
+      <c r="J11" s="12" t="n">
         <v>24624</v>
       </c>
-      <c r="K11" s="43" t="n">
+      <c r="K11" s="13" t="n">
         <v>36.8</v>
       </c>
-      <c r="L11" s="43" t="n">
+      <c r="L11" s="13" t="n">
         <v>18253</v>
       </c>
-      <c r="M11" s="44" t="n">
+      <c r="M11" s="14" t="n">
         <v>13.5</v>
       </c>
-      <c r="N11" s="44" t="n">
+      <c r="N11" s="14" t="n">
         <v>6715</v>
       </c>
-      <c r="O11" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="12" t="n">
+      <c r="O11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="16" t="n">
         <v>50.3</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="R11" s="16" t="n">
         <v>24968</v>
       </c>
-      <c r="S11" s="13" t="inlineStr">
+      <c r="S11" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="41" t="inlineStr">
+      <c r="A12" s="10" t="n"/>
+      <c r="B12" s="10" t="n"/>
+      <c r="C12" s="10" t="n"/>
+      <c r="D12" s="10" t="n"/>
+      <c r="E12" s="11" t="inlineStr">
         <is>
           <t>baydhaba</t>
         </is>
       </c>
-      <c r="F12" s="41" t="n">
+      <c r="F12" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="G12" s="41" t="inlineStr">
+      <c r="G12" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H12" s="41" t="n">
+      <c r="H12" s="11" t="n">
         <v>68576</v>
       </c>
-      <c r="I12" s="42" t="n">
+      <c r="I12" s="12" t="n">
         <v>33.9</v>
       </c>
-      <c r="J12" s="42" t="n">
+      <c r="J12" s="12" t="n">
         <v>23229</v>
       </c>
-      <c r="K12" s="43" t="n">
+      <c r="K12" s="13" t="n">
         <v>50.4</v>
       </c>
-      <c r="L12" s="43" t="n">
+      <c r="L12" s="13" t="n">
         <v>34534</v>
       </c>
-      <c r="M12" s="44" t="n">
+      <c r="M12" s="14" t="n">
         <v>12.5</v>
       </c>
-      <c r="N12" s="44" t="n">
+      <c r="N12" s="14" t="n">
         <v>8571</v>
       </c>
-      <c r="O12" s="45" t="n">
+      <c r="O12" s="15" t="n">
         <v>3.3</v>
       </c>
-      <c r="P12" s="45" t="n">
+      <c r="P12" s="15" t="n">
         <v>2243</v>
       </c>
-      <c r="Q12" s="12" t="n">
+      <c r="Q12" s="16" t="n">
         <v>66.09999999999999</v>
       </c>
-      <c r="R12" s="12" t="n">
+      <c r="R12" s="16" t="n">
         <v>45347</v>
       </c>
-      <c r="S12" s="13" t="inlineStr">
+      <c r="S12" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="41" t="inlineStr">
+      <c r="A13" s="10" t="n"/>
+      <c r="B13" s="10" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="10" t="n"/>
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>belet_weyne</t>
         </is>
       </c>
-      <c r="F13" s="41" t="n">
+      <c r="F13" s="11" t="n">
         <v>41</v>
       </c>
-      <c r="G13" s="41" t="inlineStr">
+      <c r="G13" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H13" s="41" t="n">
+      <c r="H13" s="11" t="n">
         <v>81207</v>
       </c>
-      <c r="I13" s="42" t="n">
+      <c r="I13" s="12" t="n">
         <v>35.9</v>
       </c>
-      <c r="J13" s="42" t="n">
+      <c r="J13" s="12" t="n">
         <v>29154</v>
       </c>
-      <c r="K13" s="43" t="n">
+      <c r="K13" s="13" t="n">
         <v>28.6</v>
       </c>
-      <c r="L13" s="43" t="n">
+      <c r="L13" s="13" t="n">
         <v>23190</v>
       </c>
-      <c r="M13" s="44" t="n">
+      <c r="M13" s="14" t="n">
         <v>32.2</v>
       </c>
-      <c r="N13" s="44" t="n">
+      <c r="N13" s="14" t="n">
         <v>26124</v>
       </c>
-      <c r="O13" s="45" t="n">
+      <c r="O13" s="15" t="n">
         <v>3.4</v>
       </c>
-      <c r="P13" s="45" t="n">
+      <c r="P13" s="15" t="n">
         <v>2740</v>
       </c>
-      <c r="Q13" s="12" t="n">
+      <c r="Q13" s="16" t="n">
         <v>64.09999999999999</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="R13" s="16" t="n">
         <v>52054</v>
       </c>
-      <c r="S13" s="13" t="inlineStr">
+      <c r="S13" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="41" t="inlineStr">
+      <c r="A14" s="10" t="n"/>
+      <c r="B14" s="10" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="10" t="n"/>
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>belet_xaawo</t>
         </is>
       </c>
-      <c r="F14" s="41" t="n">
+      <c r="F14" s="11" t="n">
         <v>49</v>
       </c>
-      <c r="G14" s="41" t="inlineStr">
+      <c r="G14" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H14" s="41" t="n">
+      <c r="H14" s="11" t="n">
         <v>59068</v>
       </c>
-      <c r="I14" s="42" t="n">
+      <c r="I14" s="12" t="n">
         <v>68.90000000000001</v>
       </c>
-      <c r="J14" s="42" t="n">
+      <c r="J14" s="12" t="n">
         <v>40724</v>
       </c>
-      <c r="K14" s="43" t="n">
+      <c r="K14" s="13" t="n">
         <v>20.1</v>
       </c>
-      <c r="L14" s="43" t="n">
+      <c r="L14" s="13" t="n">
         <v>11858</v>
       </c>
-      <c r="M14" s="44" t="n">
+      <c r="M14" s="14" t="n">
         <v>8.9</v>
       </c>
-      <c r="N14" s="44" t="n">
+      <c r="N14" s="14" t="n">
         <v>5251</v>
       </c>
-      <c r="O14" s="45" t="n">
+      <c r="O14" s="15" t="n">
         <v>2.1</v>
       </c>
-      <c r="P14" s="45" t="n">
+      <c r="P14" s="15" t="n">
         <v>1234</v>
       </c>
-      <c r="Q14" s="12" t="n">
+      <c r="Q14" s="16" t="n">
         <v>31.1</v>
       </c>
-      <c r="R14" s="12" t="n">
+      <c r="R14" s="16" t="n">
         <v>18343</v>
       </c>
-      <c r="S14" s="13" t="inlineStr">
+      <c r="S14" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
-      <c r="E15" s="41" t="inlineStr">
+      <c r="A15" s="10" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="10" t="n"/>
+      <c r="E15" s="11" t="inlineStr">
         <is>
           <t>bulo_burto</t>
         </is>
       </c>
-      <c r="F15" s="41" t="n">
+      <c r="F15" s="11" t="n">
         <v>55</v>
       </c>
-      <c r="G15" s="41" t="inlineStr">
+      <c r="G15" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H15" s="41" t="n">
+      <c r="H15" s="11" t="n">
         <v>29539</v>
       </c>
-      <c r="I15" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" s="43" t="n">
+      <c r="I15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13" t="n">
         <v>83</v>
       </c>
-      <c r="L15" s="43" t="n">
+      <c r="L15" s="13" t="n">
         <v>24515</v>
       </c>
-      <c r="M15" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" s="45" t="n">
+      <c r="M15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="15" t="n">
         <v>17</v>
       </c>
-      <c r="P15" s="45" t="n">
+      <c r="P15" s="15" t="n">
         <v>5025</v>
       </c>
-      <c r="Q15" s="12" t="n">
+      <c r="Q15" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="R15" s="16" t="n">
         <v>29539</v>
       </c>
-      <c r="S15" s="13" t="inlineStr">
+      <c r="S15" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="41" t="inlineStr">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="10" t="n"/>
+      <c r="E16" s="11" t="inlineStr">
         <is>
           <t>buuhoodle</t>
         </is>
       </c>
-      <c r="F16" s="41" t="n">
+      <c r="F16" s="11" t="n">
         <v>50</v>
       </c>
-      <c r="G16" s="41" t="inlineStr">
+      <c r="G16" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H16" s="41" t="n">
+      <c r="H16" s="11" t="n">
         <v>26893</v>
       </c>
-      <c r="I16" s="42" t="n">
+      <c r="I16" s="12" t="n">
         <v>50.1</v>
       </c>
-      <c r="J16" s="42" t="n">
+      <c r="J16" s="12" t="n">
         <v>13472</v>
       </c>
-      <c r="K16" s="43" t="n">
+      <c r="K16" s="13" t="n">
         <v>48.3</v>
       </c>
-      <c r="L16" s="43" t="n">
+      <c r="L16" s="13" t="n">
         <v>12977</v>
       </c>
-      <c r="M16" s="44" t="n">
+      <c r="M16" s="14" t="n">
         <v>1.7</v>
       </c>
-      <c r="N16" s="44" t="n">
+      <c r="N16" s="14" t="n">
         <v>445</v>
       </c>
-      <c r="O16" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="12" t="n">
+      <c r="O16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="16" t="n">
         <v>49.9</v>
       </c>
-      <c r="R16" s="12" t="n">
+      <c r="R16" s="16" t="n">
         <v>13422</v>
       </c>
-      <c r="S16" s="13" t="inlineStr">
+      <c r="S16" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="41" t="inlineStr">
+      <c r="A17" s="10" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="10" t="n"/>
+      <c r="E17" s="11" t="inlineStr">
         <is>
           <t>buur_hakaba</t>
         </is>
       </c>
-      <c r="F17" s="41" t="n">
+      <c r="F17" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="G17" s="41" t="inlineStr">
+      <c r="G17" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H17" s="41" t="n">
+      <c r="H17" s="11" t="n">
         <v>26871</v>
       </c>
-      <c r="I17" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="43" t="n">
+      <c r="I17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="13" t="n">
         <v>100</v>
       </c>
-      <c r="L17" s="43" t="n">
+      <c r="L17" s="13" t="n">
         <v>26871</v>
       </c>
-      <c r="M17" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="12" t="n">
+      <c r="M17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="R17" s="16" t="n">
         <v>26871</v>
       </c>
-      <c r="S17" s="13" t="inlineStr">
+      <c r="S17" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
-      <c r="D18" s="3" t="n"/>
-      <c r="E18" s="41" t="inlineStr">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="11" t="inlineStr">
         <is>
           <t>cabudwaaq</t>
         </is>
       </c>
-      <c r="F18" s="41" t="n">
+      <c r="F18" s="11" t="n">
         <v>51</v>
       </c>
-      <c r="G18" s="41" t="inlineStr">
+      <c r="G18" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H18" s="41" t="n">
+      <c r="H18" s="11" t="n">
         <v>24364</v>
       </c>
-      <c r="I18" s="42" t="n">
+      <c r="I18" s="12" t="n">
         <v>48.2</v>
       </c>
-      <c r="J18" s="42" t="n">
+      <c r="J18" s="12" t="n">
         <v>11744</v>
       </c>
-      <c r="K18" s="43" t="n">
+      <c r="K18" s="13" t="n">
         <v>49</v>
       </c>
-      <c r="L18" s="43" t="n">
+      <c r="L18" s="13" t="n">
         <v>11934</v>
       </c>
-      <c r="M18" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="45" t="n">
+      <c r="M18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="15" t="n">
         <v>2.8</v>
       </c>
-      <c r="P18" s="45" t="n">
+      <c r="P18" s="15" t="n">
         <v>687</v>
       </c>
-      <c r="Q18" s="12" t="n">
+      <c r="Q18" s="16" t="n">
         <v>51.8</v>
       </c>
-      <c r="R18" s="12" t="n">
+      <c r="R18" s="16" t="n">
         <v>12620</v>
       </c>
-      <c r="S18" s="13" t="inlineStr">
+      <c r="S18" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
-      <c r="D19" s="3" t="n"/>
-      <c r="E19" s="41" t="inlineStr">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="11" t="inlineStr">
         <is>
           <t>cadaado</t>
         </is>
       </c>
-      <c r="F19" s="41" t="n">
+      <c r="F19" s="11" t="n">
         <v>46</v>
       </c>
-      <c r="G19" s="41" t="inlineStr">
+      <c r="G19" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H19" s="41" t="n">
+      <c r="H19" s="11" t="n">
         <v>33064</v>
       </c>
-      <c r="I19" s="42" t="n">
+      <c r="I19" s="12" t="n">
         <v>62.1</v>
       </c>
-      <c r="J19" s="42" t="n">
+      <c r="J19" s="12" t="n">
         <v>20517</v>
       </c>
-      <c r="K19" s="43" t="n">
+      <c r="K19" s="13" t="n">
         <v>37.9</v>
       </c>
-      <c r="L19" s="43" t="n">
+      <c r="L19" s="13" t="n">
         <v>12547</v>
       </c>
-      <c r="M19" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="12" t="n">
+      <c r="M19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="16" t="n">
         <v>37.9</v>
       </c>
-      <c r="R19" s="12" t="n">
+      <c r="R19" s="16" t="n">
         <v>12547</v>
       </c>
-      <c r="S19" s="13" t="inlineStr">
+      <c r="S19" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
-      <c r="D20" s="3" t="n"/>
-      <c r="E20" s="41" t="inlineStr">
+      <c r="A20" s="10" t="n"/>
+      <c r="B20" s="10" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="10" t="n"/>
+      <c r="E20" s="11" t="inlineStr">
         <is>
           <t>ceel_barde</t>
         </is>
       </c>
-      <c r="F20" s="41" t="n">
+      <c r="F20" s="11" t="n">
         <v>35</v>
       </c>
-      <c r="G20" s="41" t="inlineStr">
+      <c r="G20" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H20" s="41" t="n">
+      <c r="H20" s="11" t="n">
         <v>134175</v>
       </c>
-      <c r="I20" s="42" t="n">
+      <c r="I20" s="12" t="n">
         <v>42.7</v>
       </c>
-      <c r="J20" s="42" t="n">
+      <c r="J20" s="12" t="n">
         <v>57280</v>
       </c>
-      <c r="K20" s="43" t="n">
+      <c r="K20" s="13" t="n">
         <v>35</v>
       </c>
-      <c r="L20" s="43" t="n">
+      <c r="L20" s="13" t="n">
         <v>46926</v>
       </c>
-      <c r="M20" s="44" t="n">
+      <c r="M20" s="14" t="n">
         <v>17.9</v>
       </c>
-      <c r="N20" s="44" t="n">
+      <c r="N20" s="14" t="n">
         <v>23985</v>
       </c>
-      <c r="O20" s="45" t="n">
+      <c r="O20" s="15" t="n">
         <v>4.5</v>
       </c>
-      <c r="P20" s="45" t="n">
+      <c r="P20" s="15" t="n">
         <v>5984</v>
       </c>
-      <c r="Q20" s="12" t="n">
+      <c r="Q20" s="16" t="n">
         <v>57.3</v>
       </c>
-      <c r="R20" s="12" t="n">
+      <c r="R20" s="16" t="n">
         <v>76895</v>
       </c>
-      <c r="S20" s="13" t="inlineStr">
+      <c r="S20" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
-      <c r="D21" s="3" t="n"/>
-      <c r="E21" s="41" t="inlineStr">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="10" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="10" t="n"/>
+      <c r="E21" s="11" t="inlineStr">
         <is>
           <t>ceel_waaq</t>
         </is>
       </c>
-      <c r="F21" s="41" t="n">
+      <c r="F21" s="11" t="n">
         <v>6</v>
       </c>
-      <c r="G21" s="41" t="inlineStr">
+      <c r="G21" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H21" s="41" t="n">
+      <c r="H21" s="11" t="n">
         <v>20314</v>
       </c>
-      <c r="I21" s="42" t="n">
+      <c r="I21" s="12" t="n">
         <v>23.8</v>
       </c>
-      <c r="J21" s="42" t="n">
+      <c r="J21" s="12" t="n">
         <v>4826</v>
       </c>
-      <c r="K21" s="43" t="n">
+      <c r="K21" s="13" t="n">
         <v>55.5</v>
       </c>
-      <c r="L21" s="43" t="n">
+      <c r="L21" s="13" t="n">
         <v>11279</v>
       </c>
-      <c r="M21" s="44" t="n">
+      <c r="M21" s="14" t="n">
         <v>20.2</v>
       </c>
-      <c r="N21" s="44" t="n">
+      <c r="N21" s="14" t="n">
         <v>4100</v>
       </c>
-      <c r="O21" s="45" t="n">
+      <c r="O21" s="15" t="n">
         <v>0.5</v>
       </c>
-      <c r="P21" s="45" t="n">
+      <c r="P21" s="15" t="n">
         <v>109</v>
       </c>
-      <c r="Q21" s="12" t="n">
+      <c r="Q21" s="16" t="n">
         <v>76.2</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="R21" s="16" t="n">
         <v>15488</v>
       </c>
-      <c r="S21" s="13" t="inlineStr">
+      <c r="S21" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="41" t="inlineStr">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="10" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="10" t="n"/>
+      <c r="E22" s="11" t="inlineStr">
         <is>
           <t>dhuusamarreeb</t>
         </is>
       </c>
-      <c r="F22" s="41" t="n">
+      <c r="F22" s="11" t="n">
         <v>42</v>
       </c>
-      <c r="G22" s="41" t="inlineStr">
+      <c r="G22" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H22" s="41" t="n">
+      <c r="H22" s="11" t="n">
         <v>20217</v>
       </c>
-      <c r="I22" s="42" t="n">
+      <c r="I22" s="12" t="n">
         <v>36.6</v>
       </c>
-      <c r="J22" s="42" t="n">
+      <c r="J22" s="12" t="n">
         <v>7402</v>
       </c>
-      <c r="K22" s="43" t="n">
+      <c r="K22" s="13" t="n">
         <v>63.4</v>
       </c>
-      <c r="L22" s="43" t="n">
+      <c r="L22" s="13" t="n">
         <v>12816</v>
       </c>
-      <c r="M22" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="12" t="n">
+      <c r="M22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="16" t="n">
         <v>63.4</v>
       </c>
-      <c r="R22" s="12" t="n">
+      <c r="R22" s="16" t="n">
         <v>12816</v>
       </c>
-      <c r="S22" s="13" t="inlineStr">
+      <c r="S22" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="41" t="inlineStr">
+      <c r="A23" s="10" t="n"/>
+      <c r="B23" s="10" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="10" t="n"/>
+      <c r="E23" s="11" t="inlineStr">
         <is>
           <t>diinsoor</t>
         </is>
       </c>
-      <c r="F23" s="41" t="n">
+      <c r="F23" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="G23" s="41" t="inlineStr">
+      <c r="G23" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H23" s="41" t="n">
+      <c r="H23" s="11" t="n">
         <v>59068</v>
       </c>
-      <c r="I23" s="42" t="n">
+      <c r="I23" s="12" t="n">
         <v>38.4</v>
       </c>
-      <c r="J23" s="42" t="n">
+      <c r="J23" s="12" t="n">
         <v>22686</v>
       </c>
-      <c r="K23" s="43" t="n">
+      <c r="K23" s="13" t="n">
         <v>32.1</v>
       </c>
-      <c r="L23" s="43" t="n">
+      <c r="L23" s="13" t="n">
         <v>18947</v>
       </c>
-      <c r="M23" s="44" t="n">
+      <c r="M23" s="14" t="n">
         <v>28.3</v>
       </c>
-      <c r="N23" s="44" t="n">
+      <c r="N23" s="14" t="n">
         <v>16720</v>
       </c>
-      <c r="O23" s="45" t="n">
+      <c r="O23" s="15" t="n">
         <v>1.2</v>
       </c>
-      <c r="P23" s="45" t="n">
+      <c r="P23" s="15" t="n">
         <v>715</v>
       </c>
-      <c r="Q23" s="12" t="n">
+      <c r="Q23" s="16" t="n">
         <v>61.6</v>
       </c>
-      <c r="R23" s="12" t="n">
+      <c r="R23" s="16" t="n">
         <v>36381</v>
       </c>
-      <c r="S23" s="13" t="inlineStr">
+      <c r="S23" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="41" t="inlineStr">
+      <c r="A24" s="10" t="n"/>
+      <c r="B24" s="10" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="10" t="n"/>
+      <c r="E24" s="11" t="inlineStr">
         <is>
           <t>gaalkacyo</t>
         </is>
       </c>
-      <c r="F24" s="41" t="n">
+      <c r="F24" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="G24" s="41" t="inlineStr">
+      <c r="G24" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H24" s="41" t="n">
+      <c r="H24" s="11" t="n">
         <v>22673</v>
       </c>
-      <c r="I24" s="42" t="n">
+      <c r="I24" s="12" t="n">
         <v>45.4</v>
       </c>
-      <c r="J24" s="42" t="n">
+      <c r="J24" s="12" t="n">
         <v>10296</v>
       </c>
-      <c r="K24" s="43" t="n">
+      <c r="K24" s="13" t="n">
         <v>54.1</v>
       </c>
-      <c r="L24" s="43" t="n">
+      <c r="L24" s="13" t="n">
         <v>12275</v>
       </c>
-      <c r="M24" s="44" t="n">
+      <c r="M24" s="14" t="n">
         <v>0.4</v>
       </c>
-      <c r="N24" s="44" t="n">
+      <c r="N24" s="14" t="n">
         <v>101</v>
       </c>
-      <c r="O24" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="12" t="n">
+      <c r="O24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="16" t="n">
         <v>54.6</v>
       </c>
-      <c r="R24" s="12" t="n">
+      <c r="R24" s="16" t="n">
         <v>12377</v>
       </c>
-      <c r="S24" s="13" t="inlineStr">
+      <c r="S24" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="41" t="inlineStr">
+      <c r="A25" s="10" t="n"/>
+      <c r="B25" s="10" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="10" t="n"/>
+      <c r="E25" s="11" t="inlineStr">
         <is>
           <t>galdogob</t>
         </is>
       </c>
-      <c r="F25" s="41" t="n">
+      <c r="F25" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G25" s="41" t="inlineStr">
+      <c r="G25" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H25" s="41" t="n">
+      <c r="H25" s="11" t="n">
         <v>26893</v>
       </c>
-      <c r="I25" s="42" t="n">
+      <c r="I25" s="12" t="n">
         <v>50.6</v>
       </c>
-      <c r="J25" s="42" t="n">
+      <c r="J25" s="12" t="n">
         <v>13619</v>
       </c>
-      <c r="K25" s="43" t="n">
+      <c r="K25" s="13" t="n">
         <v>45.9</v>
       </c>
-      <c r="L25" s="43" t="n">
+      <c r="L25" s="13" t="n">
         <v>12352</v>
       </c>
-      <c r="M25" s="44" t="n">
+      <c r="M25" s="14" t="n">
         <v>2.9</v>
       </c>
-      <c r="N25" s="44" t="n">
+      <c r="N25" s="14" t="n">
         <v>769</v>
       </c>
-      <c r="O25" s="45" t="n">
+      <c r="O25" s="15" t="n">
         <v>0.6</v>
       </c>
-      <c r="P25" s="45" t="n">
+      <c r="P25" s="15" t="n">
         <v>153</v>
       </c>
-      <c r="Q25" s="12" t="n">
+      <c r="Q25" s="16" t="n">
         <v>49.4</v>
       </c>
-      <c r="R25" s="12" t="n">
+      <c r="R25" s="16" t="n">
         <v>13275</v>
       </c>
-      <c r="S25" s="13" t="inlineStr">
+      <c r="S25" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="41" t="inlineStr">
+      <c r="A26" s="10" t="n"/>
+      <c r="B26" s="10" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="10" t="n"/>
+      <c r="E26" s="11" t="inlineStr">
         <is>
           <t>garbahaarey</t>
         </is>
       </c>
-      <c r="F26" s="41" t="n">
+      <c r="F26" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="G26" s="41" t="inlineStr">
+      <c r="G26" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H26" s="41" t="n">
+      <c r="H26" s="11" t="n">
         <v>23537</v>
       </c>
-      <c r="I26" s="42" t="n">
+      <c r="I26" s="12" t="n">
         <v>7.6</v>
       </c>
-      <c r="J26" s="42" t="n">
+      <c r="J26" s="12" t="n">
         <v>1786</v>
       </c>
-      <c r="K26" s="43" t="n">
+      <c r="K26" s="13" t="n">
         <v>85.90000000000001</v>
       </c>
-      <c r="L26" s="43" t="n">
+      <c r="L26" s="13" t="n">
         <v>20209</v>
       </c>
-      <c r="M26" s="44" t="n">
+      <c r="M26" s="14" t="n">
         <v>4.9</v>
       </c>
-      <c r="N26" s="44" t="n">
+      <c r="N26" s="14" t="n">
         <v>1143</v>
       </c>
-      <c r="O26" s="45" t="n">
+      <c r="O26" s="15" t="n">
         <v>1.7</v>
       </c>
-      <c r="P26" s="45" t="n">
+      <c r="P26" s="15" t="n">
         <v>398</v>
       </c>
-      <c r="Q26" s="12" t="n">
+      <c r="Q26" s="16" t="n">
         <v>92.40000000000001</v>
       </c>
-      <c r="R26" s="12" t="n">
+      <c r="R26" s="16" t="n">
         <v>21751</v>
       </c>
-      <c r="S26" s="13" t="inlineStr">
+      <c r="S26" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="41" t="inlineStr">
+      <c r="A27" s="10" t="n"/>
+      <c r="B27" s="10" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="10" t="n"/>
+      <c r="E27" s="11" t="inlineStr">
         <is>
           <t>garoowe</t>
         </is>
       </c>
-      <c r="F27" s="41" t="n">
+      <c r="F27" s="11" t="n">
         <v>27</v>
       </c>
-      <c r="G27" s="41" t="inlineStr">
+      <c r="G27" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H27" s="41" t="n">
+      <c r="H27" s="11" t="n">
         <v>24364</v>
       </c>
-      <c r="I27" s="42" t="n">
+      <c r="I27" s="12" t="n">
         <v>27.6</v>
       </c>
-      <c r="J27" s="42" t="n">
+      <c r="J27" s="12" t="n">
         <v>6719</v>
       </c>
-      <c r="K27" s="43" t="n">
+      <c r="K27" s="13" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="L27" s="43" t="n">
+      <c r="L27" s="13" t="n">
         <v>17646</v>
       </c>
-      <c r="M27" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="12" t="n">
+      <c r="M27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16" t="n">
         <v>72.40000000000001</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="R27" s="16" t="n">
         <v>17646</v>
       </c>
-      <c r="S27" s="13" t="inlineStr">
+      <c r="S27" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="41" t="inlineStr">
+      <c r="A28" s="10" t="n"/>
+      <c r="B28" s="10" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="10" t="n"/>
+      <c r="E28" s="11" t="inlineStr">
         <is>
           <t>hobyo</t>
         </is>
       </c>
-      <c r="F28" s="41" t="n">
+      <c r="F28" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="G28" s="41" t="inlineStr">
+      <c r="G28" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H28" s="41" t="n">
+      <c r="H28" s="11" t="n">
         <v>134175</v>
       </c>
-      <c r="I28" s="42" t="n">
+      <c r="I28" s="12" t="n">
         <v>75</v>
       </c>
-      <c r="J28" s="42" t="n">
+      <c r="J28" s="12" t="n">
         <v>100605</v>
       </c>
-      <c r="K28" s="43" t="n">
+      <c r="K28" s="13" t="n">
         <v>25</v>
       </c>
-      <c r="L28" s="43" t="n">
+      <c r="L28" s="13" t="n">
         <v>33570</v>
       </c>
-      <c r="M28" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="12" t="n">
+      <c r="M28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="16" t="n">
         <v>25</v>
       </c>
-      <c r="R28" s="12" t="n">
+      <c r="R28" s="16" t="n">
         <v>33570</v>
       </c>
-      <c r="S28" s="13" t="inlineStr">
+      <c r="S28" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="41" t="inlineStr">
+      <c r="A29" s="10" t="n"/>
+      <c r="B29" s="10" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="10" t="n"/>
+      <c r="E29" s="11" t="inlineStr">
         <is>
           <t>jalalaqsi</t>
         </is>
       </c>
-      <c r="F29" s="41" t="n">
+      <c r="F29" s="11" t="n">
         <v>54</v>
       </c>
-      <c r="G29" s="41" t="inlineStr">
+      <c r="G29" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H29" s="41" t="n">
+      <c r="H29" s="11" t="n">
         <v>20314</v>
       </c>
-      <c r="I29" s="42" t="n">
+      <c r="I29" s="12" t="n">
         <v>5.2</v>
       </c>
-      <c r="J29" s="42" t="n">
+      <c r="J29" s="12" t="n">
         <v>1064</v>
       </c>
-      <c r="K29" s="43" t="n">
+      <c r="K29" s="13" t="n">
         <v>94.8</v>
       </c>
-      <c r="L29" s="43" t="n">
+      <c r="L29" s="13" t="n">
         <v>19250</v>
       </c>
-      <c r="M29" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="12" t="n">
+      <c r="M29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="16" t="n">
         <v>94.8</v>
       </c>
-      <c r="R29" s="12" t="n">
+      <c r="R29" s="16" t="n">
         <v>19250</v>
       </c>
-      <c r="S29" s="13" t="inlineStr">
+      <c r="S29" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="41" t="inlineStr">
+      <c r="A30" s="10" t="n"/>
+      <c r="B30" s="10" t="n"/>
+      <c r="C30" s="10" t="n"/>
+      <c r="D30" s="10" t="n"/>
+      <c r="E30" s="11" t="inlineStr">
         <is>
           <t>kismaayo</t>
         </is>
       </c>
-      <c r="F30" s="41" t="n">
+      <c r="F30" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="G30" s="41" t="inlineStr">
+      <c r="G30" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H30" s="41" t="n">
+      <c r="H30" s="11" t="n">
         <v>24364</v>
       </c>
-      <c r="I30" s="42" t="n">
+      <c r="I30" s="12" t="n">
         <v>51.9</v>
       </c>
-      <c r="J30" s="42" t="n">
+      <c r="J30" s="12" t="n">
         <v>12637</v>
       </c>
-      <c r="K30" s="43" t="n">
+      <c r="K30" s="13" t="n">
         <v>35.2</v>
       </c>
-      <c r="L30" s="43" t="n">
+      <c r="L30" s="13" t="n">
         <v>8573</v>
       </c>
-      <c r="M30" s="44" t="n">
+      <c r="M30" s="14" t="n">
         <v>11.5</v>
       </c>
-      <c r="N30" s="44" t="n">
+      <c r="N30" s="14" t="n">
         <v>2804</v>
       </c>
-      <c r="O30" s="45" t="n">
+      <c r="O30" s="15" t="n">
         <v>1.4</v>
       </c>
-      <c r="P30" s="45" t="n">
+      <c r="P30" s="15" t="n">
         <v>351</v>
       </c>
-      <c r="Q30" s="12" t="n">
+      <c r="Q30" s="16" t="n">
         <v>48.1</v>
       </c>
-      <c r="R30" s="12" t="n">
+      <c r="R30" s="16" t="n">
         <v>11728</v>
       </c>
-      <c r="S30" s="13" t="inlineStr">
+      <c r="S30" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="41" t="inlineStr">
+      <c r="A31" s="10" t="n"/>
+      <c r="B31" s="10" t="n"/>
+      <c r="C31" s="10" t="n"/>
+      <c r="D31" s="10" t="n"/>
+      <c r="E31" s="11" t="inlineStr">
         <is>
           <t>laas_caanood</t>
         </is>
       </c>
-      <c r="F31" s="41" t="n">
+      <c r="F31" s="11" t="n">
         <v>48</v>
       </c>
-      <c r="G31" s="41" t="inlineStr">
+      <c r="G31" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H31" s="41" t="n">
+      <c r="H31" s="11" t="n">
         <v>23386</v>
       </c>
-      <c r="I31" s="42" t="n">
+      <c r="I31" s="12" t="n">
         <v>34.2</v>
       </c>
-      <c r="J31" s="42" t="n">
+      <c r="J31" s="12" t="n">
         <v>7994</v>
       </c>
-      <c r="K31" s="43" t="n">
+      <c r="K31" s="13" t="n">
         <v>63.1</v>
       </c>
-      <c r="L31" s="43" t="n">
+      <c r="L31" s="13" t="n">
         <v>14768</v>
       </c>
-      <c r="M31" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" s="45" t="n">
+      <c r="M31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" s="15" t="n">
         <v>2.7</v>
       </c>
-      <c r="P31" s="45" t="n">
+      <c r="P31" s="15" t="n">
         <v>625</v>
       </c>
-      <c r="Q31" s="12" t="n">
+      <c r="Q31" s="16" t="n">
         <v>65.8</v>
       </c>
-      <c r="R31" s="12" t="n">
+      <c r="R31" s="16" t="n">
         <v>15393</v>
       </c>
-      <c r="S31" s="13" t="inlineStr">
+      <c r="S31" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="41" t="inlineStr">
+      <c r="A32" s="10" t="n"/>
+      <c r="B32" s="10" t="n"/>
+      <c r="C32" s="10" t="n"/>
+      <c r="D32" s="10" t="n"/>
+      <c r="E32" s="11" t="inlineStr">
         <is>
           <t>luuq</t>
         </is>
       </c>
-      <c r="F32" s="41" t="n">
+      <c r="F32" s="11" t="n">
         <v>45</v>
       </c>
-      <c r="G32" s="41" t="inlineStr">
+      <c r="G32" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H32" s="41" t="n">
+      <c r="H32" s="11" t="n">
         <v>33317</v>
       </c>
-      <c r="I32" s="42" t="n">
+      <c r="I32" s="12" t="n">
         <v>24.2</v>
       </c>
-      <c r="J32" s="42" t="n">
+      <c r="J32" s="12" t="n">
         <v>8078</v>
       </c>
-      <c r="K32" s="43" t="n">
+      <c r="K32" s="13" t="n">
         <v>72.59999999999999</v>
       </c>
-      <c r="L32" s="43" t="n">
+      <c r="L32" s="13" t="n">
         <v>24202</v>
       </c>
-      <c r="M32" s="44" t="n">
+      <c r="M32" s="14" t="n">
         <v>2.5</v>
       </c>
-      <c r="N32" s="44" t="n">
+      <c r="N32" s="14" t="n">
         <v>822</v>
       </c>
-      <c r="O32" s="45" t="n">
+      <c r="O32" s="15" t="n">
         <v>0.6</v>
       </c>
-      <c r="P32" s="45" t="n">
+      <c r="P32" s="15" t="n">
         <v>215</v>
       </c>
-      <c r="Q32" s="12" t="n">
+      <c r="Q32" s="16" t="n">
         <v>75.8</v>
       </c>
-      <c r="R32" s="12" t="n">
+      <c r="R32" s="16" t="n">
         <v>25239</v>
       </c>
-      <c r="S32" s="13" t="inlineStr">
+      <c r="S32" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="41" t="inlineStr">
+      <c r="A33" s="10" t="n"/>
+      <c r="B33" s="10" t="n"/>
+      <c r="C33" s="10" t="n"/>
+      <c r="D33" s="10" t="n"/>
+      <c r="E33" s="11" t="inlineStr">
         <is>
           <t>marka</t>
         </is>
       </c>
-      <c r="F33" s="41" t="n">
+      <c r="F33" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="G33" s="41" t="inlineStr">
+      <c r="G33" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H33" s="41" t="n">
+      <c r="H33" s="11" t="n">
         <v>23383</v>
       </c>
-      <c r="I33" s="42" t="n">
+      <c r="I33" s="12" t="n">
         <v>7.5</v>
       </c>
-      <c r="J33" s="42" t="n">
+      <c r="J33" s="12" t="n">
         <v>1748</v>
       </c>
-      <c r="K33" s="43" t="n">
+      <c r="K33" s="13" t="n">
         <v>92.5</v>
       </c>
-      <c r="L33" s="43" t="n">
+      <c r="L33" s="13" t="n">
         <v>21635</v>
       </c>
-      <c r="M33" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="12" t="n">
+      <c r="M33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="16" t="n">
         <v>92.5</v>
       </c>
-      <c r="R33" s="12" t="n">
+      <c r="R33" s="16" t="n">
         <v>21635</v>
       </c>
-      <c r="S33" s="13" t="inlineStr">
+      <c r="S33" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
-      <c r="D34" s="3" t="n"/>
-      <c r="E34" s="41" t="inlineStr">
+      <c r="A34" s="10" t="n"/>
+      <c r="B34" s="10" t="n"/>
+      <c r="C34" s="10" t="n"/>
+      <c r="D34" s="10" t="n"/>
+      <c r="E34" s="11" t="inlineStr">
         <is>
           <t>qansax_dheere</t>
         </is>
       </c>
-      <c r="F34" s="41" t="n">
+      <c r="F34" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="G34" s="41" t="inlineStr">
+      <c r="G34" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H34" s="41" t="n">
+      <c r="H34" s="11" t="n">
         <v>29539</v>
       </c>
-      <c r="I34" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" s="42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" s="43" t="n">
+      <c r="I34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="13" t="n">
         <v>19</v>
       </c>
-      <c r="L34" s="43" t="n">
+      <c r="L34" s="13" t="n">
         <v>5603</v>
       </c>
-      <c r="M34" s="44" t="n">
+      <c r="M34" s="14" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="N34" s="44" t="n">
+      <c r="N34" s="14" t="n">
         <v>22123</v>
       </c>
-      <c r="O34" s="45" t="n">
+      <c r="O34" s="15" t="n">
         <v>6.1</v>
       </c>
-      <c r="P34" s="45" t="n">
+      <c r="P34" s="15" t="n">
         <v>1813</v>
       </c>
-      <c r="Q34" s="12" t="n">
+      <c r="Q34" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="R34" s="12" t="n">
+      <c r="R34" s="16" t="n">
         <v>29539</v>
       </c>
-      <c r="S34" s="13" t="inlineStr">
+      <c r="S34" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="3" t="n"/>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="41" t="inlineStr">
+      <c r="A35" s="10" t="n"/>
+      <c r="B35" s="10" t="n"/>
+      <c r="C35" s="10" t="n"/>
+      <c r="D35" s="10" t="n"/>
+      <c r="E35" s="11" t="inlineStr">
         <is>
           <t>taleex</t>
         </is>
       </c>
-      <c r="F35" s="41" t="n">
+      <c r="F35" s="11" t="n">
         <v>52</v>
       </c>
-      <c r="G35" s="41" t="inlineStr">
+      <c r="G35" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H35" s="41" t="n">
+      <c r="H35" s="11" t="n">
         <v>22673</v>
       </c>
-      <c r="I35" s="42" t="n">
+      <c r="I35" s="12" t="n">
         <v>18.3</v>
       </c>
-      <c r="J35" s="42" t="n">
+      <c r="J35" s="12" t="n">
         <v>4147</v>
       </c>
-      <c r="K35" s="43" t="n">
+      <c r="K35" s="13" t="n">
         <v>34.8</v>
       </c>
-      <c r="L35" s="43" t="n">
+      <c r="L35" s="13" t="n">
         <v>7887</v>
       </c>
-      <c r="M35" s="44" t="n">
+      <c r="M35" s="14" t="n">
         <v>46.9</v>
       </c>
-      <c r="N35" s="44" t="n">
+      <c r="N35" s="14" t="n">
         <v>10639</v>
       </c>
-      <c r="O35" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="12" t="n">
+      <c r="O35" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="16" t="n">
         <v>81.7</v>
       </c>
-      <c r="R35" s="12" t="n">
+      <c r="R35" s="16" t="n">
         <v>18527</v>
       </c>
-      <c r="S35" s="13" t="inlineStr">
+      <c r="S35" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="3" t="n"/>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="41" t="inlineStr">
+      <c r="A36" s="10" t="n"/>
+      <c r="B36" s="10" t="n"/>
+      <c r="C36" s="10" t="n"/>
+      <c r="D36" s="10" t="n"/>
+      <c r="E36" s="11" t="inlineStr">
         <is>
           <t>waajid</t>
         </is>
       </c>
-      <c r="F36" s="41" t="n">
+      <c r="F36" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="G36" s="41" t="inlineStr">
+      <c r="G36" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H36" s="41" t="n">
+      <c r="H36" s="11" t="n">
         <v>32609</v>
       </c>
-      <c r="I36" s="42" t="n">
+      <c r="I36" s="12" t="n">
         <v>65</v>
       </c>
-      <c r="J36" s="42" t="n">
+      <c r="J36" s="12" t="n">
         <v>21203</v>
       </c>
-      <c r="K36" s="43" t="n">
+      <c r="K36" s="13" t="n">
         <v>33.2</v>
       </c>
-      <c r="L36" s="43" t="n">
+      <c r="L36" s="13" t="n">
         <v>10820</v>
       </c>
-      <c r="M36" s="44" t="n">
+      <c r="M36" s="14" t="n">
         <v>1.8</v>
       </c>
-      <c r="N36" s="44" t="n">
+      <c r="N36" s="14" t="n">
         <v>586</v>
       </c>
-      <c r="O36" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="12" t="n">
+      <c r="O36" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="R36" s="12" t="n">
+      <c r="R36" s="16" t="n">
         <v>11407</v>
       </c>
-      <c r="S36" s="13" t="inlineStr">
+      <c r="S36" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="3" t="n"/>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="41" t="inlineStr">
+      <c r="A37" s="10" t="n"/>
+      <c r="B37" s="10" t="n"/>
+      <c r="C37" s="10" t="n"/>
+      <c r="D37" s="10" t="n"/>
+      <c r="E37" s="11" t="inlineStr">
         <is>
           <t>wanla_weyn</t>
         </is>
       </c>
-      <c r="F37" s="41" t="n">
+      <c r="F37" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="G37" s="41" t="inlineStr">
+      <c r="G37" s="11" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H37" s="41" t="n">
+      <c r="H37" s="11" t="n">
         <v>81207</v>
       </c>
-      <c r="I37" s="42" t="n">
+      <c r="I37" s="12" t="n">
         <v>55.3</v>
       </c>
-      <c r="J37" s="42" t="n">
+      <c r="J37" s="12" t="n">
         <v>44902</v>
       </c>
-      <c r="K37" s="43" t="n">
+      <c r="K37" s="13" t="n">
         <v>15.2</v>
       </c>
-      <c r="L37" s="43" t="n">
+      <c r="L37" s="13" t="n">
         <v>12322</v>
       </c>
-      <c r="M37" s="44" t="n">
+      <c r="M37" s="14" t="n">
         <v>26.1</v>
       </c>
-      <c r="N37" s="44" t="n">
+      <c r="N37" s="14" t="n">
         <v>21180</v>
       </c>
-      <c r="O37" s="45" t="n">
+      <c r="O37" s="15" t="n">
         <v>3.5</v>
       </c>
-      <c r="P37" s="45" t="n">
+      <c r="P37" s="15" t="n">
         <v>2804</v>
       </c>
-      <c r="Q37" s="12" t="n">
+      <c r="Q37" s="16" t="n">
         <v>44.7</v>
       </c>
-      <c r="R37" s="12" t="n">
+      <c r="R37" s="16" t="n">
         <v>36305</v>
       </c>
-      <c r="S37" s="13" t="inlineStr">
+      <c r="S37" s="17" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="3" t="n"/>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="46" t="inlineStr">
+      <c r="A38" s="10" t="n"/>
+      <c r="B38" s="10" t="n"/>
+      <c r="C38" s="10" t="n"/>
+      <c r="D38" s="10" t="n"/>
+      <c r="E38" s="18" t="inlineStr">
         <is>
           <t>xudun</t>
         </is>
       </c>
-      <c r="F38" s="46" t="n">
+      <c r="F38" s="18" t="n">
         <v>26</v>
       </c>
-      <c r="G38" s="46" t="inlineStr">
+      <c r="G38" s="18" t="inlineStr">
         <is>
           <t>Protracted IDPs</t>
         </is>
       </c>
-      <c r="H38" s="46" t="n">
+      <c r="H38" s="18" t="n">
         <v>26893</v>
       </c>
-      <c r="I38" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" s="48" t="n">
+      <c r="I38" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" s="19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" s="20" t="n">
         <v>100</v>
       </c>
-      <c r="L38" s="48" t="n">
+      <c r="L38" s="20" t="n">
         <v>26893</v>
       </c>
-      <c r="M38" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="51" t="n">
+      <c r="M38" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="R38" s="51" t="n">
+      <c r="R38" s="23" t="n">
         <v>26893</v>
       </c>
-      <c r="S38" s="13" t="inlineStr">
+      <c r="S38" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/output_validation/final__JIAF__platform_output.xlsx
+++ b/output_validation/final__JIAF__platform_output.xlsx
@@ -581,16 +581,16 @@
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
-    <col width="16" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="17" max="17"/>
+    <col width="33" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
@@ -631,52 +631,52 @@
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>% 1-2</t>
+          <t>% severity levels 1-2</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t># 1-2</t>
+          <t># severity levels 1-2</t>
         </is>
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>% 3</t>
+          <t>% severity level 3</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t># 3</t>
+          <t># severity level 3</t>
         </is>
       </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>% 4</t>
+          <t>% severity level 4</t>
         </is>
       </c>
       <c r="N5" s="7" t="inlineStr">
         <is>
-          <t># 4</t>
+          <t># severity level 4</t>
         </is>
       </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>% 5</t>
+          <t>% severity level 5</t>
         </is>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t># 5</t>
+          <t># severity level 5</t>
         </is>
       </c>
       <c r="Q5" s="9" t="inlineStr">
         <is>
-          <t>% Tot PiN (3+)</t>
+          <t>% Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="9" t="inlineStr">
         <is>
-          <t># Tot PiN (3+)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="S5" s="9" t="inlineStr">
@@ -1737,16 +1737,16 @@
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
-    <col width="16" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="17" max="17"/>
+    <col width="33" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
@@ -1787,52 +1787,52 @@
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>% 1-2</t>
+          <t>% severity levels 1-2</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t># 1-2</t>
+          <t># severity levels 1-2</t>
         </is>
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>% 3</t>
+          <t>% severity level 3</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t># 3</t>
+          <t># severity level 3</t>
         </is>
       </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>% 4</t>
+          <t>% severity level 4</t>
         </is>
       </c>
       <c r="N5" s="7" t="inlineStr">
         <is>
-          <t># 4</t>
+          <t># severity level 4</t>
         </is>
       </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>% 5</t>
+          <t>% severity level 5</t>
         </is>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t># 5</t>
+          <t># severity level 5</t>
         </is>
       </c>
       <c r="Q5" s="9" t="inlineStr">
         <is>
-          <t>% Tot PiN (3+)</t>
+          <t>% Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="9" t="inlineStr">
         <is>
-          <t># Tot PiN (3+)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="S5" s="9" t="inlineStr">
@@ -2551,16 +2551,16 @@
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
-    <col width="16" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="17" max="17"/>
+    <col width="33" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
@@ -2601,52 +2601,52 @@
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>% 1-2</t>
+          <t>% severity levels 1-2</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t># 1-2</t>
+          <t># severity levels 1-2</t>
         </is>
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>% 3</t>
+          <t>% severity level 3</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t># 3</t>
+          <t># severity level 3</t>
         </is>
       </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>% 4</t>
+          <t>% severity level 4</t>
         </is>
       </c>
       <c r="N5" s="7" t="inlineStr">
         <is>
-          <t># 4</t>
+          <t># severity level 4</t>
         </is>
       </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>% 5</t>
+          <t>% severity level 5</t>
         </is>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t># 5</t>
+          <t># severity level 5</t>
         </is>
       </c>
       <c r="Q5" s="9" t="inlineStr">
         <is>
-          <t>% Tot PiN (3+)</t>
+          <t>% Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="9" t="inlineStr">
         <is>
-          <t># Tot PiN (3+)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="S5" s="9" t="inlineStr">
@@ -3365,16 +3365,16 @@
     <col width="13" customWidth="1" min="6" max="6"/>
     <col width="18" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="5" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="5" customWidth="1" min="15" max="15"/>
-    <col width="5" customWidth="1" min="16" max="16"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
-    <col width="16" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="11" max="11"/>
+    <col width="20" customWidth="1" min="12" max="12"/>
+    <col width="20" customWidth="1" min="13" max="13"/>
+    <col width="20" customWidth="1" min="14" max="14"/>
+    <col width="20" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="17" max="17"/>
+    <col width="33" customWidth="1" min="18" max="18"/>
     <col width="15" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
@@ -3415,52 +3415,52 @@
       </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>% 1-2</t>
+          <t>% severity levels 1-2</t>
         </is>
       </c>
       <c r="J5" s="5" t="inlineStr">
         <is>
-          <t># 1-2</t>
+          <t># severity levels 1-2</t>
         </is>
       </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>% 3</t>
+          <t>% severity level 3</t>
         </is>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t># 3</t>
+          <t># severity level 3</t>
         </is>
       </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>% 4</t>
+          <t>% severity level 4</t>
         </is>
       </c>
       <c r="N5" s="7" t="inlineStr">
         <is>
-          <t># 4</t>
+          <t># severity level 4</t>
         </is>
       </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>% 5</t>
+          <t>% severity level 5</t>
         </is>
       </c>
       <c r="P5" s="8" t="inlineStr">
         <is>
-          <t># 5</t>
+          <t># severity level 5</t>
         </is>
       </c>
       <c r="Q5" s="9" t="inlineStr">
         <is>
-          <t>% Tot PiN (3+)</t>
+          <t>% Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="9" t="inlineStr">
         <is>
-          <t># Tot PiN (3+)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="S5" s="9" t="inlineStr">

--- a/output_validation/final__JIAF__platform_output.xlsx
+++ b/output_validation/final__JIAF__platform_output.xlsx
@@ -569,7 +569,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S23"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,20 +578,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
     <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -616,70 +615,65 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>Population group</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
           <t>TotN</t>
         </is>
       </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>% severity levels 1-2</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
           <t># severity levels 1-2</t>
         </is>
       </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>% severity level 3</t>
+        </is>
+      </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
           <t># severity level 3</t>
         </is>
       </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>% severity level 4</t>
+        </is>
+      </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
-        </is>
-      </c>
-      <c r="N5" s="7" t="inlineStr">
-        <is>
           <t># severity level 4</t>
         </is>
       </c>
+      <c r="N5" s="8" t="inlineStr">
+        <is>
+          <t>% severity level 5</t>
+        </is>
+      </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
-        </is>
-      </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
           <t># severity level 5</t>
         </is>
       </c>
+      <c r="P5" s="9" t="inlineStr">
+        <is>
+          <t>% Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
       <c r="Q5" s="9" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="9" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
@@ -695,50 +689,47 @@
           <t>MMR001</t>
         </is>
       </c>
-      <c r="F6" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="G6" s="11" t="n">
         <v>94127</v>
       </c>
+      <c r="H6" s="12" t="n">
+        <v>91.40000000000001</v>
+      </c>
       <c r="I6" s="12" t="n">
-        <v>73.59999999999999</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>69230</v>
+        <v>86039</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>22094</v>
+        <v>0</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>8.6</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N6" s="14" t="n">
-        <v>2181</v>
+        <v>8088</v>
+      </c>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O6" s="15" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P6" s="15" t="n">
-        <v>621</v>
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>8.6</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="R6" s="16" t="n">
-        <v>24896</v>
-      </c>
-      <c r="S6" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>8088</v>
+      </c>
+      <c r="R6" s="17" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -752,48 +743,45 @@
           <t>MMR002</t>
         </is>
       </c>
-      <c r="F7" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="G7" s="11" t="n">
         <v>49284</v>
       </c>
+      <c r="H7" s="12" t="n">
+        <v>29.5</v>
+      </c>
       <c r="I7" s="12" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>14199</v>
+        <v>14556</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>67.40000000000001</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="L7" s="13" t="n">
-        <v>33207</v>
+        <v>33223</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>3.1</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="N7" s="14" t="n">
-        <v>1877</v>
+        <v>1505</v>
+      </c>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P7" s="15" t="n">
-        <v>0</v>
+      <c r="P7" s="16" t="n">
+        <v>70.5</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="R7" s="16" t="n">
-        <v>35085</v>
-      </c>
-      <c r="S7" s="17" t="inlineStr">
+        <v>34728</v>
+      </c>
+      <c r="R7" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -809,48 +797,45 @@
           <t>MMR003</t>
         </is>
       </c>
-      <c r="F8" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="G8" s="11" t="n">
         <v>71100</v>
       </c>
+      <c r="H8" s="12" t="n">
+        <v>67</v>
+      </c>
       <c r="I8" s="12" t="n">
-        <v>54.3</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>38598</v>
+        <v>47660</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>33</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="L8" s="13" t="n">
-        <v>28273</v>
+        <v>23440</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M8" s="14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="N8" s="14" t="n">
-        <v>3912</v>
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O8" s="15" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P8" s="15" t="n">
-        <v>317</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>33</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>45.7</v>
-      </c>
-      <c r="R8" s="16" t="n">
-        <v>32503</v>
-      </c>
-      <c r="S8" s="17" t="inlineStr">
+        <v>23440</v>
+      </c>
+      <c r="R8" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -866,48 +851,45 @@
           <t>MMR004</t>
         </is>
       </c>
-      <c r="F9" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="G9" s="11" t="n">
         <v>79357</v>
       </c>
+      <c r="H9" s="12" t="n">
+        <v>12.6</v>
+      </c>
       <c r="I9" s="12" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>23469</v>
+        <v>9981</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>75.5</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="L9" s="13" t="n">
-        <v>52207</v>
+        <v>59918</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <v>3.4</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N9" s="14" t="n">
-        <v>2804</v>
+        <v>2726</v>
+      </c>
+      <c r="N9" s="15" t="n">
+        <v>8.5</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P9" s="15" t="n">
-        <v>877</v>
+        <v>6732</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>87.40000000000001</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>70.40000000000001</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <v>55888</v>
-      </c>
-      <c r="S9" s="17" t="inlineStr">
+        <v>69376</v>
+      </c>
+      <c r="R9" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -923,48 +905,45 @@
           <t>MMR005</t>
         </is>
       </c>
-      <c r="F10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="G10" s="11" t="n">
         <v>206737</v>
       </c>
+      <c r="H10" s="12" t="n">
+        <v>12.3</v>
+      </c>
       <c r="I10" s="12" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="J10" s="12" t="n">
-        <v>44841</v>
+        <v>25327</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>87.7</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>151037</v>
+        <v>181410</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="N10" s="14" t="n">
-        <v>9848</v>
+        <v>0</v>
+      </c>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P10" s="15" t="n">
-        <v>1011</v>
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>87.7</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="R10" s="16" t="n">
-        <v>161896</v>
-      </c>
-      <c r="S10" s="17" t="inlineStr">
+        <v>181410</v>
+      </c>
+      <c r="R10" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -980,48 +959,45 @@
           <t>MMR006</t>
         </is>
       </c>
-      <c r="F11" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="G11" s="11" t="n">
         <v>284225</v>
       </c>
+      <c r="H11" s="12" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="I11" s="12" t="n">
-        <v>72.59999999999999</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>206212</v>
+        <v>206236</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>21.5</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="L11" s="13" t="n">
-        <v>67381</v>
+        <v>60998</v>
+      </c>
+      <c r="L11" s="14" t="n">
+        <v>6</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N11" s="14" t="n">
-        <v>10632</v>
+        <v>16992</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="15" t="n">
-        <v>0</v>
+      <c r="P11" s="16" t="n">
+        <v>27.4</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="R11" s="16" t="n">
-        <v>78013</v>
-      </c>
-      <c r="S11" s="17" t="inlineStr">
+        <v>77989</v>
+      </c>
+      <c r="R11" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1037,48 +1013,45 @@
           <t>MMR007</t>
         </is>
       </c>
-      <c r="F12" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="G12" s="11" t="n">
         <v>114132</v>
       </c>
+      <c r="H12" s="12" t="n">
+        <v>79.2</v>
+      </c>
       <c r="I12" s="12" t="n">
-        <v>77.5</v>
-      </c>
-      <c r="J12" s="12" t="n">
-        <v>88451</v>
+        <v>90441</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>15.9</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>21</v>
-      </c>
-      <c r="L12" s="13" t="n">
-        <v>23946</v>
+        <v>18169</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>4.8</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N12" s="14" t="n">
-        <v>1736</v>
+        <v>5522</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O12" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="15" t="n">
-        <v>0</v>
+      <c r="P12" s="16" t="n">
+        <v>20.8</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="R12" s="16" t="n">
-        <v>25682</v>
-      </c>
-      <c r="S12" s="17" t="inlineStr">
+        <v>23692</v>
+      </c>
+      <c r="R12" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1094,50 +1067,47 @@
           <t>MMR008</t>
         </is>
       </c>
-      <c r="F13" s="11" t="n">
-        <v>16</v>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="G13" s="11" t="n">
         <v>82380</v>
       </c>
+      <c r="H13" s="12" t="n">
+        <v>100</v>
+      </c>
       <c r="I13" s="12" t="n">
-        <v>75.7</v>
-      </c>
-      <c r="J13" s="12" t="n">
-        <v>62340</v>
+        <v>82380</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>16.8</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>13805</v>
+        <v>0</v>
+      </c>
+      <c r="L13" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="N13" s="14" t="n">
-        <v>6236</v>
+        <v>0</v>
+      </c>
+      <c r="N13" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O13" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P13" s="15" t="n">
+      <c r="P13" s="16" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="16" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="R13" s="16" t="n">
-        <v>20041</v>
-      </c>
-      <c r="S13" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>0</v>
+      </c>
+      <c r="R13" s="17" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1151,48 +1121,45 @@
           <t>MMR009</t>
         </is>
       </c>
-      <c r="F14" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="G14" s="11" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="G14" s="11" t="n">
         <v>77970</v>
       </c>
+      <c r="H14" s="12" t="n">
+        <v>67.8</v>
+      </c>
       <c r="I14" s="12" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="J14" s="12" t="n">
-        <v>60939</v>
+        <v>52840</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>32.2</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L14" s="13" t="n">
-        <v>15970</v>
+        <v>25129</v>
+      </c>
+      <c r="L14" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="N14" s="14" t="n">
-        <v>1061</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O14" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P14" s="15" t="n">
-        <v>0</v>
+      <c r="P14" s="16" t="n">
+        <v>32.2</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="R14" s="16" t="n">
-        <v>17031</v>
-      </c>
-      <c r="S14" s="17" t="inlineStr">
+        <v>25129</v>
+      </c>
+      <c r="R14" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1208,50 +1175,47 @@
           <t>MMR010</t>
         </is>
       </c>
-      <c r="F15" s="11" t="n">
-        <v>11</v>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="G15" s="11" t="n">
         <v>469612</v>
       </c>
+      <c r="H15" s="12" t="n">
+        <v>86.2</v>
+      </c>
       <c r="I15" s="12" t="n">
-        <v>77.40000000000001</v>
-      </c>
-      <c r="J15" s="12" t="n">
-        <v>363402</v>
+        <v>404809</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>13.8</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="L15" s="13" t="n">
-        <v>86190</v>
+        <v>64803</v>
+      </c>
+      <c r="L15" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="N15" s="14" t="n">
-        <v>16642</v>
+        <v>0</v>
+      </c>
+      <c r="N15" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P15" s="15" t="n">
-        <v>3379</v>
+        <v>0</v>
+      </c>
+      <c r="P15" s="16" t="n">
+        <v>13.8</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>22.6</v>
-      </c>
-      <c r="R15" s="16" t="n">
-        <v>106210</v>
-      </c>
-      <c r="S15" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>64803</v>
+      </c>
+      <c r="R15" s="17" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1265,48 +1229,45 @@
           <t>MMR011</t>
         </is>
       </c>
-      <c r="F16" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="G16" s="11" t="n">
         <v>93763</v>
       </c>
+      <c r="H16" s="12" t="n">
+        <v>77.2</v>
+      </c>
       <c r="I16" s="12" t="n">
-        <v>67.59999999999999</v>
-      </c>
-      <c r="J16" s="12" t="n">
-        <v>63382</v>
+        <v>72341</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>14.6</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="L16" s="13" t="n">
-        <v>14645</v>
+        <v>13670</v>
+      </c>
+      <c r="L16" s="14" t="n">
+        <v>8.300000000000001</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="N16" s="14" t="n">
-        <v>8175</v>
+        <v>7752</v>
+      </c>
+      <c r="N16" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="P16" s="15" t="n">
-        <v>7561</v>
+        <v>0</v>
+      </c>
+      <c r="P16" s="16" t="n">
+        <v>22.8</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>32.4</v>
-      </c>
-      <c r="R16" s="16" t="n">
-        <v>30381</v>
-      </c>
-      <c r="S16" s="17" t="inlineStr">
+        <v>21422</v>
+      </c>
+      <c r="R16" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1322,48 +1283,45 @@
           <t>MMR012</t>
         </is>
       </c>
-      <c r="F17" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H17" s="11" t="n">
+      <c r="G17" s="11" t="n">
         <v>103387</v>
       </c>
+      <c r="H17" s="12" t="n">
+        <v>29.8</v>
+      </c>
       <c r="I17" s="12" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="J17" s="12" t="n">
-        <v>47756</v>
+        <v>30769</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>62</v>
       </c>
       <c r="K17" s="13" t="n">
-        <v>48.2</v>
-      </c>
-      <c r="L17" s="13" t="n">
-        <v>49819</v>
+        <v>64124</v>
+      </c>
+      <c r="L17" s="14" t="n">
+        <v>3.7</v>
       </c>
       <c r="M17" s="14" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="N17" s="14" t="n">
-        <v>5404</v>
+        <v>3865</v>
+      </c>
+      <c r="N17" s="15" t="n">
+        <v>4.5</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P17" s="15" t="n">
-        <v>408</v>
+        <v>4628</v>
+      </c>
+      <c r="P17" s="16" t="n">
+        <v>70.2</v>
       </c>
       <c r="Q17" s="16" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="R17" s="16" t="n">
-        <v>55631</v>
-      </c>
-      <c r="S17" s="17" t="inlineStr">
+        <v>72618</v>
+      </c>
+      <c r="R17" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1379,48 +1337,45 @@
           <t>MMR013</t>
         </is>
       </c>
-      <c r="F18" s="11" t="n">
-        <v>13</v>
-      </c>
-      <c r="G18" s="11" t="inlineStr">
+      <c r="F18" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H18" s="11" t="n">
+      <c r="G18" s="11" t="n">
         <v>94050</v>
       </c>
+      <c r="H18" s="12" t="n">
+        <v>55.5</v>
+      </c>
       <c r="I18" s="12" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="J18" s="12" t="n">
-        <v>61865</v>
+        <v>52237</v>
+      </c>
+      <c r="J18" s="13" t="n">
+        <v>40.4</v>
       </c>
       <c r="K18" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="L18" s="13" t="n">
-        <v>24464</v>
+        <v>38011</v>
+      </c>
+      <c r="L18" s="14" t="n">
+        <v>4</v>
       </c>
       <c r="M18" s="14" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="N18" s="14" t="n">
-        <v>7317</v>
+        <v>3802</v>
+      </c>
+      <c r="N18" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="P18" s="15" t="n">
-        <v>403</v>
+        <v>0</v>
+      </c>
+      <c r="P18" s="16" t="n">
+        <v>44.5</v>
       </c>
       <c r="Q18" s="16" t="n">
-        <v>34.2</v>
-      </c>
-      <c r="R18" s="16" t="n">
-        <v>32185</v>
-      </c>
-      <c r="S18" s="17" t="inlineStr">
+        <v>41813</v>
+      </c>
+      <c r="R18" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1436,48 +1391,45 @@
           <t>MMR014</t>
         </is>
       </c>
-      <c r="F19" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" s="11" t="inlineStr">
+      <c r="F19" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H19" s="11" t="n">
+      <c r="G19" s="11" t="n">
         <v>240015</v>
       </c>
+      <c r="H19" s="12" t="n">
+        <v>88</v>
+      </c>
       <c r="I19" s="12" t="n">
-        <v>81.7</v>
-      </c>
-      <c r="J19" s="12" t="n">
-        <v>196208</v>
+        <v>211311</v>
+      </c>
+      <c r="J19" s="13" t="n">
+        <v>12</v>
       </c>
       <c r="K19" s="13" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="L19" s="13" t="n">
-        <v>33230</v>
+        <v>28704</v>
+      </c>
+      <c r="L19" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M19" s="14" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="N19" s="14" t="n">
-        <v>10577</v>
+        <v>0</v>
+      </c>
+      <c r="N19" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O19" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P19" s="15" t="n">
-        <v>0</v>
+      <c r="P19" s="16" t="n">
+        <v>12</v>
       </c>
       <c r="Q19" s="16" t="n">
-        <v>18.3</v>
-      </c>
-      <c r="R19" s="16" t="n">
-        <v>43807</v>
-      </c>
-      <c r="S19" s="17" t="inlineStr">
+        <v>28704</v>
+      </c>
+      <c r="R19" s="17" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -1493,48 +1445,45 @@
           <t>MMR015</t>
         </is>
       </c>
-      <c r="F20" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="G20" s="11" t="inlineStr">
+      <c r="F20" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H20" s="11" t="n">
+      <c r="G20" s="11" t="n">
         <v>173573</v>
       </c>
+      <c r="H20" s="12" t="n">
+        <v>69.7</v>
+      </c>
       <c r="I20" s="12" t="n">
-        <v>53.8</v>
-      </c>
-      <c r="J20" s="12" t="n">
-        <v>93404</v>
+        <v>120951</v>
+      </c>
+      <c r="J20" s="13" t="n">
+        <v>30.3</v>
       </c>
       <c r="K20" s="13" t="n">
-        <v>39.8</v>
-      </c>
-      <c r="L20" s="13" t="n">
-        <v>69037</v>
+        <v>52623</v>
+      </c>
+      <c r="L20" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M20" s="14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="N20" s="14" t="n">
-        <v>10115</v>
+        <v>0</v>
+      </c>
+      <c r="N20" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P20" s="15" t="n">
-        <v>1018</v>
+        <v>0</v>
+      </c>
+      <c r="P20" s="16" t="n">
+        <v>30.3</v>
       </c>
       <c r="Q20" s="16" t="n">
-        <v>46.2</v>
-      </c>
-      <c r="R20" s="16" t="n">
-        <v>80170</v>
-      </c>
-      <c r="S20" s="17" t="inlineStr">
+        <v>52623</v>
+      </c>
+      <c r="R20" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1550,48 +1499,45 @@
           <t>MMR016</t>
         </is>
       </c>
-      <c r="F21" s="11" t="n">
-        <v>18</v>
-      </c>
-      <c r="G21" s="11" t="inlineStr">
+      <c r="F21" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H21" s="11" t="n">
+      <c r="G21" s="11" t="n">
         <v>70760</v>
       </c>
+      <c r="H21" s="12" t="n">
+        <v>93.09999999999999</v>
+      </c>
       <c r="I21" s="12" t="n">
-        <v>85.5</v>
-      </c>
-      <c r="J21" s="12" t="n">
-        <v>60490</v>
+        <v>65883</v>
+      </c>
+      <c r="J21" s="13" t="n">
+        <v>6.9</v>
       </c>
       <c r="K21" s="13" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="L21" s="13" t="n">
-        <v>7743</v>
+        <v>4877</v>
+      </c>
+      <c r="L21" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M21" s="14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="N21" s="14" t="n">
-        <v>2528</v>
+        <v>0</v>
+      </c>
+      <c r="N21" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O21" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P21" s="15" t="n">
-        <v>0</v>
+      <c r="P21" s="16" t="n">
+        <v>6.9</v>
       </c>
       <c r="Q21" s="16" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="R21" s="16" t="n">
-        <v>10271</v>
-      </c>
-      <c r="S21" s="17" t="inlineStr">
+        <v>4877</v>
+      </c>
+      <c r="R21" s="17" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -1607,48 +1553,45 @@
           <t>MMR017</t>
         </is>
       </c>
-      <c r="F22" s="11" t="n">
-        <v>14</v>
-      </c>
-      <c r="G22" s="11" t="inlineStr">
+      <c r="F22" s="11" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H22" s="11" t="n">
+      <c r="G22" s="11" t="n">
         <v>81840</v>
       </c>
+      <c r="H22" s="12" t="n">
+        <v>100</v>
+      </c>
       <c r="I22" s="12" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="J22" s="12" t="n">
-        <v>75687</v>
+        <v>81840</v>
+      </c>
+      <c r="J22" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="K22" s="13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L22" s="13" t="n">
-        <v>2975</v>
+        <v>0</v>
+      </c>
+      <c r="L22" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M22" s="14" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="N22" s="14" t="n">
-        <v>2695</v>
+        <v>0</v>
+      </c>
+      <c r="N22" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O22" s="15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P22" s="15" t="n">
-        <v>484</v>
+        <v>0</v>
+      </c>
+      <c r="P22" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="Q22" s="16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="R22" s="16" t="n">
-        <v>6153</v>
-      </c>
-      <c r="S22" s="17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17" t="inlineStr">
         <is>
           <t>1-2</t>
         </is>
@@ -1664,56 +1607,53 @@
           <t>MMR018</t>
         </is>
       </c>
-      <c r="F23" s="18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G23" s="18" t="inlineStr">
+      <c r="F23" s="18" t="inlineStr">
         <is>
           <t>ocap</t>
         </is>
       </c>
-      <c r="H23" s="18" t="n">
+      <c r="G23" s="18" t="n">
         <v>85275</v>
       </c>
+      <c r="H23" s="19" t="n">
+        <v>72.59999999999999</v>
+      </c>
       <c r="I23" s="19" t="n">
-        <v>87.09999999999999</v>
-      </c>
-      <c r="J23" s="19" t="n">
-        <v>74295</v>
+        <v>61931</v>
+      </c>
+      <c r="J23" s="20" t="n">
+        <v>27.4</v>
       </c>
       <c r="K23" s="20" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="L23" s="20" t="n">
-        <v>7273</v>
+        <v>23345</v>
+      </c>
+      <c r="L23" s="21" t="n">
+        <v>0</v>
       </c>
       <c r="M23" s="21" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N23" s="21" t="n">
-        <v>3707</v>
+        <v>0</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="O23" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="P23" s="22" t="n">
-        <v>0</v>
+      <c r="P23" s="23" t="n">
+        <v>27.4</v>
       </c>
       <c r="Q23" s="23" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="R23" s="23" t="n">
-        <v>10980</v>
-      </c>
-      <c r="S23" s="17" t="inlineStr">
-        <is>
-          <t>1-2</t>
+        <v>23345</v>
+      </c>
+      <c r="R23" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
+    <mergeCell ref="E1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1725,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1734,20 +1674,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
     <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1772,70 +1711,65 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>Population group</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
           <t>TotN</t>
         </is>
       </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>% severity levels 1-2</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
           <t># severity levels 1-2</t>
         </is>
       </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>% severity level 3</t>
+        </is>
+      </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
           <t># severity level 3</t>
         </is>
       </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>% severity level 4</t>
+        </is>
+      </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
-        </is>
-      </c>
-      <c r="N5" s="7" t="inlineStr">
-        <is>
           <t># severity level 4</t>
         </is>
       </c>
+      <c r="N5" s="8" t="inlineStr">
+        <is>
+          <t>% severity level 5</t>
+        </is>
+      </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
-        </is>
-      </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
           <t># severity level 5</t>
         </is>
       </c>
+      <c r="P5" s="9" t="inlineStr">
+        <is>
+          <t>% Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
       <c r="Q5" s="9" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="9" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
@@ -1851,48 +1785,45 @@
           <t>MMR001</t>
         </is>
       </c>
-      <c r="F6" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="G6" s="11" t="n">
         <v>13447</v>
       </c>
+      <c r="H6" s="12" t="n">
+        <v>69.90000000000001</v>
+      </c>
       <c r="I6" s="12" t="n">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>9556</v>
+        <v>9394</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>13.1</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>2609</v>
+        <v>1761</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>17</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="N6" s="14" t="n">
-        <v>1282</v>
+        <v>2292</v>
+      </c>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="15" t="n">
-        <v>0</v>
+      <c r="P6" s="16" t="n">
+        <v>30.1</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="R6" s="16" t="n">
-        <v>3891</v>
-      </c>
-      <c r="S6" s="17" t="inlineStr">
+        <v>4052</v>
+      </c>
+      <c r="R6" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1908,48 +1839,45 @@
           <t>MMR002</t>
         </is>
       </c>
-      <c r="F7" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="G7" s="11" t="n">
         <v>7041</v>
       </c>
+      <c r="H7" s="12" t="n">
+        <v>46.7</v>
+      </c>
       <c r="I7" s="12" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>2317</v>
+        <v>3289</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>43.6</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="L7" s="13" t="n">
-        <v>4250</v>
+        <v>3072</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>9.699999999999999</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" s="14" t="n">
-        <v>139</v>
+        <v>680</v>
+      </c>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="P7" s="15" t="n">
-        <v>335</v>
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>53.3</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="R7" s="16" t="n">
-        <v>4724</v>
-      </c>
-      <c r="S7" s="17" t="inlineStr">
+        <v>3752</v>
+      </c>
+      <c r="R7" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -1965,48 +1893,45 @@
           <t>MMR003</t>
         </is>
       </c>
-      <c r="F8" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="G8" s="11" t="n">
         <v>10157</v>
       </c>
+      <c r="H8" s="12" t="n">
+        <v>55.1</v>
+      </c>
       <c r="I8" s="12" t="n">
-        <v>45.1</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>4586</v>
+        <v>5592</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>44.9</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>47</v>
-      </c>
-      <c r="L8" s="13" t="n">
-        <v>4772</v>
+        <v>4566</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M8" s="14" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="N8" s="14" t="n">
-        <v>397</v>
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O8" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" s="15" t="n">
-        <v>402</v>
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>44.9</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>54.9</v>
-      </c>
-      <c r="R8" s="16" t="n">
-        <v>5571</v>
-      </c>
-      <c r="S8" s="17" t="inlineStr">
+        <v>4566</v>
+      </c>
+      <c r="R8" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2022,48 +1947,45 @@
           <t>MMR004</t>
         </is>
       </c>
-      <c r="F9" s="11" t="n">
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>idp</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>11337</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>2678</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>8205</v>
+      </c>
+      <c r="L9" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="11" t="inlineStr">
-        <is>
-          <t>idp</t>
-        </is>
-      </c>
-      <c r="H9" s="11" t="n">
-        <v>11337</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>2741</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>72.90000000000001</v>
-      </c>
-      <c r="L9" s="13" t="n">
-        <v>8270</v>
-      </c>
       <c r="M9" s="14" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N9" s="14" t="n">
-        <v>250</v>
+        <v>454</v>
+      </c>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="P9" s="15" t="n">
-        <v>75</v>
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>76.40000000000001</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>75.8</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <v>8595</v>
-      </c>
-      <c r="S9" s="17" t="inlineStr">
+        <v>8659</v>
+      </c>
+      <c r="R9" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2079,48 +2001,45 @@
           <t>MMR005</t>
         </is>
       </c>
-      <c r="F10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="G10" s="11" t="n">
         <v>29534</v>
       </c>
+      <c r="H10" s="12" t="n">
+        <v>6</v>
+      </c>
       <c r="I10" s="12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J10" s="12" t="n">
-        <v>920</v>
+        <v>1785</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>85.8</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>85.90000000000001</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>25358</v>
+        <v>25351</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>8.1</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="N10" s="14" t="n">
-        <v>665</v>
+        <v>2398</v>
+      </c>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="P10" s="15" t="n">
-        <v>2590</v>
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>94</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>96.90000000000001</v>
-      </c>
-      <c r="R10" s="16" t="n">
-        <v>28614</v>
-      </c>
-      <c r="S10" s="17" t="inlineStr">
+        <v>27749</v>
+      </c>
+      <c r="R10" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2136,48 +2055,45 @@
           <t>MMR006</t>
         </is>
       </c>
-      <c r="F11" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="G11" s="11" t="n">
         <v>40604</v>
       </c>
+      <c r="H11" s="12" t="n">
+        <v>16.6</v>
+      </c>
       <c r="I11" s="12" t="n">
-        <v>34.5</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>14021</v>
+        <v>6739</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>64.7</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="L11" s="13" t="n">
-        <v>22975</v>
+        <v>26251</v>
+      </c>
+      <c r="L11" s="14" t="n">
+        <v>18.7</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="N11" s="14" t="n">
-        <v>2407</v>
+        <v>7613</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="P11" s="15" t="n">
-        <v>1201</v>
+        <v>0</v>
+      </c>
+      <c r="P11" s="16" t="n">
+        <v>83.40000000000001</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="R11" s="16" t="n">
-        <v>26583</v>
-      </c>
-      <c r="S11" s="17" t="inlineStr">
+        <v>33864</v>
+      </c>
+      <c r="R11" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2193,50 +2109,47 @@
           <t>MMR007</t>
         </is>
       </c>
-      <c r="F12" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="G12" s="11" t="n">
         <v>16305</v>
       </c>
+      <c r="H12" s="12" t="n">
+        <v>83.8</v>
+      </c>
       <c r="I12" s="12" t="n">
-        <v>66.7</v>
-      </c>
-      <c r="J12" s="12" t="n">
-        <v>10879</v>
+        <v>13667</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>12.3</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>26</v>
-      </c>
-      <c r="L12" s="13" t="n">
-        <v>4239</v>
+        <v>2006</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>3.9</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="N12" s="14" t="n">
-        <v>1186</v>
+        <v>632</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O12" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="15" t="n">
-        <v>0</v>
+      <c r="P12" s="16" t="n">
+        <v>16.2</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="R12" s="16" t="n">
-        <v>5425</v>
-      </c>
-      <c r="S12" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>2638</v>
+      </c>
+      <c r="R12" s="17" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2250,48 +2163,45 @@
           <t>MMR009</t>
         </is>
       </c>
-      <c r="F13" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="G13" s="11" t="n">
         <v>11138</v>
       </c>
+      <c r="H13" s="12" t="n">
+        <v>33.5</v>
+      </c>
       <c r="I13" s="12" t="n">
-        <v>43</v>
-      </c>
-      <c r="J13" s="12" t="n">
-        <v>4790</v>
+        <v>3730</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>50.8</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>43.9</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>4886</v>
+        <v>5656</v>
+      </c>
+      <c r="L13" s="14" t="n">
+        <v>15.7</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="N13" s="14" t="n">
-        <v>829</v>
+        <v>1752</v>
+      </c>
+      <c r="N13" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O13" s="15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="P13" s="15" t="n">
-        <v>634</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="16" t="n">
+        <v>66.5</v>
       </c>
       <c r="Q13" s="16" t="n">
-        <v>57</v>
-      </c>
-      <c r="R13" s="16" t="n">
-        <v>6349</v>
-      </c>
-      <c r="S13" s="17" t="inlineStr">
+        <v>7409</v>
+      </c>
+      <c r="R13" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2307,48 +2217,45 @@
           <t>MMR011</t>
         </is>
       </c>
-      <c r="F14" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" s="11" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="G14" s="11" t="n">
         <v>13395</v>
       </c>
+      <c r="H14" s="12" t="n">
+        <v>50.5</v>
+      </c>
       <c r="I14" s="12" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="J14" s="12" t="n">
-        <v>6748</v>
+        <v>6760</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>35.8</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>32.7</v>
-      </c>
-      <c r="L14" s="13" t="n">
-        <v>4379</v>
+        <v>4800</v>
+      </c>
+      <c r="L14" s="14" t="n">
+        <v>13.7</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="N14" s="14" t="n">
-        <v>928</v>
+        <v>1835</v>
+      </c>
+      <c r="N14" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="P14" s="15" t="n">
-        <v>1340</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="16" t="n">
+        <v>49.5</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>49.6</v>
-      </c>
-      <c r="R14" s="16" t="n">
-        <v>6647</v>
-      </c>
-      <c r="S14" s="17" t="inlineStr">
+        <v>6635</v>
+      </c>
+      <c r="R14" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2364,48 +2271,45 @@
           <t>MMR012</t>
         </is>
       </c>
-      <c r="F15" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="G15" s="11" t="n">
         <v>14770</v>
       </c>
+      <c r="H15" s="12" t="n">
+        <v>37.1</v>
+      </c>
       <c r="I15" s="12" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="J15" s="12" t="n">
-        <v>4494</v>
+        <v>5478</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>45.6</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>53.1</v>
-      </c>
-      <c r="L15" s="13" t="n">
-        <v>7847</v>
+        <v>6733</v>
+      </c>
+      <c r="L15" s="14" t="n">
+        <v>14.2</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="N15" s="14" t="n">
-        <v>2164</v>
+        <v>2101</v>
+      </c>
+      <c r="N15" s="15" t="n">
+        <v>3.1</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P15" s="15" t="n">
-        <v>265</v>
+        <v>458</v>
+      </c>
+      <c r="P15" s="16" t="n">
+        <v>62.9</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>69.59999999999999</v>
-      </c>
-      <c r="R15" s="16" t="n">
-        <v>10275</v>
-      </c>
-      <c r="S15" s="17" t="inlineStr">
+        <v>9292</v>
+      </c>
+      <c r="R15" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2421,48 +2325,45 @@
           <t>MMR014</t>
         </is>
       </c>
-      <c r="F16" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="G16" s="11" t="n">
         <v>34288</v>
       </c>
+      <c r="H16" s="12" t="n">
+        <v>40.2</v>
+      </c>
       <c r="I16" s="12" t="n">
-        <v>53.5</v>
-      </c>
-      <c r="J16" s="12" t="n">
-        <v>18348</v>
+        <v>13775</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>59.8</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>42.8</v>
-      </c>
-      <c r="L16" s="13" t="n">
-        <v>14670</v>
+        <v>20512</v>
+      </c>
+      <c r="L16" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N16" s="14" t="n">
-        <v>1269</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O16" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P16" s="15" t="n">
-        <v>0</v>
+      <c r="P16" s="16" t="n">
+        <v>59.8</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="R16" s="16" t="n">
-        <v>15939</v>
-      </c>
-      <c r="S16" s="17" t="inlineStr">
+        <v>20512</v>
+      </c>
+      <c r="R16" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2478,48 +2379,45 @@
           <t>MMR015</t>
         </is>
       </c>
-      <c r="F17" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="18" t="inlineStr">
+      <c r="F17" s="18" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="G17" s="18" t="n">
         <v>24796</v>
       </c>
+      <c r="H17" s="19" t="n">
+        <v>7.5</v>
+      </c>
       <c r="I17" s="19" t="n">
-        <v>16.1</v>
-      </c>
-      <c r="J17" s="19" t="n">
-        <v>3983</v>
+        <v>1870</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>86.90000000000001</v>
       </c>
       <c r="K17" s="20" t="n">
-        <v>81</v>
-      </c>
-      <c r="L17" s="20" t="n">
-        <v>20096</v>
+        <v>21548</v>
+      </c>
+      <c r="L17" s="21" t="n">
+        <v>5.6</v>
       </c>
       <c r="M17" s="21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="N17" s="21" t="n">
-        <v>718</v>
+        <v>1378</v>
+      </c>
+      <c r="N17" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="O17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="P17" s="22" t="n">
-        <v>0</v>
+      <c r="P17" s="23" t="n">
+        <v>92.5</v>
       </c>
       <c r="Q17" s="23" t="n">
-        <v>83.90000000000001</v>
-      </c>
-      <c r="R17" s="23" t="n">
-        <v>20813</v>
-      </c>
-      <c r="S17" s="17" t="inlineStr">
+        <v>22926</v>
+      </c>
+      <c r="R17" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2527,7 +2425,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
+    <mergeCell ref="E1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2539,7 +2437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S17"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2548,20 +2446,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="24" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
     <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2586,70 +2483,65 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>Population group</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
           <t>TotN</t>
         </is>
       </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>% severity levels 1-2</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
           <t># severity levels 1-2</t>
         </is>
       </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>% severity level 3</t>
+        </is>
+      </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
           <t># severity level 3</t>
         </is>
       </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>% severity level 4</t>
+        </is>
+      </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
-        </is>
-      </c>
-      <c r="N5" s="7" t="inlineStr">
-        <is>
           <t># severity level 4</t>
         </is>
       </c>
+      <c r="N5" s="8" t="inlineStr">
+        <is>
+          <t>% severity level 5</t>
+        </is>
+      </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
-        </is>
-      </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
           <t># severity level 5</t>
         </is>
       </c>
+      <c r="P5" s="9" t="inlineStr">
+        <is>
+          <t>% Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
       <c r="Q5" s="9" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="9" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
@@ -2665,48 +2557,45 @@
           <t>MMR001</t>
         </is>
       </c>
-      <c r="F6" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="inlineStr">
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H6" s="11" t="n">
+      <c r="G6" s="11" t="n">
         <v>6723</v>
       </c>
+      <c r="H6" s="12" t="n">
+        <v>57</v>
+      </c>
       <c r="I6" s="12" t="n">
-        <v>59.9</v>
-      </c>
-      <c r="J6" s="12" t="n">
-        <v>4030</v>
+        <v>3831</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>43</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>36.4</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>2445</v>
+        <v>2893</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="N6" s="14" t="n">
-        <v>249</v>
+        <v>0</v>
+      </c>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O6" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P6" s="15" t="n">
-        <v>0</v>
+      <c r="P6" s="16" t="n">
+        <v>43</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>40.1</v>
-      </c>
-      <c r="R6" s="16" t="n">
-        <v>2694</v>
-      </c>
-      <c r="S6" s="17" t="inlineStr">
+        <v>2893</v>
+      </c>
+      <c r="R6" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2722,48 +2611,45 @@
           <t>MMR002</t>
         </is>
       </c>
-      <c r="F7" s="11" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" s="11" t="inlineStr">
+      <c r="F7" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H7" s="11" t="n">
+      <c r="G7" s="11" t="n">
         <v>3520</v>
       </c>
+      <c r="H7" s="12" t="n">
+        <v>11.3</v>
+      </c>
       <c r="I7" s="12" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="J7" s="12" t="n">
-        <v>578</v>
+        <v>396</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>85.8</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>72.7</v>
-      </c>
-      <c r="L7" s="13" t="n">
-        <v>2559</v>
+        <v>3022</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="N7" s="14" t="n">
-        <v>96</v>
+        <v>0</v>
+      </c>
+      <c r="N7" s="15" t="n">
+        <v>2.9</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="P7" s="15" t="n">
-        <v>287</v>
+        <v>102</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>88.7</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="R7" s="16" t="n">
-        <v>2942</v>
-      </c>
-      <c r="S7" s="17" t="inlineStr">
+        <v>3124</v>
+      </c>
+      <c r="R7" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2779,48 +2665,45 @@
           <t>MMR003</t>
         </is>
       </c>
-      <c r="F8" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="G8" s="11" t="inlineStr">
+      <c r="F8" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H8" s="11" t="n">
+      <c r="G8" s="11" t="n">
         <v>5079</v>
       </c>
+      <c r="H8" s="12" t="n">
+        <v>77.40000000000001</v>
+      </c>
       <c r="I8" s="12" t="n">
-        <v>49.2</v>
-      </c>
-      <c r="J8" s="12" t="n">
-        <v>2498</v>
+        <v>3932</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>22.6</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>50.2</v>
-      </c>
-      <c r="L8" s="13" t="n">
-        <v>2548</v>
+        <v>1146</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M8" s="14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="N8" s="14" t="n">
-        <v>33</v>
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O8" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P8" s="15" t="n">
-        <v>0</v>
+      <c r="P8" s="16" t="n">
+        <v>22.6</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>50.8</v>
-      </c>
-      <c r="R8" s="16" t="n">
-        <v>2581</v>
-      </c>
-      <c r="S8" s="17" t="inlineStr">
+        <v>1146</v>
+      </c>
+      <c r="R8" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2836,48 +2719,45 @@
           <t>MMR004</t>
         </is>
       </c>
-      <c r="F9" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="G9" s="11" t="inlineStr">
+      <c r="F9" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H9" s="11" t="n">
+      <c r="G9" s="11" t="n">
         <v>5668</v>
       </c>
+      <c r="H9" s="12" t="n">
+        <v>45.4</v>
+      </c>
       <c r="I9" s="12" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="J9" s="12" t="n">
-        <v>2306</v>
+        <v>2571</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>46.9</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>54.4</v>
-      </c>
-      <c r="L9" s="13" t="n">
-        <v>3082</v>
+        <v>2660</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <v>7.7</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="N9" s="14" t="n">
-        <v>280</v>
+        <v>437</v>
+      </c>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O9" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P9" s="15" t="n">
-        <v>0</v>
+      <c r="P9" s="16" t="n">
+        <v>54.6</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="R9" s="16" t="n">
-        <v>3362</v>
-      </c>
-      <c r="S9" s="17" t="inlineStr">
+        <v>3098</v>
+      </c>
+      <c r="R9" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2893,48 +2773,45 @@
           <t>MMR005</t>
         </is>
       </c>
-      <c r="F10" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="11" t="inlineStr">
+      <c r="F10" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H10" s="11" t="n">
+      <c r="G10" s="11" t="n">
         <v>14767</v>
       </c>
+      <c r="H10" s="12" t="n">
+        <v>5.9</v>
+      </c>
       <c r="I10" s="12" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J10" s="12" t="n">
-        <v>1117</v>
+        <v>876</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>94.09999999999999</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="L10" s="13" t="n">
-        <v>13650</v>
+        <v>13891</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="14" t="n">
+      <c r="N10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="O10" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P10" s="15" t="n">
-        <v>0</v>
+      <c r="P10" s="16" t="n">
+        <v>94.09999999999999</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="R10" s="16" t="n">
-        <v>13650</v>
-      </c>
-      <c r="S10" s="17" t="inlineStr">
+        <v>13891</v>
+      </c>
+      <c r="R10" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2950,50 +2827,47 @@
           <t>MMR006</t>
         </is>
       </c>
-      <c r="F11" s="11" t="n">
-        <v>17</v>
-      </c>
-      <c r="G11" s="11" t="inlineStr">
+      <c r="F11" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H11" s="11" t="n">
+      <c r="G11" s="11" t="n">
         <v>20302</v>
       </c>
+      <c r="H11" s="12" t="n">
+        <v>41.1</v>
+      </c>
       <c r="I11" s="12" t="n">
-        <v>55</v>
-      </c>
-      <c r="J11" s="12" t="n">
-        <v>11160</v>
+        <v>8346</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>28.1</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>38.9</v>
-      </c>
-      <c r="L11" s="13" t="n">
-        <v>7903</v>
+        <v>5712</v>
+      </c>
+      <c r="L11" s="14" t="n">
+        <v>30.8</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="N11" s="14" t="n">
-        <v>1239</v>
+        <v>6244</v>
+      </c>
+      <c r="N11" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O11" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P11" s="15" t="n">
-        <v>0</v>
+      <c r="P11" s="16" t="n">
+        <v>58.9</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>45</v>
-      </c>
-      <c r="R11" s="16" t="n">
-        <v>9142</v>
-      </c>
-      <c r="S11" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
+        <v>11956</v>
+      </c>
+      <c r="R11" s="17" t="inlineStr">
+        <is>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3007,48 +2881,45 @@
           <t>MMR007</t>
         </is>
       </c>
-      <c r="F12" s="11" t="n">
-        <v>12</v>
-      </c>
-      <c r="G12" s="11" t="inlineStr">
+      <c r="F12" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H12" s="11" t="n">
+      <c r="G12" s="11" t="n">
         <v>8152</v>
       </c>
+      <c r="H12" s="12" t="n">
+        <v>61.7</v>
+      </c>
       <c r="I12" s="12" t="n">
-        <v>47.3</v>
-      </c>
-      <c r="J12" s="12" t="n">
-        <v>3858</v>
+        <v>5034</v>
+      </c>
+      <c r="J12" s="13" t="n">
+        <v>38.3</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="L12" s="13" t="n">
-        <v>3942</v>
+        <v>3118</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="N12" s="14" t="n">
-        <v>353</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O12" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P12" s="15" t="n">
-        <v>0</v>
+      <c r="P12" s="16" t="n">
+        <v>38.3</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>52.7</v>
-      </c>
-      <c r="R12" s="16" t="n">
-        <v>4295</v>
-      </c>
-      <c r="S12" s="17" t="inlineStr">
+        <v>3118</v>
+      </c>
+      <c r="R12" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3064,48 +2935,45 @@
           <t>MMR009</t>
         </is>
       </c>
-      <c r="F13" s="11" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
+      <c r="F13" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H13" s="11" t="n">
+      <c r="G13" s="11" t="n">
         <v>5569</v>
       </c>
+      <c r="H13" s="12" t="n">
+        <v>11</v>
+      </c>
       <c r="I13" s="12" t="n">
-        <v>28</v>
-      </c>
-      <c r="J13" s="12" t="n">
-        <v>1561</v>
+        <v>614</v>
+      </c>
+      <c r="J13" s="13" t="n">
+        <v>76.40000000000001</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>53.7</v>
-      </c>
-      <c r="L13" s="13" t="n">
-        <v>2990</v>
+        <v>4252</v>
+      </c>
+      <c r="L13" s="14" t="n">
+        <v>12.6</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>13.6</v>
-      </c>
-      <c r="N13" s="14" t="n">
-        <v>757</v>
+        <v>703</v>
+      </c>
+      <c r="N13" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O13" s="15" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P13" s="15" t="n">
-        <v>262</v>
+        <v>0</v>
+      </c>
+      <c r="P13" s="16" t="n">
+        <v>89</v>
       </c>
       <c r="Q13" s="16" t="n">
-        <v>72</v>
-      </c>
-      <c r="R13" s="16" t="n">
-        <v>4009</v>
-      </c>
-      <c r="S13" s="17" t="inlineStr">
+        <v>4956</v>
+      </c>
+      <c r="R13" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3121,48 +2989,45 @@
           <t>MMR011</t>
         </is>
       </c>
-      <c r="F14" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="G14" s="11" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H14" s="11" t="n">
+      <c r="G14" s="11" t="n">
         <v>6697</v>
       </c>
+      <c r="H14" s="12" t="n">
+        <v>47.7</v>
+      </c>
       <c r="I14" s="12" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="J14" s="12" t="n">
-        <v>3575</v>
+        <v>3193</v>
+      </c>
+      <c r="J14" s="13" t="n">
+        <v>37.7</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>31</v>
-      </c>
-      <c r="L14" s="13" t="n">
-        <v>2073</v>
+        <v>2526</v>
+      </c>
+      <c r="L14" s="14" t="n">
+        <v>14.6</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="N14" s="14" t="n">
-        <v>934</v>
+        <v>978</v>
+      </c>
+      <c r="N14" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="P14" s="15" t="n">
-        <v>116</v>
+        <v>0</v>
+      </c>
+      <c r="P14" s="16" t="n">
+        <v>52.3</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="R14" s="16" t="n">
-        <v>3122</v>
-      </c>
-      <c r="S14" s="17" t="inlineStr">
+        <v>3504</v>
+      </c>
+      <c r="R14" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3178,48 +3043,45 @@
           <t>MMR012</t>
         </is>
       </c>
-      <c r="F15" s="11" t="n">
-        <v>7</v>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
+      <c r="F15" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H15" s="11" t="n">
+      <c r="G15" s="11" t="n">
         <v>7385</v>
       </c>
+      <c r="H15" s="12" t="n">
+        <v>50.6</v>
+      </c>
       <c r="I15" s="12" t="n">
-        <v>32.9</v>
-      </c>
-      <c r="J15" s="12" t="n">
-        <v>2428</v>
+        <v>3740</v>
+      </c>
+      <c r="J15" s="13" t="n">
+        <v>45.4</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>58.4</v>
-      </c>
-      <c r="L15" s="13" t="n">
-        <v>4312</v>
+        <v>3355</v>
+      </c>
+      <c r="L15" s="14" t="n">
+        <v>3.9</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="N15" s="14" t="n">
-        <v>599</v>
+        <v>290</v>
+      </c>
+      <c r="N15" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="P15" s="15" t="n">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="P15" s="16" t="n">
+        <v>49.4</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>67.09999999999999</v>
-      </c>
-      <c r="R15" s="16" t="n">
-        <v>4957</v>
-      </c>
-      <c r="S15" s="17" t="inlineStr">
+        <v>3645</v>
+      </c>
+      <c r="R15" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3235,50 +3097,47 @@
           <t>MMR014</t>
         </is>
       </c>
-      <c r="F16" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
+      <c r="F16" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H16" s="11" t="n">
+      <c r="G16" s="11" t="n">
         <v>17144</v>
       </c>
+      <c r="H16" s="12" t="n">
+        <v>61</v>
+      </c>
       <c r="I16" s="12" t="n">
-        <v>59.3</v>
-      </c>
-      <c r="J16" s="12" t="n">
-        <v>10164</v>
+        <v>10461</v>
+      </c>
+      <c r="J16" s="13" t="n">
+        <v>39</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="L16" s="13" t="n">
-        <v>3540</v>
+        <v>6683</v>
+      </c>
+      <c r="L16" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="N16" s="14" t="n">
-        <v>3440</v>
+        <v>0</v>
+      </c>
+      <c r="N16" s="15" t="n">
+        <v>0</v>
       </c>
       <c r="O16" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="P16" s="15" t="n">
-        <v>0</v>
+      <c r="P16" s="16" t="n">
+        <v>39</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>40.7</v>
-      </c>
-      <c r="R16" s="16" t="n">
-        <v>6980</v>
-      </c>
-      <c r="S16" s="17" t="inlineStr">
-        <is>
-          <t>4</t>
+        <v>6683</v>
+      </c>
+      <c r="R16" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -3292,48 +3151,45 @@
           <t>MMR015</t>
         </is>
       </c>
-      <c r="F17" s="18" t="n">
-        <v>5</v>
-      </c>
-      <c r="G17" s="18" t="inlineStr">
+      <c r="F17" s="18" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="H17" s="18" t="n">
+      <c r="G17" s="18" t="n">
         <v>12398</v>
       </c>
+      <c r="H17" s="19" t="n">
+        <v>44.3</v>
+      </c>
       <c r="I17" s="19" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="J17" s="19" t="n">
-        <v>4546</v>
+        <v>5489</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>43.4</v>
       </c>
       <c r="K17" s="20" t="n">
-        <v>51.7</v>
-      </c>
-      <c r="L17" s="20" t="n">
-        <v>6407</v>
+        <v>5386</v>
+      </c>
+      <c r="L17" s="21" t="n">
+        <v>12.3</v>
       </c>
       <c r="M17" s="21" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="N17" s="21" t="n">
-        <v>782</v>
+        <v>1523</v>
+      </c>
+      <c r="N17" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="O17" s="22" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="P17" s="22" t="n">
-        <v>663</v>
+        <v>0</v>
+      </c>
+      <c r="P17" s="23" t="n">
+        <v>55.7</v>
       </c>
       <c r="Q17" s="23" t="n">
-        <v>63.3</v>
-      </c>
-      <c r="R17" s="23" t="n">
-        <v>7852</v>
-      </c>
-      <c r="S17" s="17" t="inlineStr">
+        <v>6909</v>
+      </c>
+      <c r="R17" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3341,7 +3197,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
+    <mergeCell ref="E1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3353,7 +3209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3362,20 +3218,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="13" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="18" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="23" customWidth="1" min="8" max="8"/>
     <col width="23" customWidth="1" min="9" max="9"/>
-    <col width="23" customWidth="1" min="10" max="10"/>
+    <col width="20" customWidth="1" min="10" max="10"/>
     <col width="20" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="33" customWidth="1" min="16" max="16"/>
     <col width="33" customWidth="1" min="17" max="17"/>
-    <col width="33" customWidth="1" min="18" max="18"/>
-    <col width="15" customWidth="1" min="19" max="19"/>
+    <col width="15" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3400,70 +3255,65 @@
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Admin Pcode</t>
+          <t>Population group</t>
         </is>
       </c>
       <c r="G5" s="4" t="inlineStr">
         <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="H5" s="4" t="inlineStr">
-        <is>
           <t>TotN</t>
         </is>
       </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>% severity levels 1-2</t>
+        </is>
+      </c>
       <c r="I5" s="5" t="inlineStr">
         <is>
-          <t>% severity levels 1-2</t>
-        </is>
-      </c>
-      <c r="J5" s="5" t="inlineStr">
-        <is>
           <t># severity levels 1-2</t>
         </is>
       </c>
+      <c r="J5" s="6" t="inlineStr">
+        <is>
+          <t>% severity level 3</t>
+        </is>
+      </c>
       <c r="K5" s="6" t="inlineStr">
         <is>
-          <t>% severity level 3</t>
-        </is>
-      </c>
-      <c r="L5" s="6" t="inlineStr">
-        <is>
           <t># severity level 3</t>
         </is>
       </c>
+      <c r="L5" s="7" t="inlineStr">
+        <is>
+          <t>% severity level 4</t>
+        </is>
+      </c>
       <c r="M5" s="7" t="inlineStr">
         <is>
-          <t>% severity level 4</t>
-        </is>
-      </c>
-      <c r="N5" s="7" t="inlineStr">
-        <is>
           <t># severity level 4</t>
         </is>
       </c>
+      <c r="N5" s="8" t="inlineStr">
+        <is>
+          <t>% severity level 5</t>
+        </is>
+      </c>
       <c r="O5" s="8" t="inlineStr">
         <is>
-          <t>% severity level 5</t>
-        </is>
-      </c>
-      <c r="P5" s="8" t="inlineStr">
-        <is>
           <t># severity level 5</t>
         </is>
       </c>
+      <c r="P5" s="9" t="inlineStr">
+        <is>
+          <t>% Tot PiN (severity levels 3-5)</t>
+        </is>
+      </c>
       <c r="Q5" s="9" t="inlineStr">
         <is>
-          <t>% Tot PiN (severity levels 3-5)</t>
+          <t># Tot PiN (severity levels 3-5)</t>
         </is>
       </c>
       <c r="R5" s="9" t="inlineStr">
-        <is>
-          <t># Tot PiN (severity levels 3-5)</t>
-        </is>
-      </c>
-      <c r="S5" s="9" t="inlineStr">
         <is>
           <t>Area severity</t>
         </is>
@@ -3479,48 +3329,45 @@
           <t>MMR012</t>
         </is>
       </c>
-      <c r="F6" s="18" t="n">
-        <v>7</v>
-      </c>
-      <c r="G6" s="18" t="inlineStr">
+      <c r="F6" s="18" t="inlineStr">
         <is>
           <t>ndsp</t>
         </is>
       </c>
-      <c r="H6" s="18" t="n">
+      <c r="G6" s="18" t="n">
         <v>22154</v>
       </c>
+      <c r="H6" s="19" t="n">
+        <v>35.7</v>
+      </c>
       <c r="I6" s="19" t="n">
-        <v>32</v>
-      </c>
-      <c r="J6" s="19" t="n">
-        <v>7094</v>
+        <v>7909</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>53</v>
       </c>
       <c r="K6" s="20" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="L6" s="20" t="n">
-        <v>13492</v>
+        <v>11747</v>
+      </c>
+      <c r="L6" s="21" t="n">
+        <v>11.3</v>
       </c>
       <c r="M6" s="21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="N6" s="21" t="n">
-        <v>1507</v>
+        <v>2498</v>
+      </c>
+      <c r="N6" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="O6" s="22" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="P6" s="22" t="n">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="P6" s="23" t="n">
+        <v>64.3</v>
       </c>
       <c r="Q6" s="23" t="n">
-        <v>68</v>
-      </c>
-      <c r="R6" s="23" t="n">
-        <v>15060</v>
-      </c>
-      <c r="S6" s="17" t="inlineStr">
+        <v>14245</v>
+      </c>
+      <c r="R6" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3528,7 +3375,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
+    <mergeCell ref="E1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output_validation/final__JIAF__platform_output.xlsx
+++ b/output_validation/final__JIAF__platform_output.xlsx
@@ -610,7 +610,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -686,7 +686,7 @@
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>MMR008003</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="G6" s="11" t="n">
-        <v>94127</v>
+        <v>206737</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>91.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>86039</v>
+        <v>206737</v>
       </c>
       <c r="J6" s="13" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="L6" s="14" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="16" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>8088</v>
+        <v>0</v>
       </c>
       <c r="R6" s="17" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
       <c r="D7" s="10" t="n"/>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>MMR009018</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
@@ -749,25 +749,25 @@
         </is>
       </c>
       <c r="G7" s="11" t="n">
-        <v>49284</v>
+        <v>240015</v>
       </c>
       <c r="H7" s="12" t="n">
-        <v>29.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>14556</v>
+        <v>0</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>67.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>33223</v>
+        <v>240015</v>
       </c>
       <c r="L7" s="14" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>1505</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15" t="n">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>70.5</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>34728</v>
+        <v>240015</v>
       </c>
       <c r="R7" s="17" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
       <c r="D8" s="10" t="n"/>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>MMR009019</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -803,19 +803,19 @@
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>71100</v>
+        <v>49284</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>47660</v>
+        <v>0</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>23440</v>
+        <v>49284</v>
       </c>
       <c r="L8" s="14" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="16" t="n">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>23440</v>
+        <v>49284</v>
       </c>
       <c r="R8" s="17" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
       <c r="D9" s="10" t="n"/>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>MMR009020</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
@@ -857,37 +857,37 @@
         </is>
       </c>
       <c r="G9" s="11" t="n">
-        <v>79357</v>
+        <v>469612</v>
       </c>
       <c r="H9" s="12" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>9981</v>
+        <v>0</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>75.5</v>
+        <v>100</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>59918</v>
+        <v>469612</v>
       </c>
       <c r="L9" s="14" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>2726</v>
+        <v>0</v>
       </c>
       <c r="N9" s="15" t="n">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>6732</v>
+        <v>0</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>87.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>69376</v>
+        <v>469612</v>
       </c>
       <c r="R9" s="17" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       <c r="D10" s="10" t="n"/>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>MMR012003</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
@@ -911,25 +911,25 @@
         </is>
       </c>
       <c r="G10" s="11" t="n">
-        <v>206737</v>
+        <v>94127</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>25327</v>
+        <v>0</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>87.7</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>181410</v>
+        <v>65556</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0</v>
+        <v>28571</v>
       </c>
       <c r="N10" s="15" t="n">
         <v>0</v>
@@ -938,14 +938,14 @@
         <v>0</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>87.7</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>181410</v>
+        <v>94127</v>
       </c>
       <c r="R10" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       <c r="D11" s="10" t="n"/>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>MMR012004</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
@@ -965,25 +965,25 @@
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>284225</v>
+        <v>85275</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>72.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>206236</v>
+        <v>0</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>21.5</v>
+        <v>100</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>60998</v>
+        <v>85275</v>
       </c>
       <c r="L11" s="14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>16992</v>
+        <v>0</v>
       </c>
       <c r="N11" s="15" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="16" t="n">
-        <v>27.4</v>
+        <v>100</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>77989</v>
+        <v>85275</v>
       </c>
       <c r="R11" s="17" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
       <c r="D12" s="10" t="n"/>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>MMR012006</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
@@ -1019,37 +1019,37 @@
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>114132</v>
+        <v>173573</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>79.2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>90441</v>
+        <v>0</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>15.9</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>18169</v>
+        <v>149515</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>5522</v>
+        <v>0</v>
       </c>
       <c r="N12" s="15" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>0</v>
+        <v>24058</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>20.8</v>
+        <v>100</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>23692</v>
+        <v>173573</v>
       </c>
       <c r="R12" s="17" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       <c r="D13" s="10" t="n"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>MMR008</t>
+          <t>MMR012010</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="G13" s="11" t="n">
-        <v>82380</v>
+        <v>103387</v>
       </c>
       <c r="H13" s="12" t="n">
         <v>100</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>82380</v>
+        <v>103387</v>
       </c>
       <c r="J13" s="13" t="n">
         <v>0</v>
@@ -1118,7 +1118,7 @@
       <c r="D14" s="10" t="n"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>MMR012011</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
@@ -1127,19 +1127,19 @@
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>77970</v>
+        <v>93763</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>67.8</v>
+        <v>41.9</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>52840</v>
+        <v>39294</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>32.2</v>
+        <v>58.1</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>25129</v>
+        <v>54469</v>
       </c>
       <c r="L14" s="14" t="n">
         <v>0</v>
@@ -1154,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>32.2</v>
+        <v>58.1</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>25129</v>
+        <v>54469</v>
       </c>
       <c r="R14" s="17" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
       <c r="D15" s="10" t="n"/>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>MMR010</t>
+          <t>MMR012014</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -1184,16 +1184,16 @@
         <v>469612</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>86.2</v>
+        <v>0</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>404809</v>
+        <v>0</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>64803</v>
+        <v>469612</v>
       </c>
       <c r="L15" s="14" t="n">
         <v>0</v>
@@ -1208,14 +1208,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="n">
-        <v>13.8</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>64803</v>
+        <v>469612</v>
       </c>
       <c r="R15" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1226,7 @@
       <c r="D16" s="10" t="n"/>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>MMR012015</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -1235,25 +1235,25 @@
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>93763</v>
+        <v>114132</v>
       </c>
       <c r="H16" s="12" t="n">
-        <v>77.2</v>
+        <v>38.6</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>72341</v>
+        <v>44104</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>14.6</v>
+        <v>61.4</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>13670</v>
+        <v>70028</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>7752</v>
+        <v>0</v>
       </c>
       <c r="N16" s="15" t="n">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>22.8</v>
+        <v>61.4</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>21422</v>
+        <v>70028</v>
       </c>
       <c r="R16" s="17" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       <c r="D17" s="10" t="n"/>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>MMR012016</t>
         </is>
       </c>
       <c r="F17" s="11" t="inlineStr">
@@ -1289,41 +1289,41 @@
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>103387</v>
+        <v>94050</v>
       </c>
       <c r="H17" s="12" t="n">
-        <v>29.8</v>
+        <v>100</v>
       </c>
       <c r="I17" s="12" t="n">
-        <v>30769</v>
+        <v>94050</v>
       </c>
       <c r="J17" s="13" t="n">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="K17" s="13" t="n">
-        <v>64124</v>
+        <v>0</v>
       </c>
       <c r="L17" s="14" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M17" s="14" t="n">
-        <v>3865</v>
+        <v>0</v>
       </c>
       <c r="N17" s="15" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>4628</v>
+        <v>0</v>
       </c>
       <c r="P17" s="16" t="n">
-        <v>70.2</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="16" t="n">
-        <v>72618</v>
+        <v>0</v>
       </c>
       <c r="R17" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       <c r="D18" s="10" t="n"/>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>MMR013</t>
+          <t>MMR001001</t>
         </is>
       </c>
       <c r="F18" s="11" t="inlineStr">
@@ -1343,25 +1343,25 @@
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>94050</v>
+        <v>206737</v>
       </c>
       <c r="H18" s="12" t="n">
-        <v>55.5</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I18" s="12" t="n">
-        <v>52237</v>
+        <v>188972</v>
       </c>
       <c r="J18" s="13" t="n">
-        <v>40.4</v>
+        <v>0</v>
       </c>
       <c r="K18" s="13" t="n">
-        <v>38011</v>
+        <v>0</v>
       </c>
       <c r="L18" s="14" t="n">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="M18" s="14" t="n">
-        <v>3802</v>
+        <v>17765</v>
       </c>
       <c r="N18" s="15" t="n">
         <v>0</v>
@@ -1370,14 +1370,14 @@
         <v>0</v>
       </c>
       <c r="P18" s="16" t="n">
-        <v>44.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q18" s="16" t="n">
-        <v>41813</v>
+        <v>17765</v>
       </c>
       <c r="R18" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       <c r="D19" s="10" t="n"/>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>MMR001002</t>
         </is>
       </c>
       <c r="F19" s="11" t="inlineStr">
@@ -1397,25 +1397,25 @@
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>240015</v>
+        <v>94127</v>
       </c>
       <c r="H19" s="12" t="n">
-        <v>88</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I19" s="12" t="n">
-        <v>211311</v>
+        <v>86039</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K19" s="13" t="n">
-        <v>28704</v>
+        <v>0</v>
       </c>
       <c r="L19" s="14" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="M19" s="14" t="n">
-        <v>0</v>
+        <v>8088</v>
       </c>
       <c r="N19" s="15" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="16" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="Q19" s="16" t="n">
-        <v>28704</v>
+        <v>8088</v>
       </c>
       <c r="R19" s="17" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
       <c r="D20" s="10" t="n"/>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>MMR015</t>
+          <t>MMR001004</t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr">
@@ -1451,25 +1451,25 @@
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>173573</v>
+        <v>85275</v>
       </c>
       <c r="H20" s="12" t="n">
-        <v>69.7</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="I20" s="12" t="n">
-        <v>120951</v>
+        <v>77948</v>
       </c>
       <c r="J20" s="13" t="n">
-        <v>30.3</v>
+        <v>0</v>
       </c>
       <c r="K20" s="13" t="n">
-        <v>52623</v>
+        <v>0</v>
       </c>
       <c r="L20" s="14" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="M20" s="14" t="n">
-        <v>0</v>
+        <v>7328</v>
       </c>
       <c r="N20" s="15" t="n">
         <v>0</v>
@@ -1478,14 +1478,14 @@
         <v>0</v>
       </c>
       <c r="P20" s="16" t="n">
-        <v>30.3</v>
+        <v>8.6</v>
       </c>
       <c r="Q20" s="16" t="n">
-        <v>52623</v>
+        <v>7328</v>
       </c>
       <c r="R20" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="D21" s="10" t="n"/>
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>MMR016</t>
+          <t>MMR002005</t>
         </is>
       </c>
       <c r="F21" s="11" t="inlineStr">
@@ -1505,25 +1505,25 @@
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>70760</v>
+        <v>82380</v>
       </c>
       <c r="H21" s="12" t="n">
-        <v>93.09999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="I21" s="12" t="n">
-        <v>65883</v>
+        <v>24331</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>6.9</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K21" s="13" t="n">
-        <v>4877</v>
+        <v>55534</v>
       </c>
       <c r="L21" s="14" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M21" s="14" t="n">
-        <v>0</v>
+        <v>2515</v>
       </c>
       <c r="N21" s="15" t="n">
         <v>0</v>
@@ -1532,14 +1532,14 @@
         <v>0</v>
       </c>
       <c r="P21" s="16" t="n">
-        <v>6.9</v>
+        <v>70.5</v>
       </c>
       <c r="Q21" s="16" t="n">
-        <v>4877</v>
+        <v>58049</v>
       </c>
       <c r="R21" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       <c r="D22" s="10" t="n"/>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>MMR017</t>
+          <t>MMR002006</t>
         </is>
       </c>
       <c r="F22" s="11" t="inlineStr">
@@ -1559,25 +1559,25 @@
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>81840</v>
+        <v>284225</v>
       </c>
       <c r="H22" s="12" t="n">
-        <v>100</v>
+        <v>29.5</v>
       </c>
       <c r="I22" s="12" t="n">
-        <v>81840</v>
+        <v>83946</v>
       </c>
       <c r="J22" s="13" t="n">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K22" s="13" t="n">
-        <v>0</v>
+        <v>191602</v>
       </c>
       <c r="L22" s="14" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M22" s="14" t="n">
-        <v>0</v>
+        <v>8677</v>
       </c>
       <c r="N22" s="15" t="n">
         <v>0</v>
@@ -1586,14 +1586,14 @@
         <v>0</v>
       </c>
       <c r="P22" s="16" t="n">
-        <v>0</v>
+        <v>70.5</v>
       </c>
       <c r="Q22" s="16" t="n">
-        <v>0</v>
+        <v>200279</v>
       </c>
       <c r="R22" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="D23" s="10" t="n"/>
       <c r="E23" s="18" t="inlineStr">
         <is>
-          <t>MMR018</t>
+          <t>MMR002007</t>
         </is>
       </c>
       <c r="F23" s="18" t="inlineStr">
@@ -1613,25 +1613,25 @@
         </is>
       </c>
       <c r="G23" s="18" t="n">
-        <v>85275</v>
+        <v>70760</v>
       </c>
       <c r="H23" s="19" t="n">
-        <v>72.59999999999999</v>
+        <v>29.5</v>
       </c>
       <c r="I23" s="19" t="n">
-        <v>61931</v>
+        <v>20899</v>
       </c>
       <c r="J23" s="20" t="n">
-        <v>27.4</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K23" s="20" t="n">
-        <v>23345</v>
+        <v>47701</v>
       </c>
       <c r="L23" s="21" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="M23" s="21" t="n">
-        <v>0</v>
+        <v>2160</v>
       </c>
       <c r="N23" s="22" t="n">
         <v>0</v>
@@ -1640,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="P23" s="23" t="n">
-        <v>27.4</v>
+        <v>70.5</v>
       </c>
       <c r="Q23" s="23" t="n">
-        <v>23345</v>
+        <v>49861</v>
       </c>
       <c r="R23" s="17" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,7 +1706,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -1782,7 +1782,7 @@
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>MMR009018</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
@@ -1791,25 +1791,25 @@
         </is>
       </c>
       <c r="G6" s="11" t="n">
-        <v>13447</v>
+        <v>34288</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>69.90000000000001</v>
+        <v>72</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>9394</v>
+        <v>24698</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>13.1</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>1761</v>
+        <v>9590</v>
       </c>
       <c r="L6" s="14" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>2292</v>
+        <v>0</v>
       </c>
       <c r="N6" s="15" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="16" t="n">
-        <v>30.1</v>
+        <v>28</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>4052</v>
+        <v>9590</v>
       </c>
       <c r="R6" s="17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
       <c r="D7" s="10" t="n"/>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>MMR009020</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
@@ -1845,25 +1845,25 @@
         </is>
       </c>
       <c r="G7" s="11" t="n">
-        <v>7041</v>
+        <v>67088</v>
       </c>
       <c r="H7" s="12" t="n">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>3289</v>
+        <v>0</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>43.6</v>
+        <v>100</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>3072</v>
+        <v>67088</v>
       </c>
       <c r="L7" s="14" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>680</v>
+        <v>0</v>
       </c>
       <c r="N7" s="15" t="n">
         <v>0</v>
@@ -1872,10 +1872,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>53.3</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>3752</v>
+        <v>67088</v>
       </c>
       <c r="R7" s="17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
       <c r="D8" s="10" t="n"/>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>MMR012001</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -1899,25 +1899,25 @@
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>10157</v>
+        <v>29534</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>55.1</v>
+        <v>26.9</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>5592</v>
+        <v>7934</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>44.9</v>
+        <v>57.2</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>4566</v>
+        <v>16882</v>
       </c>
       <c r="L8" s="14" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="M8" s="14" t="n">
-        <v>0</v>
+        <v>4718</v>
       </c>
       <c r="N8" s="15" t="n">
         <v>0</v>
@@ -1926,10 +1926,10 @@
         <v>0</v>
       </c>
       <c r="P8" s="16" t="n">
-        <v>44.9</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>4566</v>
+        <v>21600</v>
       </c>
       <c r="R8" s="17" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
       <c r="D9" s="10" t="n"/>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>MMR012003</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
@@ -1953,25 +1953,25 @@
         </is>
       </c>
       <c r="G9" s="11" t="n">
-        <v>11337</v>
+        <v>13447</v>
       </c>
       <c r="H9" s="12" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>2678</v>
+        <v>0</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>72.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>8205</v>
+        <v>13447</v>
       </c>
       <c r="L9" s="14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="N9" s="15" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>76.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>8659</v>
+        <v>13447</v>
       </c>
       <c r="R9" s="17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       <c r="D10" s="10" t="n"/>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>MMR012005</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
@@ -2007,25 +2007,25 @@
         </is>
       </c>
       <c r="G10" s="11" t="n">
-        <v>29534</v>
+        <v>11337</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>85.8</v>
+        <v>100</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>25351</v>
+        <v>11337</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>2398</v>
+        <v>0</v>
       </c>
       <c r="N10" s="15" t="n">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>27749</v>
+        <v>11337</v>
       </c>
       <c r="R10" s="17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
       <c r="D11" s="10" t="n"/>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>MMR012007</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
@@ -2061,41 +2061,41 @@
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>40604</v>
+        <v>10157</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>16.6</v>
+        <v>54.8</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>6739</v>
+        <v>5567</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>64.7</v>
+        <v>19</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>26251</v>
+        <v>1928</v>
       </c>
       <c r="L11" s="14" t="n">
-        <v>18.7</v>
+        <v>18.1</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>7613</v>
+        <v>1841</v>
       </c>
       <c r="N11" s="15" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="P11" s="16" t="n">
-        <v>83.40000000000001</v>
+        <v>45.2</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>33864</v>
+        <v>4591</v>
       </c>
       <c r="R11" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       <c r="D12" s="10" t="n"/>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>MMR012010</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
@@ -2115,25 +2115,25 @@
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>16305</v>
+        <v>14770</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>83.8</v>
+        <v>100</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>13667</v>
+        <v>14770</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>2006</v>
+        <v>0</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>632</v>
+        <v>0</v>
       </c>
       <c r="N12" s="15" t="n">
         <v>0</v>
@@ -2142,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>2638</v>
+        <v>0</v>
       </c>
       <c r="R12" s="17" t="inlineStr">
         <is>
@@ -2160,7 +2160,7 @@
       <c r="D13" s="10" t="n"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>MMR001001</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
@@ -2169,25 +2169,25 @@
         </is>
       </c>
       <c r="G13" s="11" t="n">
-        <v>11138</v>
+        <v>29534</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>33.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>3730</v>
+        <v>20633</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>50.8</v>
+        <v>13.1</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>5656</v>
+        <v>3867</v>
       </c>
       <c r="L13" s="14" t="n">
-        <v>15.7</v>
+        <v>17</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>1752</v>
+        <v>5034</v>
       </c>
       <c r="N13" s="15" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="16" t="n">
-        <v>66.5</v>
+        <v>30.1</v>
       </c>
       <c r="Q13" s="16" t="n">
-        <v>7409</v>
+        <v>8900</v>
       </c>
       <c r="R13" s="17" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
       <c r="D14" s="10" t="n"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>MMR001002</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
@@ -2223,25 +2223,25 @@
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>13395</v>
+        <v>13447</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>50.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>6760</v>
+        <v>9394</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>35.8</v>
+        <v>13.1</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>4800</v>
+        <v>1761</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>13.7</v>
+        <v>17</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>1835</v>
+        <v>2292</v>
       </c>
       <c r="N14" s="15" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>49.5</v>
+        <v>30.1</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>6635</v>
+        <v>4052</v>
       </c>
       <c r="R14" s="17" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
       <c r="D15" s="10" t="n"/>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>MMR001004</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -2277,37 +2277,37 @@
         </is>
       </c>
       <c r="G15" s="11" t="n">
-        <v>14770</v>
+        <v>12182</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>37.1</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>5478</v>
+        <v>8511</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>45.6</v>
+        <v>13.1</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>6733</v>
+        <v>1595</v>
       </c>
       <c r="L15" s="14" t="n">
-        <v>14.2</v>
+        <v>17</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>2101</v>
+        <v>2076</v>
       </c>
       <c r="N15" s="15" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>458</v>
+        <v>0</v>
       </c>
       <c r="P15" s="16" t="n">
-        <v>62.9</v>
+        <v>30.1</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>9292</v>
+        <v>3671</v>
       </c>
       <c r="R15" s="17" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
       <c r="D16" s="10" t="n"/>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>MMR002005</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -2331,25 +2331,25 @@
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>34288</v>
+        <v>11769</v>
       </c>
       <c r="H16" s="12" t="n">
-        <v>40.2</v>
+        <v>46.7</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>13775</v>
+        <v>5498</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>59.8</v>
+        <v>43.6</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>20512</v>
+        <v>5135</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>0</v>
+        <v>1136</v>
       </c>
       <c r="N16" s="15" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>59.8</v>
+        <v>53.3</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>20512</v>
+        <v>6271</v>
       </c>
       <c r="R16" s="17" t="inlineStr">
         <is>
@@ -2374,50 +2374,104 @@
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="10" t="n"/>
       <c r="D17" s="10" t="n"/>
-      <c r="E17" s="18" t="inlineStr">
-        <is>
-          <t>MMR015</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>MMR002006</t>
+        </is>
+      </c>
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="G17" s="18" t="n">
-        <v>24796</v>
-      </c>
-      <c r="H17" s="19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I17" s="19" t="n">
-        <v>1870</v>
-      </c>
-      <c r="J17" s="20" t="n">
-        <v>86.90000000000001</v>
-      </c>
-      <c r="K17" s="20" t="n">
-        <v>21548</v>
-      </c>
-      <c r="L17" s="21" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M17" s="21" t="n">
-        <v>1378</v>
-      </c>
-      <c r="N17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="23" t="n">
-        <v>92.5</v>
-      </c>
-      <c r="Q17" s="23" t="n">
-        <v>22926</v>
+      <c r="G17" s="11" t="n">
+        <v>40604</v>
+      </c>
+      <c r="H17" s="12" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>18968</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K17" s="13" t="n">
+        <v>17715</v>
+      </c>
+      <c r="L17" s="14" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M17" s="14" t="n">
+        <v>3920</v>
+      </c>
+      <c r="N17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="Q17" s="16" t="n">
+        <v>21636</v>
       </c>
       <c r="R17" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="18" t="inlineStr">
+        <is>
+          <t>MMR002007</t>
+        </is>
+      </c>
+      <c r="F18" s="18" t="inlineStr">
+        <is>
+          <t>idp</t>
+        </is>
+      </c>
+      <c r="G18" s="18" t="n">
+        <v>10109</v>
+      </c>
+      <c r="H18" s="19" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="I18" s="19" t="n">
+        <v>4722</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="K18" s="20" t="n">
+        <v>4410</v>
+      </c>
+      <c r="L18" s="21" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="M18" s="21" t="n">
+        <v>976</v>
+      </c>
+      <c r="N18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="23" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="Q18" s="23" t="n">
+        <v>5386</v>
+      </c>
+      <c r="R18" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2437,7 +2491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2478,7 +2532,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2554,7 +2608,7 @@
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>MMR001</t>
+          <t>MMR009019</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
@@ -2563,19 +2617,19 @@
         </is>
       </c>
       <c r="G6" s="11" t="n">
-        <v>6723</v>
+        <v>3520</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>3831</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>2893</v>
+        <v>3520</v>
       </c>
       <c r="L6" s="14" t="n">
         <v>0</v>
@@ -2590,10 +2644,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="16" t="n">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>2893</v>
+        <v>3520</v>
       </c>
       <c r="R6" s="17" t="inlineStr">
         <is>
@@ -2608,7 +2662,7 @@
       <c r="D7" s="10" t="n"/>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>MMR002</t>
+          <t>MMR009020</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
@@ -2617,19 +2671,19 @@
         </is>
       </c>
       <c r="G7" s="11" t="n">
-        <v>3520</v>
+        <v>33544</v>
       </c>
       <c r="H7" s="12" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>396</v>
+        <v>0</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>85.8</v>
+        <v>100</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>3022</v>
+        <v>33544</v>
       </c>
       <c r="L7" s="14" t="n">
         <v>0</v>
@@ -2638,16 +2692,16 @@
         <v>0</v>
       </c>
       <c r="N7" s="15" t="n">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>102</v>
+        <v>0</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>88.7</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>3124</v>
+        <v>33544</v>
       </c>
       <c r="R7" s="17" t="inlineStr">
         <is>
@@ -2662,7 +2716,7 @@
       <c r="D8" s="10" t="n"/>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>MMR003</t>
+          <t>MMR012001</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -2671,25 +2725,25 @@
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>5079</v>
+        <v>14767</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>77.40000000000001</v>
+        <v>49.6</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>3932</v>
+        <v>7322</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>22.6</v>
+        <v>20.2</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>1146</v>
+        <v>2978</v>
       </c>
       <c r="L8" s="14" t="n">
-        <v>0</v>
+        <v>30.3</v>
       </c>
       <c r="M8" s="14" t="n">
-        <v>0</v>
+        <v>4467</v>
       </c>
       <c r="N8" s="15" t="n">
         <v>0</v>
@@ -2698,14 +2752,14 @@
         <v>0</v>
       </c>
       <c r="P8" s="16" t="n">
-        <v>22.6</v>
+        <v>50.4</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>1146</v>
+        <v>7445</v>
       </c>
       <c r="R8" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -2716,7 +2770,7 @@
       <c r="D9" s="10" t="n"/>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>MMR004</t>
+          <t>MMR012003</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
@@ -2725,25 +2779,25 @@
         </is>
       </c>
       <c r="G9" s="11" t="n">
-        <v>5668</v>
+        <v>6723</v>
       </c>
       <c r="H9" s="12" t="n">
-        <v>45.4</v>
+        <v>0</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>2571</v>
+        <v>0</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>46.9</v>
+        <v>100</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>2660</v>
+        <v>6723</v>
       </c>
       <c r="L9" s="14" t="n">
-        <v>7.7</v>
+        <v>0</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="N9" s="15" t="n">
         <v>0</v>
@@ -2752,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>54.6</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>3098</v>
+        <v>6723</v>
       </c>
       <c r="R9" s="17" t="inlineStr">
         <is>
@@ -2770,7 +2824,7 @@
       <c r="D10" s="10" t="n"/>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>MMR005</t>
+          <t>MMR012004</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
@@ -2779,19 +2833,19 @@
         </is>
       </c>
       <c r="G10" s="11" t="n">
-        <v>14767</v>
+        <v>6091</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>5.9</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>876</v>
+        <v>5120</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>94.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>13891</v>
+        <v>971</v>
       </c>
       <c r="L10" s="14" t="n">
         <v>0</v>
@@ -2806,14 +2860,14 @@
         <v>0</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>94.09999999999999</v>
+        <v>15.9</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>13891</v>
+        <v>971</v>
       </c>
       <c r="R10" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -2824,7 +2878,7 @@
       <c r="D11" s="10" t="n"/>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>MMR006</t>
+          <t>MMR012005</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
@@ -2833,25 +2887,25 @@
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>20302</v>
+        <v>5668</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>41.1</v>
+        <v>50.8</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>8346</v>
+        <v>2879</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>28.1</v>
+        <v>49.2</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>5712</v>
+        <v>2789</v>
       </c>
       <c r="L11" s="14" t="n">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>6244</v>
+        <v>0</v>
       </c>
       <c r="N11" s="15" t="n">
         <v>0</v>
@@ -2860,14 +2914,14 @@
         <v>0</v>
       </c>
       <c r="P11" s="16" t="n">
-        <v>58.9</v>
+        <v>49.2</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>11956</v>
+        <v>2789</v>
       </c>
       <c r="R11" s="17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2932,7 @@
       <c r="D12" s="10" t="n"/>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>MMR007</t>
+          <t>MMR012006</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
@@ -2887,19 +2941,19 @@
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>8152</v>
+        <v>12398</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>61.7</v>
+        <v>56.5</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>5034</v>
+        <v>7003</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>38.3</v>
+        <v>43.5</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>3118</v>
+        <v>5395</v>
       </c>
       <c r="L12" s="14" t="n">
         <v>0</v>
@@ -2914,10 +2968,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>38.3</v>
+        <v>43.5</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>3118</v>
+        <v>5395</v>
       </c>
       <c r="R12" s="17" t="inlineStr">
         <is>
@@ -2932,7 +2986,7 @@
       <c r="D13" s="10" t="n"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>MMR009</t>
+          <t>MMR012014</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
@@ -2941,25 +2995,25 @@
         </is>
       </c>
       <c r="G13" s="11" t="n">
-        <v>5569</v>
+        <v>33544</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>11</v>
+        <v>55.1</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>614</v>
+        <v>18497</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>76.40000000000001</v>
+        <v>44.9</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>4252</v>
+        <v>15047</v>
       </c>
       <c r="L13" s="14" t="n">
-        <v>12.6</v>
+        <v>0</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>703</v>
+        <v>0</v>
       </c>
       <c r="N13" s="15" t="n">
         <v>0</v>
@@ -2968,10 +3022,10 @@
         <v>0</v>
       </c>
       <c r="P13" s="16" t="n">
-        <v>89</v>
+        <v>44.9</v>
       </c>
       <c r="Q13" s="16" t="n">
-        <v>4956</v>
+        <v>15047</v>
       </c>
       <c r="R13" s="17" t="inlineStr">
         <is>
@@ -2986,7 +3040,7 @@
       <c r="D14" s="10" t="n"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>MMR011</t>
+          <t>MMR001001</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
@@ -2995,25 +3049,25 @@
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>6697</v>
+        <v>14767</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>47.7</v>
+        <v>57</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>3193</v>
+        <v>8414</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>37.7</v>
+        <v>43</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>2526</v>
+        <v>6353</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>14.6</v>
+        <v>0</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>978</v>
+        <v>0</v>
       </c>
       <c r="N14" s="15" t="n">
         <v>0</v>
@@ -3022,10 +3076,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>52.3</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>3504</v>
+        <v>6353</v>
       </c>
       <c r="R14" s="17" t="inlineStr">
         <is>
@@ -3040,7 +3094,7 @@
       <c r="D15" s="10" t="n"/>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>MMR012</t>
+          <t>MMR001002</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -3049,25 +3103,25 @@
         </is>
       </c>
       <c r="G15" s="11" t="n">
-        <v>7385</v>
+        <v>6723</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>50.6</v>
+        <v>57</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>3740</v>
+        <v>3831</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>45.4</v>
+        <v>43</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>3355</v>
+        <v>2893</v>
       </c>
       <c r="L15" s="14" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="N15" s="15" t="n">
         <v>0</v>
@@ -3076,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="16" t="n">
-        <v>49.4</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>3645</v>
+        <v>2893</v>
       </c>
       <c r="R15" s="17" t="inlineStr">
         <is>
@@ -3094,7 +3148,7 @@
       <c r="D16" s="10" t="n"/>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>MMR014</t>
+          <t>MMR001004</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -3103,19 +3157,19 @@
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>17144</v>
+        <v>6091</v>
       </c>
       <c r="H16" s="12" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>10461</v>
+        <v>3471</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>6683</v>
+        <v>2621</v>
       </c>
       <c r="L16" s="14" t="n">
         <v>0</v>
@@ -3130,10 +3184,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>6683</v>
+        <v>2621</v>
       </c>
       <c r="R16" s="17" t="inlineStr">
         <is>
@@ -3146,50 +3200,158 @@
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="10" t="n"/>
       <c r="D17" s="10" t="n"/>
-      <c r="E17" s="18" t="inlineStr">
-        <is>
-          <t>MMR015</t>
-        </is>
-      </c>
-      <c r="F17" s="18" t="inlineStr">
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>MMR002005</t>
+        </is>
+      </c>
+      <c r="F17" s="11" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="G17" s="18" t="n">
-        <v>12398</v>
-      </c>
-      <c r="H17" s="19" t="n">
-        <v>44.3</v>
-      </c>
-      <c r="I17" s="19" t="n">
-        <v>5489</v>
-      </c>
-      <c r="J17" s="20" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="K17" s="20" t="n">
-        <v>5386</v>
-      </c>
-      <c r="L17" s="21" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="M17" s="21" t="n">
-        <v>1523</v>
-      </c>
-      <c r="N17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="23" t="n">
-        <v>55.7</v>
-      </c>
-      <c r="Q17" s="23" t="n">
-        <v>6909</v>
+      <c r="G17" s="11" t="n">
+        <v>5884</v>
+      </c>
+      <c r="H17" s="12" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I17" s="12" t="n">
+        <v>662</v>
+      </c>
+      <c r="J17" s="13" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="K17" s="13" t="n">
+        <v>5052</v>
+      </c>
+      <c r="L17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O17" s="15" t="n">
+        <v>170</v>
+      </c>
+      <c r="P17" s="16" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="Q17" s="16" t="n">
+        <v>5222</v>
       </c>
       <c r="R17" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="10" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="10" t="n"/>
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>MMR002006</t>
+        </is>
+      </c>
+      <c r="F18" s="11" t="inlineStr">
+        <is>
+          <t>ret</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="n">
+        <v>20302</v>
+      </c>
+      <c r="H18" s="12" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I18" s="12" t="n">
+        <v>2286</v>
+      </c>
+      <c r="J18" s="13" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="K18" s="13" t="n">
+        <v>17429</v>
+      </c>
+      <c r="L18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="15" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O18" s="15" t="n">
+        <v>587</v>
+      </c>
+      <c r="P18" s="16" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="Q18" s="16" t="n">
+        <v>18016</v>
+      </c>
+      <c r="R18" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="10" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="10" t="n"/>
+      <c r="E19" s="18" t="inlineStr">
+        <is>
+          <t>MMR002007</t>
+        </is>
+      </c>
+      <c r="F19" s="18" t="inlineStr">
+        <is>
+          <t>ret</t>
+        </is>
+      </c>
+      <c r="G19" s="18" t="n">
+        <v>5054</v>
+      </c>
+      <c r="H19" s="19" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="I19" s="19" t="n">
+        <v>569</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>85.8</v>
+      </c>
+      <c r="K19" s="20" t="n">
+        <v>4339</v>
+      </c>
+      <c r="L19" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O19" s="22" t="n">
+        <v>146</v>
+      </c>
+      <c r="P19" s="23" t="n">
+        <v>88.7</v>
+      </c>
+      <c r="Q19" s="23" t="n">
+        <v>4485</v>
+      </c>
+      <c r="R19" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3209,7 +3371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3250,7 +3412,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin1</t>
+          <t>admin3</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -3324,52 +3486,322 @@
       <c r="B6" s="10" t="n"/>
       <c r="C6" s="10" t="n"/>
       <c r="D6" s="10" t="n"/>
-      <c r="E6" s="18" t="inlineStr">
-        <is>
-          <t>MMR012</t>
-        </is>
-      </c>
-      <c r="F6" s="18" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>MMR012001</t>
+        </is>
+      </c>
+      <c r="F6" s="11" t="inlineStr">
         <is>
           <t>ndsp</t>
         </is>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="11" t="n">
+        <v>44301</v>
+      </c>
+      <c r="H6" s="12" t="n">
+        <v>23</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>10207</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <v>22014</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="M6" s="14" t="n">
+        <v>12079</v>
+      </c>
+      <c r="N6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>77</v>
+      </c>
+      <c r="Q6" s="16" t="n">
+        <v>34094</v>
+      </c>
+      <c r="R6" s="17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="10" t="n"/>
+      <c r="B7" s="10" t="n"/>
+      <c r="C7" s="10" t="n"/>
+      <c r="D7" s="10" t="n"/>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>MMR012003</t>
+        </is>
+      </c>
+      <c r="F7" s="11" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G7" s="11" t="n">
+        <v>20170</v>
+      </c>
+      <c r="H7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="K7" s="13" t="n">
+        <v>20170</v>
+      </c>
+      <c r="L7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="16" t="n">
+        <v>20170</v>
+      </c>
+      <c r="R7" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="10" t="n"/>
+      <c r="B8" s="10" t="n"/>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="10" t="n"/>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>MMR012004</t>
+        </is>
+      </c>
+      <c r="F8" s="11" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G8" s="11" t="n">
+        <v>18273</v>
+      </c>
+      <c r="H8" s="12" t="n">
+        <v>78.2</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>14290</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="K8" s="13" t="n">
+        <v>3983</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="Q8" s="16" t="n">
+        <v>3983</v>
+      </c>
+      <c r="R8" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="10" t="n"/>
+      <c r="B9" s="10" t="n"/>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="10" t="n"/>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>MMR012005</t>
+        </is>
+      </c>
+      <c r="F9" s="11" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G9" s="11" t="n">
+        <v>17005</v>
+      </c>
+      <c r="H9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="K9" s="13" t="n">
+        <v>17005</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="16" t="n">
+        <v>17005</v>
+      </c>
+      <c r="R9" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="n"/>
+      <c r="B10" s="10" t="n"/>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="10" t="n"/>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>MMR012007</t>
+        </is>
+      </c>
+      <c r="F10" s="11" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="n">
+        <v>15236</v>
+      </c>
+      <c r="H10" s="12" t="n">
+        <v>23.3</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>3554</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="K10" s="13" t="n">
+        <v>11682</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="16" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="Q10" s="16" t="n">
+        <v>11682</v>
+      </c>
+      <c r="R10" s="17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="10" t="n"/>
+      <c r="B11" s="10" t="n"/>
+      <c r="C11" s="10" t="n"/>
+      <c r="D11" s="10" t="n"/>
+      <c r="E11" s="18" t="inlineStr">
+        <is>
+          <t>MMR012010</t>
+        </is>
+      </c>
+      <c r="F11" s="18" t="inlineStr">
+        <is>
+          <t>ndsp</t>
+        </is>
+      </c>
+      <c r="G11" s="18" t="n">
         <v>22154</v>
       </c>
-      <c r="H6" s="19" t="n">
-        <v>35.7</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>7909</v>
-      </c>
-      <c r="J6" s="20" t="n">
-        <v>53</v>
-      </c>
-      <c r="K6" s="20" t="n">
-        <v>11747</v>
-      </c>
-      <c r="L6" s="21" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="M6" s="21" t="n">
-        <v>2498</v>
-      </c>
-      <c r="N6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="23" t="n">
-        <v>64.3</v>
-      </c>
-      <c r="Q6" s="23" t="n">
-        <v>14245</v>
-      </c>
-      <c r="R6" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
+      <c r="H11" s="19" t="n">
+        <v>100</v>
+      </c>
+      <c r="I11" s="19" t="n">
+        <v>22154</v>
+      </c>
+      <c r="J11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="17" t="inlineStr">
+        <is>
+          <t>1-2</t>
         </is>
       </c>
     </row>

--- a/output_validation/final__JIAF__platform_output.xlsx
+++ b/output_validation/final__JIAF__platform_output.xlsx
@@ -610,7 +610,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -686,7 +686,7 @@
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>MMR008003</t>
+          <t>MMR001</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
@@ -695,41 +695,41 @@
         </is>
       </c>
       <c r="G6" s="11" t="n">
-        <v>206737</v>
+        <v>94127</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>100</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>206737</v>
+        <v>69230</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>0</v>
+        <v>23.5</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>0</v>
+        <v>22094</v>
       </c>
       <c r="L6" s="14" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="N6" s="15" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O6" s="15" t="n">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="P6" s="16" t="n">
-        <v>0</v>
+        <v>26.4</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>0</v>
+        <v>24896</v>
       </c>
       <c r="R6" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -740,7 +740,7 @@
       <c r="D7" s="10" t="n"/>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>MMR009018</t>
+          <t>MMR002</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
@@ -749,25 +749,25 @@
         </is>
       </c>
       <c r="G7" s="11" t="n">
-        <v>240015</v>
+        <v>49284</v>
       </c>
       <c r="H7" s="12" t="n">
-        <v>0</v>
+        <v>28.8</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>0</v>
+        <v>14199</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>100</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>240015</v>
+        <v>33207</v>
       </c>
       <c r="L7" s="14" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>0</v>
+        <v>1877</v>
       </c>
       <c r="N7" s="15" t="n">
         <v>0</v>
@@ -776,10 +776,10 @@
         <v>0</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>100</v>
+        <v>71.2</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>240015</v>
+        <v>35085</v>
       </c>
       <c r="R7" s="17" t="inlineStr">
         <is>
@@ -794,7 +794,7 @@
       <c r="D8" s="10" t="n"/>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>MMR009019</t>
+          <t>MMR003</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -803,37 +803,37 @@
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>49284</v>
+        <v>71100</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>0</v>
+        <v>54.3</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>0</v>
+        <v>38598</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>100</v>
+        <v>39.8</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>49284</v>
+        <v>28273</v>
       </c>
       <c r="L8" s="14" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="M8" s="14" t="n">
-        <v>0</v>
+        <v>3912</v>
       </c>
       <c r="N8" s="15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="15" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="P8" s="16" t="n">
-        <v>100</v>
+        <v>45.7</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>49284</v>
+        <v>32503</v>
       </c>
       <c r="R8" s="17" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
       <c r="D9" s="10" t="n"/>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>MMR009020</t>
+          <t>MMR004</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
@@ -857,37 +857,37 @@
         </is>
       </c>
       <c r="G9" s="11" t="n">
-        <v>469612</v>
+        <v>79357</v>
       </c>
       <c r="H9" s="12" t="n">
-        <v>0</v>
+        <v>29.6</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>0</v>
+        <v>23469</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>100</v>
+        <v>65.8</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>469612</v>
+        <v>52207</v>
       </c>
       <c r="L9" s="14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>0</v>
+        <v>2804</v>
       </c>
       <c r="N9" s="15" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>0</v>
+        <v>877</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>100</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>469612</v>
+        <v>55888</v>
       </c>
       <c r="R9" s="17" t="inlineStr">
         <is>
@@ -902,7 +902,7 @@
       <c r="D10" s="10" t="n"/>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>MMR012003</t>
+          <t>MMR005</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
@@ -911,41 +911,41 @@
         </is>
       </c>
       <c r="G10" s="11" t="n">
-        <v>94127</v>
+        <v>206737</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>0</v>
+        <v>44841</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>69.59999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>65556</v>
+        <v>151037</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>30.4</v>
+        <v>4.8</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>28571</v>
+        <v>9848</v>
       </c>
       <c r="N10" s="15" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>100</v>
+        <v>78.3</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>94127</v>
+        <v>161896</v>
       </c>
       <c r="R10" s="17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       <c r="D11" s="10" t="n"/>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>MMR012004</t>
+          <t>MMR006</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
@@ -965,25 +965,25 @@
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>85275</v>
+        <v>284225</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>0</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>0</v>
+        <v>206212</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>100</v>
+        <v>23.7</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>85275</v>
+        <v>67381</v>
       </c>
       <c r="L11" s="14" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>0</v>
+        <v>10632</v>
       </c>
       <c r="N11" s="15" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="16" t="n">
-        <v>100</v>
+        <v>27.4</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>85275</v>
+        <v>78013</v>
       </c>
       <c r="R11" s="17" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
       <c r="D12" s="10" t="n"/>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>MMR012006</t>
+          <t>MMR007</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
@@ -1019,37 +1019,37 @@
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>173573</v>
+        <v>114132</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>0</v>
+        <v>77.5</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>0</v>
+        <v>88451</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>86.09999999999999</v>
+        <v>21</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>149515</v>
+        <v>23946</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>0</v>
+        <v>1736</v>
       </c>
       <c r="N12" s="15" t="n">
-        <v>13.9</v>
+        <v>0</v>
       </c>
       <c r="O12" s="15" t="n">
-        <v>24058</v>
+        <v>0</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>100</v>
+        <v>22.5</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>173573</v>
+        <v>25682</v>
       </c>
       <c r="R12" s="17" t="inlineStr">
         <is>
@@ -1064,7 +1064,7 @@
       <c r="D13" s="10" t="n"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>MMR012010</t>
+          <t>MMR008</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
@@ -1073,25 +1073,25 @@
         </is>
       </c>
       <c r="G13" s="11" t="n">
-        <v>103387</v>
+        <v>82380</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>100</v>
+        <v>75.7</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>103387</v>
+        <v>62340</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>0</v>
+        <v>16.8</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>0</v>
+        <v>13805</v>
       </c>
       <c r="L13" s="14" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>0</v>
+        <v>6236</v>
       </c>
       <c r="N13" s="15" t="n">
         <v>0</v>
@@ -1100,14 +1100,14 @@
         <v>0</v>
       </c>
       <c r="P13" s="16" t="n">
-        <v>0</v>
+        <v>24.3</v>
       </c>
       <c r="Q13" s="16" t="n">
-        <v>0</v>
+        <v>20041</v>
       </c>
       <c r="R13" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1118,7 @@
       <c r="D14" s="10" t="n"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>MMR012011</t>
+          <t>MMR009</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
@@ -1127,25 +1127,25 @@
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>93763</v>
+        <v>77970</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>41.9</v>
+        <v>78.2</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>39294</v>
+        <v>60939</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>58.1</v>
+        <v>20.5</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>54469</v>
+        <v>15970</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>0</v>
+        <v>1061</v>
       </c>
       <c r="N14" s="15" t="n">
         <v>0</v>
@@ -1154,10 +1154,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>58.1</v>
+        <v>21.8</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>54469</v>
+        <v>17031</v>
       </c>
       <c r="R14" s="17" t="inlineStr">
         <is>
@@ -1172,7 +1172,7 @@
       <c r="D15" s="10" t="n"/>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>MMR012014</t>
+          <t>MMR010</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -1184,34 +1184,34 @@
         <v>469612</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>0</v>
+        <v>77.40000000000001</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>0</v>
+        <v>363402</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>100</v>
+        <v>18.4</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>469612</v>
+        <v>86190</v>
       </c>
       <c r="L15" s="14" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>0</v>
+        <v>16642</v>
       </c>
       <c r="N15" s="15" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>0</v>
+        <v>3379</v>
       </c>
       <c r="P15" s="16" t="n">
-        <v>100</v>
+        <v>22.6</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>469612</v>
+        <v>106210</v>
       </c>
       <c r="R15" s="17" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
       <c r="D16" s="10" t="n"/>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>MMR012015</t>
+          <t>MMR011</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -1235,37 +1235,37 @@
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>114132</v>
+        <v>93763</v>
       </c>
       <c r="H16" s="12" t="n">
-        <v>38.6</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>44104</v>
+        <v>63382</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>61.4</v>
+        <v>15.6</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>70028</v>
+        <v>14645</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>0</v>
+        <v>8175</v>
       </c>
       <c r="N16" s="15" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="O16" s="15" t="n">
-        <v>0</v>
+        <v>7561</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>61.4</v>
+        <v>32.4</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>70028</v>
+        <v>30381</v>
       </c>
       <c r="R16" s="17" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
       <c r="D17" s="10" t="n"/>
       <c r="E17" s="11" t="inlineStr">
         <is>
-          <t>MMR012016</t>
+          <t>MMR012</t>
         </is>
       </c>
       <c r="F17" s="11" t="inlineStr">
@@ -1289,41 +1289,41 @@
         </is>
       </c>
       <c r="G17" s="11" t="n">
-        <v>94050</v>
+        <v>103387</v>
       </c>
       <c r="H17" s="12" t="n">
-        <v>100</v>
+        <v>46.2</v>
       </c>
       <c r="I17" s="12" t="n">
-        <v>94050</v>
+        <v>47756</v>
       </c>
       <c r="J17" s="13" t="n">
-        <v>0</v>
+        <v>48.2</v>
       </c>
       <c r="K17" s="13" t="n">
-        <v>0</v>
+        <v>49819</v>
       </c>
       <c r="L17" s="14" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="M17" s="14" t="n">
-        <v>0</v>
+        <v>5404</v>
       </c>
       <c r="N17" s="15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O17" s="15" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="P17" s="16" t="n">
-        <v>0</v>
+        <v>53.8</v>
       </c>
       <c r="Q17" s="16" t="n">
-        <v>0</v>
+        <v>55631</v>
       </c>
       <c r="R17" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       <c r="D18" s="10" t="n"/>
       <c r="E18" s="11" t="inlineStr">
         <is>
-          <t>MMR001001</t>
+          <t>MMR013</t>
         </is>
       </c>
       <c r="F18" s="11" t="inlineStr">
@@ -1343,41 +1343,41 @@
         </is>
       </c>
       <c r="G18" s="11" t="n">
-        <v>206737</v>
+        <v>94050</v>
       </c>
       <c r="H18" s="12" t="n">
-        <v>91.40000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="I18" s="12" t="n">
-        <v>188972</v>
+        <v>61865</v>
       </c>
       <c r="J18" s="13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K18" s="13" t="n">
-        <v>0</v>
+        <v>24464</v>
       </c>
       <c r="L18" s="14" t="n">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="M18" s="14" t="n">
-        <v>17765</v>
+        <v>7317</v>
       </c>
       <c r="N18" s="15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="O18" s="15" t="n">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="P18" s="16" t="n">
-        <v>8.6</v>
+        <v>34.2</v>
       </c>
       <c r="Q18" s="16" t="n">
-        <v>17765</v>
+        <v>32185</v>
       </c>
       <c r="R18" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1388,7 +1388,7 @@
       <c r="D19" s="10" t="n"/>
       <c r="E19" s="11" t="inlineStr">
         <is>
-          <t>MMR001002</t>
+          <t>MMR014</t>
         </is>
       </c>
       <c r="F19" s="11" t="inlineStr">
@@ -1397,25 +1397,25 @@
         </is>
       </c>
       <c r="G19" s="11" t="n">
-        <v>94127</v>
+        <v>240015</v>
       </c>
       <c r="H19" s="12" t="n">
-        <v>91.40000000000001</v>
+        <v>81.7</v>
       </c>
       <c r="I19" s="12" t="n">
-        <v>86039</v>
+        <v>196208</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>0</v>
+        <v>13.8</v>
       </c>
       <c r="K19" s="13" t="n">
-        <v>0</v>
+        <v>33230</v>
       </c>
       <c r="L19" s="14" t="n">
-        <v>8.6</v>
+        <v>4.4</v>
       </c>
       <c r="M19" s="14" t="n">
-        <v>8088</v>
+        <v>10577</v>
       </c>
       <c r="N19" s="15" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="P19" s="16" t="n">
-        <v>8.6</v>
+        <v>18.3</v>
       </c>
       <c r="Q19" s="16" t="n">
-        <v>8088</v>
+        <v>43807</v>
       </c>
       <c r="R19" s="17" t="inlineStr">
         <is>
@@ -1442,7 +1442,7 @@
       <c r="D20" s="10" t="n"/>
       <c r="E20" s="11" t="inlineStr">
         <is>
-          <t>MMR001004</t>
+          <t>MMR015</t>
         </is>
       </c>
       <c r="F20" s="11" t="inlineStr">
@@ -1451,41 +1451,41 @@
         </is>
       </c>
       <c r="G20" s="11" t="n">
-        <v>85275</v>
+        <v>173573</v>
       </c>
       <c r="H20" s="12" t="n">
-        <v>91.40000000000001</v>
+        <v>53.8</v>
       </c>
       <c r="I20" s="12" t="n">
-        <v>77948</v>
+        <v>93404</v>
       </c>
       <c r="J20" s="13" t="n">
-        <v>0</v>
+        <v>39.8</v>
       </c>
       <c r="K20" s="13" t="n">
-        <v>0</v>
+        <v>69037</v>
       </c>
       <c r="L20" s="14" t="n">
-        <v>8.6</v>
+        <v>5.8</v>
       </c>
       <c r="M20" s="14" t="n">
-        <v>7328</v>
+        <v>10115</v>
       </c>
       <c r="N20" s="15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O20" s="15" t="n">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="P20" s="16" t="n">
-        <v>8.6</v>
+        <v>46.2</v>
       </c>
       <c r="Q20" s="16" t="n">
-        <v>7328</v>
+        <v>80170</v>
       </c>
       <c r="R20" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       <c r="D21" s="10" t="n"/>
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>MMR002005</t>
+          <t>MMR016</t>
         </is>
       </c>
       <c r="F21" s="11" t="inlineStr">
@@ -1505,25 +1505,25 @@
         </is>
       </c>
       <c r="G21" s="11" t="n">
-        <v>82380</v>
+        <v>70760</v>
       </c>
       <c r="H21" s="12" t="n">
-        <v>29.5</v>
+        <v>85.5</v>
       </c>
       <c r="I21" s="12" t="n">
-        <v>24331</v>
+        <v>60490</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>67.40000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="K21" s="13" t="n">
-        <v>55534</v>
+        <v>7743</v>
       </c>
       <c r="L21" s="14" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M21" s="14" t="n">
-        <v>2515</v>
+        <v>2528</v>
       </c>
       <c r="N21" s="15" t="n">
         <v>0</v>
@@ -1532,14 +1532,14 @@
         <v>0</v>
       </c>
       <c r="P21" s="16" t="n">
-        <v>70.5</v>
+        <v>14.5</v>
       </c>
       <c r="Q21" s="16" t="n">
-        <v>58049</v>
+        <v>10271</v>
       </c>
       <c r="R21" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1550,7 +1550,7 @@
       <c r="D22" s="10" t="n"/>
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>MMR002006</t>
+          <t>MMR017</t>
         </is>
       </c>
       <c r="F22" s="11" t="inlineStr">
@@ -1559,41 +1559,41 @@
         </is>
       </c>
       <c r="G22" s="11" t="n">
-        <v>284225</v>
+        <v>81840</v>
       </c>
       <c r="H22" s="12" t="n">
-        <v>29.5</v>
+        <v>92.5</v>
       </c>
       <c r="I22" s="12" t="n">
-        <v>83946</v>
+        <v>75687</v>
       </c>
       <c r="J22" s="13" t="n">
-        <v>67.40000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="K22" s="13" t="n">
-        <v>191602</v>
+        <v>2975</v>
       </c>
       <c r="L22" s="14" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M22" s="14" t="n">
-        <v>8677</v>
+        <v>2695</v>
       </c>
       <c r="N22" s="15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O22" s="15" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="P22" s="16" t="n">
-        <v>70.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q22" s="16" t="n">
-        <v>200279</v>
+        <v>6153</v>
       </c>
       <c r="R22" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       <c r="D23" s="10" t="n"/>
       <c r="E23" s="18" t="inlineStr">
         <is>
-          <t>MMR002007</t>
+          <t>MMR018</t>
         </is>
       </c>
       <c r="F23" s="18" t="inlineStr">
@@ -1613,25 +1613,25 @@
         </is>
       </c>
       <c r="G23" s="18" t="n">
-        <v>70760</v>
+        <v>85275</v>
       </c>
       <c r="H23" s="19" t="n">
-        <v>29.5</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="I23" s="19" t="n">
-        <v>20899</v>
+        <v>74295</v>
       </c>
       <c r="J23" s="20" t="n">
-        <v>67.40000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="K23" s="20" t="n">
-        <v>47701</v>
+        <v>7273</v>
       </c>
       <c r="L23" s="21" t="n">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="M23" s="21" t="n">
-        <v>2160</v>
+        <v>3707</v>
       </c>
       <c r="N23" s="22" t="n">
         <v>0</v>
@@ -1640,14 +1640,14 @@
         <v>0</v>
       </c>
       <c r="P23" s="23" t="n">
-        <v>70.5</v>
+        <v>12.9</v>
       </c>
       <c r="Q23" s="23" t="n">
-        <v>49861</v>
+        <v>10980</v>
       </c>
       <c r="R23" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1-2</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1706,7 +1706,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -1782,7 +1782,7 @@
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>MMR009018</t>
+          <t>MMR001</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
@@ -1791,25 +1791,25 @@
         </is>
       </c>
       <c r="G6" s="11" t="n">
-        <v>34288</v>
+        <v>13447</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>72</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>24698</v>
+        <v>9556</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>28</v>
+        <v>19.4</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>9590</v>
+        <v>2609</v>
       </c>
       <c r="L6" s="14" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>0</v>
+        <v>1282</v>
       </c>
       <c r="N6" s="15" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="16" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>9590</v>
+        <v>3891</v>
       </c>
       <c r="R6" s="17" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
       <c r="D7" s="10" t="n"/>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>MMR009020</t>
+          <t>MMR002</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
@@ -1845,37 +1845,37 @@
         </is>
       </c>
       <c r="G7" s="11" t="n">
-        <v>67088</v>
+        <v>7041</v>
       </c>
       <c r="H7" s="12" t="n">
-        <v>0</v>
+        <v>32.9</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>0</v>
+        <v>2317</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>100</v>
+        <v>60.4</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>67088</v>
+        <v>4250</v>
       </c>
       <c r="L7" s="14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="N7" s="15" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>100</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>67088</v>
+        <v>4724</v>
       </c>
       <c r="R7" s="17" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
       <c r="D8" s="10" t="n"/>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>MMR012001</t>
+          <t>MMR003</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -1899,37 +1899,37 @@
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>29534</v>
+        <v>10157</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>26.9</v>
+        <v>45.1</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>7934</v>
+        <v>4586</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>57.2</v>
+        <v>47</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>16882</v>
+        <v>4772</v>
       </c>
       <c r="L8" s="14" t="n">
-        <v>16</v>
+        <v>3.9</v>
       </c>
       <c r="M8" s="14" t="n">
-        <v>4718</v>
+        <v>397</v>
       </c>
       <c r="N8" s="15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O8" s="15" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="P8" s="16" t="n">
-        <v>73.09999999999999</v>
+        <v>54.9</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>21600</v>
+        <v>5571</v>
       </c>
       <c r="R8" s="17" t="inlineStr">
         <is>
@@ -1944,7 +1944,7 @@
       <c r="D9" s="10" t="n"/>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>MMR012003</t>
+          <t>MMR004</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
@@ -1953,37 +1953,37 @@
         </is>
       </c>
       <c r="G9" s="11" t="n">
-        <v>13447</v>
+        <v>11337</v>
       </c>
       <c r="H9" s="12" t="n">
-        <v>0</v>
+        <v>24.2</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>0</v>
+        <v>2741</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>100</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>13447</v>
+        <v>8270</v>
       </c>
       <c r="L9" s="14" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="N9" s="15" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="O9" s="15" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>100</v>
+        <v>75.8</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>13447</v>
+        <v>8595</v>
       </c>
       <c r="R9" s="17" t="inlineStr">
         <is>
@@ -1998,7 +1998,7 @@
       <c r="D10" s="10" t="n"/>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>MMR012005</t>
+          <t>MMR005</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
@@ -2007,37 +2007,37 @@
         </is>
       </c>
       <c r="G10" s="11" t="n">
-        <v>11337</v>
+        <v>29534</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>100</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>11337</v>
+        <v>25358</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="N10" s="15" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>0</v>
+        <v>2590</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>100</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>11337</v>
+        <v>28614</v>
       </c>
       <c r="R10" s="17" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
       <c r="D11" s="10" t="n"/>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>MMR012007</t>
+          <t>MMR006</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
@@ -2061,41 +2061,41 @@
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>10157</v>
+        <v>40604</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>54.8</v>
+        <v>34.5</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>5567</v>
+        <v>14021</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>19</v>
+        <v>56.6</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>1928</v>
+        <v>22975</v>
       </c>
       <c r="L11" s="14" t="n">
-        <v>18.1</v>
+        <v>5.9</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>1841</v>
+        <v>2407</v>
       </c>
       <c r="N11" s="15" t="n">
-        <v>8.1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="15" t="n">
-        <v>821</v>
+        <v>1201</v>
       </c>
       <c r="P11" s="16" t="n">
-        <v>45.2</v>
+        <v>65.5</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>4591</v>
+        <v>26583</v>
       </c>
       <c r="R11" s="17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2106,7 @@
       <c r="D12" s="10" t="n"/>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>MMR012010</t>
+          <t>MMR007</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
@@ -2115,25 +2115,25 @@
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>14770</v>
+        <v>16305</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>100</v>
+        <v>66.7</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>14770</v>
+        <v>10879</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>0</v>
+        <v>4239</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>0</v>
+        <v>1186</v>
       </c>
       <c r="N12" s="15" t="n">
         <v>0</v>
@@ -2142,14 +2142,14 @@
         <v>0</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>0</v>
+        <v>5425</v>
       </c>
       <c r="R12" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2160,7 +2160,7 @@
       <c r="D13" s="10" t="n"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>MMR001001</t>
+          <t>MMR009</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
@@ -2169,37 +2169,37 @@
         </is>
       </c>
       <c r="G13" s="11" t="n">
-        <v>29534</v>
+        <v>11138</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>69.90000000000001</v>
+        <v>43</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>20633</v>
+        <v>4790</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>13.1</v>
+        <v>43.9</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>3867</v>
+        <v>4886</v>
       </c>
       <c r="L13" s="14" t="n">
-        <v>17</v>
+        <v>7.4</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>5034</v>
+        <v>829</v>
       </c>
       <c r="N13" s="15" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="O13" s="15" t="n">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="P13" s="16" t="n">
-        <v>30.1</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="16" t="n">
-        <v>8900</v>
+        <v>6349</v>
       </c>
       <c r="R13" s="17" t="inlineStr">
         <is>
@@ -2214,7 +2214,7 @@
       <c r="D14" s="10" t="n"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>MMR001002</t>
+          <t>MMR011</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
@@ -2223,37 +2223,37 @@
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>13447</v>
+        <v>13395</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>69.90000000000001</v>
+        <v>50.4</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>9394</v>
+        <v>6748</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>13.1</v>
+        <v>32.7</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>1761</v>
+        <v>4379</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>17</v>
+        <v>6.9</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>2292</v>
+        <v>928</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>0</v>
+        <v>1340</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>30.1</v>
+        <v>49.6</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>4052</v>
+        <v>6647</v>
       </c>
       <c r="R14" s="17" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
       <c r="D15" s="10" t="n"/>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>MMR001004</t>
+          <t>MMR012</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -2277,37 +2277,37 @@
         </is>
       </c>
       <c r="G15" s="11" t="n">
-        <v>12182</v>
+        <v>14770</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>69.90000000000001</v>
+        <v>30.4</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>8511</v>
+        <v>4494</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>13.1</v>
+        <v>53.1</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>1595</v>
+        <v>7847</v>
       </c>
       <c r="L15" s="14" t="n">
-        <v>17</v>
+        <v>14.7</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>2076</v>
+        <v>2164</v>
       </c>
       <c r="N15" s="15" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="P15" s="16" t="n">
-        <v>30.1</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>3671</v>
+        <v>10275</v>
       </c>
       <c r="R15" s="17" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
       <c r="D16" s="10" t="n"/>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>MMR002005</t>
+          <t>MMR014</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -2331,25 +2331,25 @@
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>11769</v>
+        <v>34288</v>
       </c>
       <c r="H16" s="12" t="n">
-        <v>46.7</v>
+        <v>53.5</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>5498</v>
+        <v>18348</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>43.6</v>
+        <v>42.8</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>5135</v>
+        <v>14670</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>9.699999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>1136</v>
+        <v>1269</v>
       </c>
       <c r="N16" s="15" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>53.3</v>
+        <v>46.5</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>6271</v>
+        <v>15939</v>
       </c>
       <c r="R16" s="17" t="inlineStr">
         <is>
@@ -2374,104 +2374,50 @@
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="10" t="n"/>
       <c r="D17" s="10" t="n"/>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>MMR002006</t>
-        </is>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
+      <c r="E17" s="18" t="inlineStr">
+        <is>
+          <t>MMR015</t>
+        </is>
+      </c>
+      <c r="F17" s="18" t="inlineStr">
         <is>
           <t>idp</t>
         </is>
       </c>
-      <c r="G17" s="11" t="n">
-        <v>40604</v>
-      </c>
-      <c r="H17" s="12" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="I17" s="12" t="n">
-        <v>18968</v>
-      </c>
-      <c r="J17" s="13" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K17" s="13" t="n">
-        <v>17715</v>
-      </c>
-      <c r="L17" s="14" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M17" s="14" t="n">
-        <v>3920</v>
-      </c>
-      <c r="N17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" s="16" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="Q17" s="16" t="n">
-        <v>21636</v>
+      <c r="G17" s="18" t="n">
+        <v>24796</v>
+      </c>
+      <c r="H17" s="19" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="I17" s="19" t="n">
+        <v>3983</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>81</v>
+      </c>
+      <c r="K17" s="20" t="n">
+        <v>20096</v>
+      </c>
+      <c r="L17" s="21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M17" s="21" t="n">
+        <v>718</v>
+      </c>
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="23" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="Q17" s="23" t="n">
+        <v>20813</v>
       </c>
       <c r="R17" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
-      <c r="B18" s="10" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="10" t="n"/>
-      <c r="E18" s="18" t="inlineStr">
-        <is>
-          <t>MMR002007</t>
-        </is>
-      </c>
-      <c r="F18" s="18" t="inlineStr">
-        <is>
-          <t>idp</t>
-        </is>
-      </c>
-      <c r="G18" s="18" t="n">
-        <v>10109</v>
-      </c>
-      <c r="H18" s="19" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="I18" s="19" t="n">
-        <v>4722</v>
-      </c>
-      <c r="J18" s="20" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="K18" s="20" t="n">
-        <v>4410</v>
-      </c>
-      <c r="L18" s="21" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="M18" s="21" t="n">
-        <v>976</v>
-      </c>
-      <c r="N18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="23" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="Q18" s="23" t="n">
-        <v>5386</v>
-      </c>
-      <c r="R18" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -2491,7 +2437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2532,7 +2478,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -2608,7 +2554,7 @@
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>MMR009019</t>
+          <t>MMR001</t>
         </is>
       </c>
       <c r="F6" s="11" t="inlineStr">
@@ -2617,25 +2563,25 @@
         </is>
       </c>
       <c r="G6" s="11" t="n">
-        <v>3520</v>
+        <v>6723</v>
       </c>
       <c r="H6" s="12" t="n">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="I6" s="12" t="n">
-        <v>0</v>
+        <v>4030</v>
       </c>
       <c r="J6" s="13" t="n">
-        <v>100</v>
+        <v>36.4</v>
       </c>
       <c r="K6" s="13" t="n">
-        <v>3520</v>
+        <v>2445</v>
       </c>
       <c r="L6" s="14" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="N6" s="15" t="n">
         <v>0</v>
@@ -2644,10 +2590,10 @@
         <v>0</v>
       </c>
       <c r="P6" s="16" t="n">
-        <v>100</v>
+        <v>40.1</v>
       </c>
       <c r="Q6" s="16" t="n">
-        <v>3520</v>
+        <v>2694</v>
       </c>
       <c r="R6" s="17" t="inlineStr">
         <is>
@@ -2662,7 +2608,7 @@
       <c r="D7" s="10" t="n"/>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>MMR009020</t>
+          <t>MMR002</t>
         </is>
       </c>
       <c r="F7" s="11" t="inlineStr">
@@ -2671,37 +2617,37 @@
         </is>
       </c>
       <c r="G7" s="11" t="n">
-        <v>33544</v>
+        <v>3520</v>
       </c>
       <c r="H7" s="12" t="n">
-        <v>0</v>
+        <v>16.4</v>
       </c>
       <c r="I7" s="12" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="J7" s="13" t="n">
-        <v>100</v>
+        <v>72.7</v>
       </c>
       <c r="K7" s="13" t="n">
-        <v>33544</v>
+        <v>2559</v>
       </c>
       <c r="L7" s="14" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="M7" s="14" t="n">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="N7" s="15" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="P7" s="16" t="n">
-        <v>100</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="Q7" s="16" t="n">
-        <v>33544</v>
+        <v>2942</v>
       </c>
       <c r="R7" s="17" t="inlineStr">
         <is>
@@ -2716,7 +2662,7 @@
       <c r="D8" s="10" t="n"/>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>MMR012001</t>
+          <t>MMR003</t>
         </is>
       </c>
       <c r="F8" s="11" t="inlineStr">
@@ -2725,25 +2671,25 @@
         </is>
       </c>
       <c r="G8" s="11" t="n">
-        <v>14767</v>
+        <v>5079</v>
       </c>
       <c r="H8" s="12" t="n">
-        <v>49.6</v>
+        <v>49.2</v>
       </c>
       <c r="I8" s="12" t="n">
-        <v>7322</v>
+        <v>2498</v>
       </c>
       <c r="J8" s="13" t="n">
-        <v>20.2</v>
+        <v>50.2</v>
       </c>
       <c r="K8" s="13" t="n">
-        <v>2978</v>
+        <v>2548</v>
       </c>
       <c r="L8" s="14" t="n">
-        <v>30.3</v>
+        <v>0.6</v>
       </c>
       <c r="M8" s="14" t="n">
-        <v>4467</v>
+        <v>33</v>
       </c>
       <c r="N8" s="15" t="n">
         <v>0</v>
@@ -2752,14 +2698,14 @@
         <v>0</v>
       </c>
       <c r="P8" s="16" t="n">
-        <v>50.4</v>
+        <v>50.8</v>
       </c>
       <c r="Q8" s="16" t="n">
-        <v>7445</v>
+        <v>2581</v>
       </c>
       <c r="R8" s="17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2770,7 +2716,7 @@
       <c r="D9" s="10" t="n"/>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>MMR012003</t>
+          <t>MMR004</t>
         </is>
       </c>
       <c r="F9" s="11" t="inlineStr">
@@ -2779,25 +2725,25 @@
         </is>
       </c>
       <c r="G9" s="11" t="n">
-        <v>6723</v>
+        <v>5668</v>
       </c>
       <c r="H9" s="12" t="n">
-        <v>0</v>
+        <v>40.7</v>
       </c>
       <c r="I9" s="12" t="n">
-        <v>0</v>
+        <v>2306</v>
       </c>
       <c r="J9" s="13" t="n">
-        <v>100</v>
+        <v>54.4</v>
       </c>
       <c r="K9" s="13" t="n">
-        <v>6723</v>
+        <v>3082</v>
       </c>
       <c r="L9" s="14" t="n">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="M9" s="14" t="n">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="N9" s="15" t="n">
         <v>0</v>
@@ -2806,10 +2752,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="16" t="n">
-        <v>100</v>
+        <v>59.3</v>
       </c>
       <c r="Q9" s="16" t="n">
-        <v>6723</v>
+        <v>3362</v>
       </c>
       <c r="R9" s="17" t="inlineStr">
         <is>
@@ -2824,7 +2770,7 @@
       <c r="D10" s="10" t="n"/>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>MMR012004</t>
+          <t>MMR005</t>
         </is>
       </c>
       <c r="F10" s="11" t="inlineStr">
@@ -2833,19 +2779,19 @@
         </is>
       </c>
       <c r="G10" s="11" t="n">
-        <v>6091</v>
+        <v>14767</v>
       </c>
       <c r="H10" s="12" t="n">
-        <v>84.09999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="I10" s="12" t="n">
-        <v>5120</v>
+        <v>1117</v>
       </c>
       <c r="J10" s="13" t="n">
-        <v>15.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="K10" s="13" t="n">
-        <v>971</v>
+        <v>13650</v>
       </c>
       <c r="L10" s="14" t="n">
         <v>0</v>
@@ -2860,14 +2806,14 @@
         <v>0</v>
       </c>
       <c r="P10" s="16" t="n">
-        <v>15.9</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="Q10" s="16" t="n">
-        <v>971</v>
+        <v>13650</v>
       </c>
       <c r="R10" s="17" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2878,7 +2824,7 @@
       <c r="D11" s="10" t="n"/>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>MMR012005</t>
+          <t>MMR006</t>
         </is>
       </c>
       <c r="F11" s="11" t="inlineStr">
@@ -2887,25 +2833,25 @@
         </is>
       </c>
       <c r="G11" s="11" t="n">
-        <v>5668</v>
+        <v>20302</v>
       </c>
       <c r="H11" s="12" t="n">
-        <v>50.8</v>
+        <v>55</v>
       </c>
       <c r="I11" s="12" t="n">
-        <v>2879</v>
+        <v>11160</v>
       </c>
       <c r="J11" s="13" t="n">
-        <v>49.2</v>
+        <v>38.9</v>
       </c>
       <c r="K11" s="13" t="n">
-        <v>2789</v>
+        <v>7903</v>
       </c>
       <c r="L11" s="14" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="M11" s="14" t="n">
-        <v>0</v>
+        <v>1239</v>
       </c>
       <c r="N11" s="15" t="n">
         <v>0</v>
@@ -2914,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="P11" s="16" t="n">
-        <v>49.2</v>
+        <v>45</v>
       </c>
       <c r="Q11" s="16" t="n">
-        <v>2789</v>
+        <v>9142</v>
       </c>
       <c r="R11" s="17" t="inlineStr">
         <is>
@@ -2932,7 +2878,7 @@
       <c r="D12" s="10" t="n"/>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>MMR012006</t>
+          <t>MMR007</t>
         </is>
       </c>
       <c r="F12" s="11" t="inlineStr">
@@ -2941,25 +2887,25 @@
         </is>
       </c>
       <c r="G12" s="11" t="n">
-        <v>12398</v>
+        <v>8152</v>
       </c>
       <c r="H12" s="12" t="n">
-        <v>56.5</v>
+        <v>47.3</v>
       </c>
       <c r="I12" s="12" t="n">
-        <v>7003</v>
+        <v>3858</v>
       </c>
       <c r="J12" s="13" t="n">
-        <v>43.5</v>
+        <v>48.4</v>
       </c>
       <c r="K12" s="13" t="n">
-        <v>5395</v>
+        <v>3942</v>
       </c>
       <c r="L12" s="14" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="M12" s="14" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="N12" s="15" t="n">
         <v>0</v>
@@ -2968,10 +2914,10 @@
         <v>0</v>
       </c>
       <c r="P12" s="16" t="n">
-        <v>43.5</v>
+        <v>52.7</v>
       </c>
       <c r="Q12" s="16" t="n">
-        <v>5395</v>
+        <v>4295</v>
       </c>
       <c r="R12" s="17" t="inlineStr">
         <is>
@@ -2986,7 +2932,7 @@
       <c r="D13" s="10" t="n"/>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>MMR012014</t>
+          <t>MMR009</t>
         </is>
       </c>
       <c r="F13" s="11" t="inlineStr">
@@ -2995,37 +2941,37 @@
         </is>
       </c>
       <c r="G13" s="11" t="n">
-        <v>33544</v>
+        <v>5569</v>
       </c>
       <c r="H13" s="12" t="n">
-        <v>55.1</v>
+        <v>28</v>
       </c>
       <c r="I13" s="12" t="n">
-        <v>18497</v>
+        <v>1561</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>44.9</v>
+        <v>53.7</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>15047</v>
+        <v>2990</v>
       </c>
       <c r="L13" s="14" t="n">
-        <v>0</v>
+        <v>13.6</v>
       </c>
       <c r="M13" s="14" t="n">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="N13" s="15" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="O13" s="15" t="n">
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="P13" s="16" t="n">
-        <v>44.9</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="16" t="n">
-        <v>15047</v>
+        <v>4009</v>
       </c>
       <c r="R13" s="17" t="inlineStr">
         <is>
@@ -3040,7 +2986,7 @@
       <c r="D14" s="10" t="n"/>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>MMR001001</t>
+          <t>MMR011</t>
         </is>
       </c>
       <c r="F14" s="11" t="inlineStr">
@@ -3049,37 +2995,37 @@
         </is>
       </c>
       <c r="G14" s="11" t="n">
-        <v>14767</v>
+        <v>6697</v>
       </c>
       <c r="H14" s="12" t="n">
-        <v>57</v>
+        <v>53.4</v>
       </c>
       <c r="I14" s="12" t="n">
-        <v>8414</v>
+        <v>3575</v>
       </c>
       <c r="J14" s="13" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="K14" s="13" t="n">
-        <v>6353</v>
+        <v>2073</v>
       </c>
       <c r="L14" s="14" t="n">
-        <v>0</v>
+        <v>13.9</v>
       </c>
       <c r="M14" s="14" t="n">
-        <v>0</v>
+        <v>934</v>
       </c>
       <c r="N14" s="15" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="O14" s="15" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="P14" s="16" t="n">
-        <v>43</v>
+        <v>46.6</v>
       </c>
       <c r="Q14" s="16" t="n">
-        <v>6353</v>
+        <v>3122</v>
       </c>
       <c r="R14" s="17" t="inlineStr">
         <is>
@@ -3094,7 +3040,7 @@
       <c r="D15" s="10" t="n"/>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>MMR001002</t>
+          <t>MMR012</t>
         </is>
       </c>
       <c r="F15" s="11" t="inlineStr">
@@ -3103,37 +3049,37 @@
         </is>
       </c>
       <c r="G15" s="11" t="n">
-        <v>6723</v>
+        <v>7385</v>
       </c>
       <c r="H15" s="12" t="n">
-        <v>57</v>
+        <v>32.9</v>
       </c>
       <c r="I15" s="12" t="n">
-        <v>3831</v>
+        <v>2428</v>
       </c>
       <c r="J15" s="13" t="n">
-        <v>43</v>
+        <v>58.4</v>
       </c>
       <c r="K15" s="13" t="n">
-        <v>2893</v>
+        <v>4312</v>
       </c>
       <c r="L15" s="14" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="M15" s="14" t="n">
-        <v>0</v>
+        <v>599</v>
       </c>
       <c r="N15" s="15" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="O15" s="15" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="P15" s="16" t="n">
-        <v>43</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="Q15" s="16" t="n">
-        <v>2893</v>
+        <v>4957</v>
       </c>
       <c r="R15" s="17" t="inlineStr">
         <is>
@@ -3148,7 +3094,7 @@
       <c r="D16" s="10" t="n"/>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>MMR001004</t>
+          <t>MMR014</t>
         </is>
       </c>
       <c r="F16" s="11" t="inlineStr">
@@ -3157,25 +3103,25 @@
         </is>
       </c>
       <c r="G16" s="11" t="n">
-        <v>6091</v>
+        <v>17144</v>
       </c>
       <c r="H16" s="12" t="n">
-        <v>57</v>
+        <v>59.3</v>
       </c>
       <c r="I16" s="12" t="n">
-        <v>3471</v>
+        <v>10164</v>
       </c>
       <c r="J16" s="13" t="n">
-        <v>43</v>
+        <v>20.6</v>
       </c>
       <c r="K16" s="13" t="n">
-        <v>2621</v>
+        <v>3540</v>
       </c>
       <c r="L16" s="14" t="n">
-        <v>0</v>
+        <v>20.1</v>
       </c>
       <c r="M16" s="14" t="n">
-        <v>0</v>
+        <v>3440</v>
       </c>
       <c r="N16" s="15" t="n">
         <v>0</v>
@@ -3184,14 +3130,14 @@
         <v>0</v>
       </c>
       <c r="P16" s="16" t="n">
-        <v>43</v>
+        <v>40.7</v>
       </c>
       <c r="Q16" s="16" t="n">
-        <v>2621</v>
+        <v>6980</v>
       </c>
       <c r="R16" s="17" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -3200,158 +3146,50 @@
       <c r="B17" s="10" t="n"/>
       <c r="C17" s="10" t="n"/>
       <c r="D17" s="10" t="n"/>
-      <c r="E17" s="11" t="inlineStr">
-        <is>
-          <t>MMR002005</t>
-        </is>
-      </c>
-      <c r="F17" s="11" t="inlineStr">
+      <c r="E17" s="18" t="inlineStr">
+        <is>
+          <t>MMR015</t>
+        </is>
+      </c>
+      <c r="F17" s="18" t="inlineStr">
         <is>
           <t>ret</t>
         </is>
       </c>
-      <c r="G17" s="11" t="n">
-        <v>5884</v>
-      </c>
-      <c r="H17" s="12" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I17" s="12" t="n">
-        <v>662</v>
-      </c>
-      <c r="J17" s="13" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K17" s="13" t="n">
-        <v>5052</v>
-      </c>
-      <c r="L17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O17" s="15" t="n">
-        <v>170</v>
-      </c>
-      <c r="P17" s="16" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="Q17" s="16" t="n">
-        <v>5222</v>
+      <c r="G17" s="18" t="n">
+        <v>12398</v>
+      </c>
+      <c r="H17" s="19" t="n">
+        <v>36.7</v>
+      </c>
+      <c r="I17" s="19" t="n">
+        <v>4546</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>51.7</v>
+      </c>
+      <c r="K17" s="20" t="n">
+        <v>6407</v>
+      </c>
+      <c r="L17" s="21" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="M17" s="21" t="n">
+        <v>782</v>
+      </c>
+      <c r="N17" s="22" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="O17" s="22" t="n">
+        <v>663</v>
+      </c>
+      <c r="P17" s="23" t="n">
+        <v>63.3</v>
+      </c>
+      <c r="Q17" s="23" t="n">
+        <v>7852</v>
       </c>
       <c r="R17" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
-      <c r="B18" s="10" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="10" t="n"/>
-      <c r="E18" s="11" t="inlineStr">
-        <is>
-          <t>MMR002006</t>
-        </is>
-      </c>
-      <c r="F18" s="11" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="G18" s="11" t="n">
-        <v>20302</v>
-      </c>
-      <c r="H18" s="12" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I18" s="12" t="n">
-        <v>2286</v>
-      </c>
-      <c r="J18" s="13" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K18" s="13" t="n">
-        <v>17429</v>
-      </c>
-      <c r="L18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="15" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O18" s="15" t="n">
-        <v>587</v>
-      </c>
-      <c r="P18" s="16" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="Q18" s="16" t="n">
-        <v>18016</v>
-      </c>
-      <c r="R18" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="10" t="n"/>
-      <c r="B19" s="10" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="10" t="n"/>
-      <c r="E19" s="18" t="inlineStr">
-        <is>
-          <t>MMR002007</t>
-        </is>
-      </c>
-      <c r="F19" s="18" t="inlineStr">
-        <is>
-          <t>ret</t>
-        </is>
-      </c>
-      <c r="G19" s="18" t="n">
-        <v>5054</v>
-      </c>
-      <c r="H19" s="19" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="I19" s="19" t="n">
-        <v>569</v>
-      </c>
-      <c r="J19" s="20" t="n">
-        <v>85.8</v>
-      </c>
-      <c r="K19" s="20" t="n">
-        <v>4339</v>
-      </c>
-      <c r="L19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O19" s="22" t="n">
-        <v>146</v>
-      </c>
-      <c r="P19" s="23" t="n">
-        <v>88.7</v>
-      </c>
-      <c r="Q19" s="23" t="n">
-        <v>4485</v>
-      </c>
-      <c r="R19" s="17" t="inlineStr">
         <is>
           <t>3</t>
         </is>
@@ -3371,7 +3209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3412,7 +3250,7 @@
       <c r="D5" s="3" t="n"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>admin3</t>
+          <t>admin1</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
@@ -3486,322 +3324,52 @@
       <c r="B6" s="10" t="n"/>
       <c r="C6" s="10" t="n"/>
       <c r="D6" s="10" t="n"/>
-      <c r="E6" s="11" t="inlineStr">
-        <is>
-          <t>MMR012001</t>
-        </is>
-      </c>
-      <c r="F6" s="11" t="inlineStr">
+      <c r="E6" s="18" t="inlineStr">
+        <is>
+          <t>MMR012</t>
+        </is>
+      </c>
+      <c r="F6" s="18" t="inlineStr">
         <is>
           <t>ndsp</t>
         </is>
       </c>
-      <c r="G6" s="11" t="n">
-        <v>44301</v>
-      </c>
-      <c r="H6" s="12" t="n">
-        <v>23</v>
-      </c>
-      <c r="I6" s="12" t="n">
-        <v>10207</v>
-      </c>
-      <c r="J6" s="13" t="n">
-        <v>49.7</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <v>22014</v>
-      </c>
-      <c r="L6" s="14" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="M6" s="14" t="n">
-        <v>12079</v>
-      </c>
-      <c r="N6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16" t="n">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="16" t="n">
-        <v>34094</v>
+      <c r="G6" s="18" t="n">
+        <v>22154</v>
+      </c>
+      <c r="H6" s="19" t="n">
+        <v>32</v>
+      </c>
+      <c r="I6" s="19" t="n">
+        <v>7094</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>60.9</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>13492</v>
+      </c>
+      <c r="L6" s="21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="M6" s="21" t="n">
+        <v>1507</v>
+      </c>
+      <c r="N6" s="22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O6" s="22" t="n">
+        <v>62</v>
+      </c>
+      <c r="P6" s="23" t="n">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="23" t="n">
+        <v>15060</v>
       </c>
       <c r="R6" s="17" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="n"/>
-      <c r="B7" s="10" t="n"/>
-      <c r="C7" s="10" t="n"/>
-      <c r="D7" s="10" t="n"/>
-      <c r="E7" s="11" t="inlineStr">
-        <is>
-          <t>MMR012003</t>
-        </is>
-      </c>
-      <c r="F7" s="11" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G7" s="11" t="n">
-        <v>20170</v>
-      </c>
-      <c r="H7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="K7" s="13" t="n">
-        <v>20170</v>
-      </c>
-      <c r="L7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="16" t="n">
-        <v>20170</v>
-      </c>
-      <c r="R7" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="n"/>
-      <c r="B8" s="10" t="n"/>
-      <c r="C8" s="10" t="n"/>
-      <c r="D8" s="10" t="n"/>
-      <c r="E8" s="11" t="inlineStr">
-        <is>
-          <t>MMR012004</t>
-        </is>
-      </c>
-      <c r="F8" s="11" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G8" s="11" t="n">
-        <v>18273</v>
-      </c>
-      <c r="H8" s="12" t="n">
-        <v>78.2</v>
-      </c>
-      <c r="I8" s="12" t="n">
-        <v>14290</v>
-      </c>
-      <c r="J8" s="13" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="K8" s="13" t="n">
-        <v>3983</v>
-      </c>
-      <c r="L8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="Q8" s="16" t="n">
-        <v>3983</v>
-      </c>
-      <c r="R8" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="n"/>
-      <c r="B9" s="10" t="n"/>
-      <c r="C9" s="10" t="n"/>
-      <c r="D9" s="10" t="n"/>
-      <c r="E9" s="11" t="inlineStr">
-        <is>
-          <t>MMR012005</t>
-        </is>
-      </c>
-      <c r="F9" s="11" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>17005</v>
-      </c>
-      <c r="H9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="13" t="n">
-        <v>100</v>
-      </c>
-      <c r="K9" s="13" t="n">
-        <v>17005</v>
-      </c>
-      <c r="L9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="16" t="n">
-        <v>17005</v>
-      </c>
-      <c r="R9" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
-      <c r="B10" s="10" t="n"/>
-      <c r="C10" s="10" t="n"/>
-      <c r="D10" s="10" t="n"/>
-      <c r="E10" s="11" t="inlineStr">
-        <is>
-          <t>MMR012007</t>
-        </is>
-      </c>
-      <c r="F10" s="11" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G10" s="11" t="n">
-        <v>15236</v>
-      </c>
-      <c r="H10" s="12" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="I10" s="12" t="n">
-        <v>3554</v>
-      </c>
-      <c r="J10" s="13" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="K10" s="13" t="n">
-        <v>11682</v>
-      </c>
-      <c r="L10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16" t="n">
-        <v>76.7</v>
-      </c>
-      <c r="Q10" s="16" t="n">
-        <v>11682</v>
-      </c>
-      <c r="R10" s="17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="10" t="n"/>
-      <c r="B11" s="10" t="n"/>
-      <c r="C11" s="10" t="n"/>
-      <c r="D11" s="10" t="n"/>
-      <c r="E11" s="18" t="inlineStr">
-        <is>
-          <t>MMR012010</t>
-        </is>
-      </c>
-      <c r="F11" s="18" t="inlineStr">
-        <is>
-          <t>ndsp</t>
-        </is>
-      </c>
-      <c r="G11" s="18" t="n">
-        <v>22154</v>
-      </c>
-      <c r="H11" s="19" t="n">
-        <v>100</v>
-      </c>
-      <c r="I11" s="19" t="n">
-        <v>22154</v>
-      </c>
-      <c r="J11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17" t="inlineStr">
-        <is>
-          <t>1-2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
